--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -566,79 +566,79 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>4935</v>
+        <v>4874</v>
       </c>
       <c r="E2" t="n">
-        <v>4618</v>
+        <v>4559</v>
       </c>
       <c r="F2" t="n">
-        <v>4581</v>
+        <v>4523</v>
       </c>
       <c r="G2" t="n">
-        <v>4611</v>
+        <v>4553</v>
       </c>
       <c r="H2" t="n">
-        <v>4624</v>
+        <v>4566</v>
       </c>
       <c r="I2" t="n">
-        <v>4757</v>
+        <v>4698</v>
       </c>
       <c r="J2" t="n">
-        <v>5280</v>
+        <v>5216</v>
       </c>
       <c r="K2" t="n">
-        <v>5896</v>
+        <v>5828</v>
       </c>
       <c r="L2" t="n">
-        <v>6431</v>
+        <v>6358</v>
       </c>
       <c r="M2" t="n">
-        <v>6578</v>
+        <v>6504</v>
       </c>
       <c r="N2" t="n">
-        <v>6506</v>
+        <v>6429</v>
       </c>
       <c r="O2" t="n">
-        <v>6434</v>
+        <v>6353</v>
       </c>
       <c r="P2" t="n">
-        <v>6324</v>
+        <v>6238</v>
       </c>
       <c r="Q2" t="n">
-        <v>6257</v>
+        <v>6167</v>
       </c>
       <c r="R2" t="n">
-        <v>6180</v>
+        <v>6085</v>
       </c>
       <c r="S2" t="n">
-        <v>6155</v>
+        <v>6059</v>
       </c>
       <c r="T2" t="n">
-        <v>6199</v>
+        <v>6105</v>
       </c>
       <c r="U2" t="n">
-        <v>6346</v>
+        <v>6258</v>
       </c>
       <c r="V2" t="n">
-        <v>6516</v>
+        <v>6435</v>
       </c>
       <c r="W2" t="n">
-        <v>6503</v>
+        <v>6422</v>
       </c>
       <c r="X2" t="n">
-        <v>6277</v>
+        <v>6198</v>
       </c>
       <c r="Y2" t="n">
-        <v>5991</v>
+        <v>5914</v>
       </c>
       <c r="Z2" t="n">
-        <v>5736</v>
+        <v>5662</v>
       </c>
       <c r="AA2" t="n">
-        <v>5344</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="3">
@@ -649,79 +649,79 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>4874</v>
+        <v>4832</v>
       </c>
       <c r="E3" t="n">
-        <v>4559</v>
+        <v>4519</v>
       </c>
       <c r="F3" t="n">
-        <v>4523</v>
+        <v>4483</v>
       </c>
       <c r="G3" t="n">
-        <v>4553</v>
+        <v>4513</v>
       </c>
       <c r="H3" t="n">
-        <v>4566</v>
+        <v>4526</v>
       </c>
       <c r="I3" t="n">
-        <v>4698</v>
+        <v>4657</v>
       </c>
       <c r="J3" t="n">
-        <v>5216</v>
+        <v>5173</v>
       </c>
       <c r="K3" t="n">
-        <v>5828</v>
+        <v>5781</v>
       </c>
       <c r="L3" t="n">
-        <v>6358</v>
+        <v>6309</v>
       </c>
       <c r="M3" t="n">
-        <v>6504</v>
+        <v>6454</v>
       </c>
       <c r="N3" t="n">
-        <v>6429</v>
+        <v>6376</v>
       </c>
       <c r="O3" t="n">
-        <v>6353</v>
+        <v>6297</v>
       </c>
       <c r="P3" t="n">
-        <v>6238</v>
+        <v>6178</v>
       </c>
       <c r="Q3" t="n">
-        <v>6167</v>
+        <v>6105</v>
       </c>
       <c r="R3" t="n">
-        <v>6085</v>
+        <v>6021</v>
       </c>
       <c r="S3" t="n">
-        <v>6059</v>
+        <v>5994</v>
       </c>
       <c r="T3" t="n">
-        <v>6105</v>
+        <v>6031</v>
       </c>
       <c r="U3" t="n">
-        <v>6258</v>
+        <v>6155</v>
       </c>
       <c r="V3" t="n">
-        <v>6435</v>
+        <v>6299</v>
       </c>
       <c r="W3" t="n">
-        <v>6422</v>
+        <v>6287</v>
       </c>
       <c r="X3" t="n">
-        <v>6198</v>
+        <v>6070</v>
       </c>
       <c r="Y3" t="n">
-        <v>5914</v>
+        <v>5796</v>
       </c>
       <c r="Z3" t="n">
-        <v>5662</v>
+        <v>5552</v>
       </c>
       <c r="AA3" t="n">
-        <v>5274</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="4">
@@ -732,79 +732,79 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>4832</v>
+        <v>4946</v>
       </c>
       <c r="E4" t="n">
-        <v>4519</v>
+        <v>4685</v>
       </c>
       <c r="F4" t="n">
-        <v>4483</v>
+        <v>4561</v>
       </c>
       <c r="G4" t="n">
-        <v>4513</v>
+        <v>4536</v>
       </c>
       <c r="H4" t="n">
-        <v>4526</v>
+        <v>4564</v>
       </c>
       <c r="I4" t="n">
-        <v>4657</v>
+        <v>4637</v>
       </c>
       <c r="J4" t="n">
-        <v>5173</v>
+        <v>4796</v>
       </c>
       <c r="K4" t="n">
-        <v>5781</v>
+        <v>5098</v>
       </c>
       <c r="L4" t="n">
-        <v>6309</v>
+        <v>5766</v>
       </c>
       <c r="M4" t="n">
-        <v>6454</v>
+        <v>6219</v>
       </c>
       <c r="N4" t="n">
-        <v>6376</v>
+        <v>6307</v>
       </c>
       <c r="O4" t="n">
-        <v>6297</v>
+        <v>6231</v>
       </c>
       <c r="P4" t="n">
-        <v>6178</v>
+        <v>6145</v>
       </c>
       <c r="Q4" t="n">
-        <v>6105</v>
+        <v>6041</v>
       </c>
       <c r="R4" t="n">
-        <v>6021</v>
+        <v>5955</v>
       </c>
       <c r="S4" t="n">
-        <v>5994</v>
+        <v>5961</v>
       </c>
       <c r="T4" t="n">
-        <v>6031</v>
+        <v>6036</v>
       </c>
       <c r="U4" t="n">
-        <v>6155</v>
+        <v>6184</v>
       </c>
       <c r="V4" t="n">
-        <v>6299</v>
+        <v>6264</v>
       </c>
       <c r="W4" t="n">
-        <v>6287</v>
+        <v>6133</v>
       </c>
       <c r="X4" t="n">
-        <v>6070</v>
+        <v>5895</v>
       </c>
       <c r="Y4" t="n">
-        <v>5796</v>
+        <v>5619</v>
       </c>
       <c r="Z4" t="n">
-        <v>5552</v>
+        <v>5493</v>
       </c>
       <c r="AA4" t="n">
-        <v>5178</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="5">
@@ -812,82 +812,82 @@
         <v>2026</v>
       </c>
       <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
       <c r="D5" t="n">
-        <v>4946</v>
+        <v>5071</v>
       </c>
       <c r="E5" t="n">
-        <v>4685</v>
+        <v>4847</v>
       </c>
       <c r="F5" t="n">
-        <v>4561</v>
+        <v>4753</v>
       </c>
       <c r="G5" t="n">
-        <v>4536</v>
+        <v>4699</v>
       </c>
       <c r="H5" t="n">
-        <v>4564</v>
+        <v>4671</v>
       </c>
       <c r="I5" t="n">
-        <v>4637</v>
+        <v>4758</v>
       </c>
       <c r="J5" t="n">
-        <v>4796</v>
+        <v>4918</v>
       </c>
       <c r="K5" t="n">
-        <v>5098</v>
+        <v>5269</v>
       </c>
       <c r="L5" t="n">
         <v>5766</v>
       </c>
       <c r="M5" t="n">
-        <v>6219</v>
+        <v>6257</v>
       </c>
       <c r="N5" t="n">
-        <v>6307</v>
+        <v>6466</v>
       </c>
       <c r="O5" t="n">
-        <v>6231</v>
+        <v>6423</v>
       </c>
       <c r="P5" t="n">
-        <v>6145</v>
+        <v>6344</v>
       </c>
       <c r="Q5" t="n">
-        <v>6041</v>
+        <v>6230</v>
       </c>
       <c r="R5" t="n">
-        <v>5955</v>
+        <v>6144</v>
       </c>
       <c r="S5" t="n">
-        <v>5961</v>
+        <v>6169</v>
       </c>
       <c r="T5" t="n">
-        <v>6036</v>
+        <v>6295</v>
       </c>
       <c r="U5" t="n">
-        <v>6184</v>
+        <v>6522</v>
       </c>
       <c r="V5" t="n">
-        <v>6264</v>
+        <v>6660</v>
       </c>
       <c r="W5" t="n">
-        <v>6133</v>
+        <v>6587</v>
       </c>
       <c r="X5" t="n">
-        <v>5895</v>
+        <v>6373</v>
       </c>
       <c r="Y5" t="n">
-        <v>5619</v>
+        <v>6078</v>
       </c>
       <c r="Z5" t="n">
-        <v>5493</v>
+        <v>5871</v>
       </c>
       <c r="AA5" t="n">
-        <v>5223</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="6">
@@ -898,79 +898,79 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5071</v>
+        <v>5277</v>
       </c>
       <c r="E6" t="n">
-        <v>4847</v>
+        <v>5024</v>
       </c>
       <c r="F6" t="n">
-        <v>4753</v>
+        <v>4907</v>
       </c>
       <c r="G6" t="n">
-        <v>4699</v>
+        <v>4929</v>
       </c>
       <c r="H6" t="n">
-        <v>4671</v>
+        <v>5025</v>
       </c>
       <c r="I6" t="n">
-        <v>4758</v>
+        <v>5199</v>
       </c>
       <c r="J6" t="n">
-        <v>4918</v>
+        <v>5732</v>
       </c>
       <c r="K6" t="n">
-        <v>5269</v>
+        <v>6368</v>
       </c>
       <c r="L6" t="n">
-        <v>5766</v>
+        <v>6931</v>
       </c>
       <c r="M6" t="n">
-        <v>6257</v>
+        <v>7118</v>
       </c>
       <c r="N6" t="n">
-        <v>6466</v>
+        <v>6994</v>
       </c>
       <c r="O6" t="n">
-        <v>6423</v>
+        <v>6860</v>
       </c>
       <c r="P6" t="n">
-        <v>6344</v>
+        <v>6708</v>
       </c>
       <c r="Q6" t="n">
-        <v>6230</v>
+        <v>6652</v>
       </c>
       <c r="R6" t="n">
-        <v>6144</v>
+        <v>6602</v>
       </c>
       <c r="S6" t="n">
-        <v>6169</v>
+        <v>6619</v>
       </c>
       <c r="T6" t="n">
-        <v>6295</v>
+        <v>6636</v>
       </c>
       <c r="U6" t="n">
-        <v>6522</v>
+        <v>6811</v>
       </c>
       <c r="V6" t="n">
-        <v>6660</v>
+        <v>7037</v>
       </c>
       <c r="W6" t="n">
-        <v>6587</v>
+        <v>7007</v>
       </c>
       <c r="X6" t="n">
-        <v>6373</v>
+        <v>6802</v>
       </c>
       <c r="Y6" t="n">
-        <v>6078</v>
+        <v>6514</v>
       </c>
       <c r="Z6" t="n">
-        <v>5871</v>
+        <v>6252</v>
       </c>
       <c r="AA6" t="n">
-        <v>5505</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="7">
@@ -981,79 +981,79 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>5277</v>
+        <v>5385</v>
       </c>
       <c r="E7" t="n">
-        <v>5024</v>
+        <v>5072</v>
       </c>
       <c r="F7" t="n">
-        <v>4907</v>
+        <v>5036</v>
       </c>
       <c r="G7" t="n">
-        <v>4929</v>
+        <v>5068</v>
       </c>
       <c r="H7" t="n">
-        <v>5025</v>
+        <v>5082</v>
       </c>
       <c r="I7" t="n">
-        <v>5199</v>
+        <v>5224</v>
       </c>
       <c r="J7" t="n">
-        <v>5732</v>
+        <v>5783</v>
       </c>
       <c r="K7" t="n">
-        <v>6368</v>
+        <v>6442</v>
       </c>
       <c r="L7" t="n">
-        <v>6931</v>
+        <v>7013</v>
       </c>
       <c r="M7" t="n">
-        <v>7118</v>
+        <v>7171</v>
       </c>
       <c r="N7" t="n">
-        <v>6994</v>
+        <v>7081</v>
       </c>
       <c r="O7" t="n">
-        <v>6860</v>
+        <v>6989</v>
       </c>
       <c r="P7" t="n">
-        <v>6708</v>
+        <v>6851</v>
       </c>
       <c r="Q7" t="n">
-        <v>6652</v>
+        <v>6766</v>
       </c>
       <c r="R7" t="n">
-        <v>6602</v>
+        <v>6669</v>
       </c>
       <c r="S7" t="n">
-        <v>6619</v>
+        <v>6638</v>
       </c>
       <c r="T7" t="n">
-        <v>6636</v>
+        <v>6693</v>
       </c>
       <c r="U7" t="n">
-        <v>6811</v>
+        <v>6876</v>
       </c>
       <c r="V7" t="n">
-        <v>7037</v>
+        <v>7088</v>
       </c>
       <c r="W7" t="n">
-        <v>7007</v>
+        <v>7075</v>
       </c>
       <c r="X7" t="n">
-        <v>6802</v>
+        <v>6844</v>
       </c>
       <c r="Y7" t="n">
-        <v>6514</v>
+        <v>6552</v>
       </c>
       <c r="Z7" t="n">
-        <v>6252</v>
+        <v>6291</v>
       </c>
       <c r="AA7" t="n">
-        <v>5837</v>
+        <v>5891</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -566,79 +566,79 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>4874</v>
+        <v>5024</v>
       </c>
       <c r="E2" t="n">
-        <v>4559</v>
+        <v>4716</v>
       </c>
       <c r="F2" t="n">
-        <v>4523</v>
+        <v>4661</v>
       </c>
       <c r="G2" t="n">
-        <v>4553</v>
+        <v>4666</v>
       </c>
       <c r="H2" t="n">
-        <v>4566</v>
+        <v>4673</v>
       </c>
       <c r="I2" t="n">
-        <v>4698</v>
+        <v>4813</v>
       </c>
       <c r="J2" t="n">
-        <v>5216</v>
+        <v>5314</v>
       </c>
       <c r="K2" t="n">
-        <v>5828</v>
+        <v>5880</v>
       </c>
       <c r="L2" t="n">
-        <v>6358</v>
+        <v>6381</v>
       </c>
       <c r="M2" t="n">
-        <v>6504</v>
+        <v>6540</v>
       </c>
       <c r="N2" t="n">
-        <v>6429</v>
+        <v>6486</v>
       </c>
       <c r="O2" t="n">
-        <v>6353</v>
+        <v>6428</v>
       </c>
       <c r="P2" t="n">
-        <v>6238</v>
+        <v>6338</v>
       </c>
       <c r="Q2" t="n">
-        <v>6167</v>
+        <v>6283</v>
       </c>
       <c r="R2" t="n">
-        <v>6085</v>
+        <v>6216</v>
       </c>
       <c r="S2" t="n">
-        <v>6059</v>
+        <v>6205</v>
       </c>
       <c r="T2" t="n">
-        <v>6105</v>
+        <v>6253</v>
       </c>
       <c r="U2" t="n">
-        <v>6258</v>
+        <v>6414</v>
       </c>
       <c r="V2" t="n">
-        <v>6435</v>
+        <v>6610</v>
       </c>
       <c r="W2" t="n">
-        <v>6422</v>
+        <v>6589</v>
       </c>
       <c r="X2" t="n">
-        <v>6198</v>
+        <v>6341</v>
       </c>
       <c r="Y2" t="n">
-        <v>5914</v>
+        <v>6024</v>
       </c>
       <c r="Z2" t="n">
-        <v>5662</v>
+        <v>5736</v>
       </c>
       <c r="AA2" t="n">
-        <v>5274</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="3">
@@ -649,79 +649,79 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>4832</v>
+        <v>5142</v>
       </c>
       <c r="E3" t="n">
-        <v>4519</v>
+        <v>4879</v>
       </c>
       <c r="F3" t="n">
-        <v>4483</v>
+        <v>4759</v>
       </c>
       <c r="G3" t="n">
-        <v>4513</v>
+        <v>4717</v>
       </c>
       <c r="H3" t="n">
-        <v>4526</v>
+        <v>4740</v>
       </c>
       <c r="I3" t="n">
-        <v>4657</v>
+        <v>4809</v>
       </c>
       <c r="J3" t="n">
-        <v>5173</v>
+        <v>4947</v>
       </c>
       <c r="K3" t="n">
-        <v>5781</v>
+        <v>5219</v>
       </c>
       <c r="L3" t="n">
-        <v>6309</v>
+        <v>5782</v>
       </c>
       <c r="M3" t="n">
-        <v>6454</v>
+        <v>6260</v>
       </c>
       <c r="N3" t="n">
-        <v>6376</v>
+        <v>6398</v>
       </c>
       <c r="O3" t="n">
-        <v>6297</v>
+        <v>6374</v>
       </c>
       <c r="P3" t="n">
+        <v>6305</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6237</v>
+      </c>
+      <c r="R3" t="n">
         <v>6178</v>
       </c>
-      <c r="Q3" t="n">
-        <v>6105</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6021</v>
-      </c>
       <c r="S3" t="n">
-        <v>5994</v>
+        <v>6171</v>
       </c>
       <c r="T3" t="n">
-        <v>6031</v>
+        <v>6253</v>
       </c>
       <c r="U3" t="n">
-        <v>6155</v>
+        <v>6461</v>
       </c>
       <c r="V3" t="n">
-        <v>6299</v>
+        <v>6579</v>
       </c>
       <c r="W3" t="n">
-        <v>6287</v>
+        <v>6408</v>
       </c>
       <c r="X3" t="n">
-        <v>6070</v>
+        <v>6124</v>
       </c>
       <c r="Y3" t="n">
-        <v>5796</v>
+        <v>5809</v>
       </c>
       <c r="Z3" t="n">
-        <v>5552</v>
+        <v>5642</v>
       </c>
       <c r="AA3" t="n">
-        <v>5178</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="4">
@@ -729,82 +729,82 @@
         <v>2026</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
       <c r="D4" t="n">
-        <v>4946</v>
+        <v>5385</v>
       </c>
       <c r="E4" t="n">
-        <v>4685</v>
+        <v>5152</v>
       </c>
       <c r="F4" t="n">
-        <v>4561</v>
+        <v>5055</v>
       </c>
       <c r="G4" t="n">
-        <v>4536</v>
+        <v>4999</v>
       </c>
       <c r="H4" t="n">
-        <v>4564</v>
+        <v>4970</v>
       </c>
       <c r="I4" t="n">
-        <v>4637</v>
+        <v>5053</v>
       </c>
       <c r="J4" t="n">
-        <v>4796</v>
+        <v>5204</v>
       </c>
       <c r="K4" t="n">
-        <v>5098</v>
+        <v>5535</v>
       </c>
       <c r="L4" t="n">
-        <v>5766</v>
+        <v>6005</v>
       </c>
       <c r="M4" t="n">
-        <v>6219</v>
+        <v>6469</v>
       </c>
       <c r="N4" t="n">
-        <v>6307</v>
+        <v>6667</v>
       </c>
       <c r="O4" t="n">
-        <v>6231</v>
+        <v>6637</v>
       </c>
       <c r="P4" t="n">
-        <v>6145</v>
+        <v>6583</v>
       </c>
       <c r="Q4" t="n">
-        <v>6041</v>
+        <v>6504</v>
       </c>
       <c r="R4" t="n">
-        <v>5955</v>
+        <v>6445</v>
       </c>
       <c r="S4" t="n">
-        <v>5961</v>
+        <v>6475</v>
       </c>
       <c r="T4" t="n">
-        <v>6036</v>
+        <v>6634</v>
       </c>
       <c r="U4" t="n">
-        <v>6184</v>
+        <v>6918</v>
       </c>
       <c r="V4" t="n">
-        <v>6264</v>
+        <v>7091</v>
       </c>
       <c r="W4" t="n">
-        <v>6133</v>
+        <v>7006</v>
       </c>
       <c r="X4" t="n">
-        <v>5895</v>
+        <v>6758</v>
       </c>
       <c r="Y4" t="n">
-        <v>5619</v>
+        <v>6416</v>
       </c>
       <c r="Z4" t="n">
-        <v>5493</v>
+        <v>6176</v>
       </c>
       <c r="AA4" t="n">
-        <v>5223</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="5">
@@ -815,79 +815,79 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>5071</v>
+        <v>5617</v>
       </c>
       <c r="E5" t="n">
-        <v>4847</v>
+        <v>5354</v>
       </c>
       <c r="F5" t="n">
-        <v>4753</v>
+        <v>5232</v>
       </c>
       <c r="G5" t="n">
-        <v>4699</v>
+        <v>5253</v>
       </c>
       <c r="H5" t="n">
-        <v>4671</v>
+        <v>5345</v>
       </c>
       <c r="I5" t="n">
-        <v>4758</v>
+        <v>5511</v>
       </c>
       <c r="J5" t="n">
-        <v>4918</v>
+        <v>6021</v>
       </c>
       <c r="K5" t="n">
-        <v>5269</v>
+        <v>6629</v>
       </c>
       <c r="L5" t="n">
-        <v>5766</v>
+        <v>7167</v>
       </c>
       <c r="M5" t="n">
-        <v>6257</v>
+        <v>7345</v>
       </c>
       <c r="N5" t="n">
-        <v>6466</v>
+        <v>7243</v>
       </c>
       <c r="O5" t="n">
-        <v>6423</v>
+        <v>7134</v>
       </c>
       <c r="P5" t="n">
-        <v>6344</v>
+        <v>7009</v>
       </c>
       <c r="Q5" t="n">
-        <v>6230</v>
+        <v>6962</v>
       </c>
       <c r="R5" t="n">
-        <v>6144</v>
+        <v>6922</v>
       </c>
       <c r="S5" t="n">
-        <v>6169</v>
+        <v>6944</v>
       </c>
       <c r="T5" t="n">
-        <v>6295</v>
+        <v>6966</v>
       </c>
       <c r="U5" t="n">
-        <v>6522</v>
+        <v>7197</v>
       </c>
       <c r="V5" t="n">
-        <v>6660</v>
+        <v>7494</v>
       </c>
       <c r="W5" t="n">
-        <v>6587</v>
+        <v>7460</v>
       </c>
       <c r="X5" t="n">
-        <v>6373</v>
+        <v>7223</v>
       </c>
       <c r="Y5" t="n">
-        <v>6078</v>
+        <v>6891</v>
       </c>
       <c r="Z5" t="n">
-        <v>5871</v>
+        <v>6589</v>
       </c>
       <c r="AA5" t="n">
-        <v>5505</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="6">
@@ -898,79 +898,79 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5277</v>
+        <v>5628</v>
       </c>
       <c r="E6" t="n">
-        <v>5024</v>
+        <v>5321</v>
       </c>
       <c r="F6" t="n">
-        <v>4907</v>
+        <v>5266</v>
       </c>
       <c r="G6" t="n">
-        <v>4929</v>
+        <v>5272</v>
       </c>
       <c r="H6" t="n">
-        <v>5025</v>
+        <v>5280</v>
       </c>
       <c r="I6" t="n">
-        <v>5199</v>
+        <v>5431</v>
       </c>
       <c r="J6" t="n">
-        <v>5732</v>
+        <v>5973</v>
       </c>
       <c r="K6" t="n">
-        <v>6368</v>
+        <v>6586</v>
       </c>
       <c r="L6" t="n">
-        <v>6931</v>
+        <v>7127</v>
       </c>
       <c r="M6" t="n">
-        <v>7118</v>
+        <v>7300</v>
       </c>
       <c r="N6" t="n">
-        <v>6994</v>
+        <v>7234</v>
       </c>
       <c r="O6" t="n">
-        <v>6860</v>
+        <v>7162</v>
       </c>
       <c r="P6" t="n">
-        <v>6708</v>
+        <v>7052</v>
       </c>
       <c r="Q6" t="n">
-        <v>6652</v>
+        <v>6985</v>
       </c>
       <c r="R6" t="n">
-        <v>6602</v>
+        <v>6904</v>
       </c>
       <c r="S6" t="n">
-        <v>6619</v>
+        <v>6891</v>
       </c>
       <c r="T6" t="n">
-        <v>6636</v>
+        <v>6956</v>
       </c>
       <c r="U6" t="n">
-        <v>6811</v>
+        <v>7179</v>
       </c>
       <c r="V6" t="n">
-        <v>7037</v>
+        <v>7450</v>
       </c>
       <c r="W6" t="n">
-        <v>7007</v>
+        <v>7428</v>
       </c>
       <c r="X6" t="n">
-        <v>6802</v>
+        <v>7165</v>
       </c>
       <c r="Y6" t="n">
-        <v>6514</v>
+        <v>6831</v>
       </c>
       <c r="Z6" t="n">
-        <v>6252</v>
+        <v>6527</v>
       </c>
       <c r="AA6" t="n">
-        <v>5837</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="7">
@@ -981,79 +981,79 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>5385</v>
+        <v>5400</v>
       </c>
       <c r="E7" t="n">
-        <v>5072</v>
+        <v>5096</v>
       </c>
       <c r="F7" t="n">
-        <v>5036</v>
+        <v>5042</v>
       </c>
       <c r="G7" t="n">
-        <v>5068</v>
+        <v>5048</v>
       </c>
       <c r="H7" t="n">
-        <v>5082</v>
+        <v>5056</v>
       </c>
       <c r="I7" t="n">
-        <v>5224</v>
+        <v>5206</v>
       </c>
       <c r="J7" t="n">
-        <v>5783</v>
+        <v>5746</v>
       </c>
       <c r="K7" t="n">
-        <v>6442</v>
+        <v>6357</v>
       </c>
       <c r="L7" t="n">
-        <v>7013</v>
+        <v>6896</v>
       </c>
       <c r="M7" t="n">
-        <v>7171</v>
+        <v>7068</v>
       </c>
       <c r="N7" t="n">
-        <v>7081</v>
+        <v>7014</v>
       </c>
       <c r="O7" t="n">
-        <v>6989</v>
+        <v>6955</v>
       </c>
       <c r="P7" t="n">
-        <v>6851</v>
+        <v>6865</v>
       </c>
       <c r="Q7" t="n">
-        <v>6766</v>
+        <v>6810</v>
       </c>
       <c r="R7" t="n">
-        <v>6669</v>
+        <v>6743</v>
       </c>
       <c r="S7" t="n">
-        <v>6638</v>
+        <v>6732</v>
       </c>
       <c r="T7" t="n">
-        <v>6693</v>
+        <v>6790</v>
       </c>
       <c r="U7" t="n">
-        <v>6876</v>
+        <v>6987</v>
       </c>
       <c r="V7" t="n">
-        <v>7088</v>
+        <v>7226</v>
       </c>
       <c r="W7" t="n">
-        <v>7075</v>
+        <v>7203</v>
       </c>
       <c r="X7" t="n">
-        <v>6844</v>
+        <v>6939</v>
       </c>
       <c r="Y7" t="n">
-        <v>6552</v>
+        <v>6601</v>
       </c>
       <c r="Z7" t="n">
-        <v>6291</v>
+        <v>6295</v>
       </c>
       <c r="AA7" t="n">
-        <v>5891</v>
+        <v>5828</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -566,79 +566,79 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>5024</v>
+        <v>4758</v>
       </c>
       <c r="E2" t="n">
-        <v>4716</v>
+        <v>4540</v>
       </c>
       <c r="F2" t="n">
-        <v>4661</v>
+        <v>4440</v>
       </c>
       <c r="G2" t="n">
-        <v>4666</v>
+        <v>4405</v>
       </c>
       <c r="H2" t="n">
-        <v>4673</v>
+        <v>4426</v>
       </c>
       <c r="I2" t="n">
-        <v>4813</v>
+        <v>4488</v>
       </c>
       <c r="J2" t="n">
-        <v>5314</v>
+        <v>4612</v>
       </c>
       <c r="K2" t="n">
-        <v>5880</v>
+        <v>4857</v>
       </c>
       <c r="L2" t="n">
-        <v>6381</v>
+        <v>5365</v>
       </c>
       <c r="M2" t="n">
-        <v>6540</v>
+        <v>5795</v>
       </c>
       <c r="N2" t="n">
-        <v>6486</v>
+        <v>5920</v>
       </c>
       <c r="O2" t="n">
-        <v>6428</v>
+        <v>5848</v>
       </c>
       <c r="P2" t="n">
-        <v>6338</v>
+        <v>5649</v>
       </c>
       <c r="Q2" t="n">
-        <v>6283</v>
+        <v>5449</v>
       </c>
       <c r="R2" t="n">
-        <v>6216</v>
+        <v>5278</v>
       </c>
       <c r="S2" t="n">
-        <v>6205</v>
+        <v>5257</v>
       </c>
       <c r="T2" t="n">
-        <v>6253</v>
+        <v>5409</v>
       </c>
       <c r="U2" t="n">
-        <v>6414</v>
+        <v>5790</v>
       </c>
       <c r="V2" t="n">
-        <v>6610</v>
+        <v>6007</v>
       </c>
       <c r="W2" t="n">
-        <v>6589</v>
+        <v>5891</v>
       </c>
       <c r="X2" t="n">
-        <v>6341</v>
+        <v>5699</v>
       </c>
       <c r="Y2" t="n">
-        <v>6024</v>
+        <v>5486</v>
       </c>
       <c r="Z2" t="n">
-        <v>5736</v>
+        <v>5373</v>
       </c>
       <c r="AA2" t="n">
-        <v>5298</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="3">
@@ -646,82 +646,82 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
       <c r="D3" t="n">
-        <v>5142</v>
+        <v>4876</v>
       </c>
       <c r="E3" t="n">
-        <v>4879</v>
+        <v>4744</v>
       </c>
       <c r="F3" t="n">
-        <v>4759</v>
+        <v>4700</v>
       </c>
       <c r="G3" t="n">
-        <v>4717</v>
+        <v>4659</v>
       </c>
       <c r="H3" t="n">
-        <v>4740</v>
+        <v>4614</v>
       </c>
       <c r="I3" t="n">
-        <v>4809</v>
+        <v>4691</v>
       </c>
       <c r="J3" t="n">
-        <v>4947</v>
+        <v>4801</v>
       </c>
       <c r="K3" t="n">
-        <v>5219</v>
+        <v>5106</v>
       </c>
       <c r="L3" t="n">
-        <v>5782</v>
+        <v>5536</v>
       </c>
       <c r="M3" t="n">
-        <v>6260</v>
+        <v>6003</v>
       </c>
       <c r="N3" t="n">
-        <v>6398</v>
+        <v>6212</v>
       </c>
       <c r="O3" t="n">
-        <v>6374</v>
+        <v>6162</v>
       </c>
       <c r="P3" t="n">
-        <v>6305</v>
+        <v>6066</v>
       </c>
       <c r="Q3" t="n">
-        <v>6237</v>
+        <v>5890</v>
       </c>
       <c r="R3" t="n">
-        <v>6178</v>
+        <v>5750</v>
       </c>
       <c r="S3" t="n">
-        <v>6171</v>
+        <v>5764</v>
       </c>
       <c r="T3" t="n">
-        <v>6253</v>
+        <v>5967</v>
       </c>
       <c r="U3" t="n">
-        <v>6461</v>
+        <v>6366</v>
       </c>
       <c r="V3" t="n">
-        <v>6579</v>
+        <v>6623</v>
       </c>
       <c r="W3" t="n">
-        <v>6408</v>
+        <v>6559</v>
       </c>
       <c r="X3" t="n">
-        <v>6124</v>
+        <v>6388</v>
       </c>
       <c r="Y3" t="n">
-        <v>5809</v>
+        <v>6130</v>
       </c>
       <c r="Z3" t="n">
-        <v>5642</v>
+        <v>5949</v>
       </c>
       <c r="AA3" t="n">
-        <v>5347</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="4">
@@ -732,79 +732,79 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5385</v>
+        <v>5308</v>
       </c>
       <c r="E4" t="n">
+        <v>5147</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5073</v>
+      </c>
+      <c r="H4" t="n">
         <v>5152</v>
       </c>
-      <c r="F4" t="n">
-        <v>5055</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4970</v>
-      </c>
       <c r="I4" t="n">
-        <v>5053</v>
+        <v>5314</v>
       </c>
       <c r="J4" t="n">
-        <v>5204</v>
+        <v>5817</v>
       </c>
       <c r="K4" t="n">
-        <v>5535</v>
+        <v>6408</v>
       </c>
       <c r="L4" t="n">
-        <v>6005</v>
+        <v>6924</v>
       </c>
       <c r="M4" t="n">
-        <v>6469</v>
+        <v>7094</v>
       </c>
       <c r="N4" t="n">
-        <v>6667</v>
+        <v>6921</v>
       </c>
       <c r="O4" t="n">
-        <v>6637</v>
+        <v>6734</v>
       </c>
       <c r="P4" t="n">
-        <v>6583</v>
+        <v>6522</v>
       </c>
       <c r="Q4" t="n">
-        <v>6504</v>
+        <v>6442</v>
       </c>
       <c r="R4" t="n">
-        <v>6445</v>
+        <v>6373</v>
       </c>
       <c r="S4" t="n">
-        <v>6475</v>
+        <v>6406</v>
       </c>
       <c r="T4" t="n">
-        <v>6634</v>
+        <v>6439</v>
       </c>
       <c r="U4" t="n">
-        <v>6918</v>
+        <v>6781</v>
       </c>
       <c r="V4" t="n">
-        <v>7091</v>
+        <v>7223</v>
       </c>
       <c r="W4" t="n">
-        <v>7006</v>
+        <v>7198</v>
       </c>
       <c r="X4" t="n">
-        <v>6758</v>
+        <v>7019</v>
       </c>
       <c r="Y4" t="n">
-        <v>6416</v>
+        <v>6769</v>
       </c>
       <c r="Z4" t="n">
-        <v>6176</v>
+        <v>6542</v>
       </c>
       <c r="AA4" t="n">
-        <v>5751</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="5">
@@ -815,79 +815,79 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5617</v>
+        <v>5769</v>
       </c>
       <c r="E5" t="n">
-        <v>5354</v>
+        <v>5504</v>
       </c>
       <c r="F5" t="n">
-        <v>5232</v>
+        <v>5430</v>
       </c>
       <c r="G5" t="n">
-        <v>5253</v>
+        <v>5424</v>
       </c>
       <c r="H5" t="n">
-        <v>5345</v>
+        <v>5463</v>
       </c>
       <c r="I5" t="n">
-        <v>5511</v>
+        <v>5616</v>
       </c>
       <c r="J5" t="n">
-        <v>6021</v>
+        <v>6111</v>
       </c>
       <c r="K5" t="n">
-        <v>6629</v>
+        <v>6676</v>
       </c>
       <c r="L5" t="n">
-        <v>7167</v>
+        <v>7151</v>
       </c>
       <c r="M5" t="n">
-        <v>7345</v>
+        <v>7270</v>
       </c>
       <c r="N5" t="n">
-        <v>7243</v>
+        <v>7123</v>
       </c>
       <c r="O5" t="n">
-        <v>7134</v>
+        <v>6969</v>
       </c>
       <c r="P5" t="n">
-        <v>7009</v>
+        <v>6761</v>
       </c>
       <c r="Q5" t="n">
-        <v>6962</v>
+        <v>6648</v>
       </c>
       <c r="R5" t="n">
-        <v>6922</v>
+        <v>6527</v>
       </c>
       <c r="S5" t="n">
-        <v>6944</v>
+        <v>6533</v>
       </c>
       <c r="T5" t="n">
-        <v>6966</v>
+        <v>6625</v>
       </c>
       <c r="U5" t="n">
-        <v>7197</v>
+        <v>6882</v>
       </c>
       <c r="V5" t="n">
-        <v>7494</v>
+        <v>7196</v>
       </c>
       <c r="W5" t="n">
-        <v>7460</v>
+        <v>7183</v>
       </c>
       <c r="X5" t="n">
-        <v>7223</v>
+        <v>6983</v>
       </c>
       <c r="Y5" t="n">
-        <v>6891</v>
+        <v>6725</v>
       </c>
       <c r="Z5" t="n">
-        <v>6589</v>
+        <v>6486</v>
       </c>
       <c r="AA5" t="n">
-        <v>6111</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="6">
@@ -898,79 +898,79 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5628</v>
+        <v>5693</v>
       </c>
       <c r="E6" t="n">
-        <v>5321</v>
+        <v>5437</v>
       </c>
       <c r="F6" t="n">
-        <v>5266</v>
+        <v>5366</v>
       </c>
       <c r="G6" t="n">
-        <v>5272</v>
+        <v>5361</v>
       </c>
       <c r="H6" t="n">
-        <v>5280</v>
+        <v>5396</v>
       </c>
       <c r="I6" t="n">
-        <v>5431</v>
+        <v>5535</v>
       </c>
       <c r="J6" t="n">
-        <v>5973</v>
+        <v>5986</v>
       </c>
       <c r="K6" t="n">
-        <v>6586</v>
+        <v>6500</v>
       </c>
       <c r="L6" t="n">
-        <v>7127</v>
+        <v>6933</v>
       </c>
       <c r="M6" t="n">
-        <v>7300</v>
+        <v>7041</v>
       </c>
       <c r="N6" t="n">
-        <v>7234</v>
+        <v>6907</v>
       </c>
       <c r="O6" t="n">
-        <v>7162</v>
+        <v>6767</v>
       </c>
       <c r="P6" t="n">
-        <v>7052</v>
+        <v>6576</v>
       </c>
       <c r="Q6" t="n">
-        <v>6985</v>
+        <v>6473</v>
       </c>
       <c r="R6" t="n">
-        <v>6904</v>
+        <v>6363</v>
       </c>
       <c r="S6" t="n">
-        <v>6891</v>
+        <v>6369</v>
       </c>
       <c r="T6" t="n">
-        <v>6956</v>
+        <v>6452</v>
       </c>
       <c r="U6" t="n">
-        <v>7179</v>
+        <v>6688</v>
       </c>
       <c r="V6" t="n">
-        <v>7450</v>
+        <v>6975</v>
       </c>
       <c r="W6" t="n">
-        <v>7428</v>
+        <v>6962</v>
       </c>
       <c r="X6" t="n">
-        <v>7165</v>
+        <v>6759</v>
       </c>
       <c r="Y6" t="n">
-        <v>6831</v>
+        <v>6498</v>
       </c>
       <c r="Z6" t="n">
-        <v>6527</v>
+        <v>6255</v>
       </c>
       <c r="AA6" t="n">
-        <v>6065</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="7">
@@ -981,79 +981,79 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>5400</v>
+        <v>5370</v>
       </c>
       <c r="E7" t="n">
-        <v>5096</v>
+        <v>5117</v>
       </c>
       <c r="F7" t="n">
-        <v>5042</v>
+        <v>5046</v>
       </c>
       <c r="G7" t="n">
-        <v>5048</v>
+        <v>5040</v>
       </c>
       <c r="H7" t="n">
-        <v>5056</v>
+        <v>5076</v>
       </c>
       <c r="I7" t="n">
-        <v>5206</v>
+        <v>5214</v>
       </c>
       <c r="J7" t="n">
-        <v>5746</v>
+        <v>5663</v>
       </c>
       <c r="K7" t="n">
-        <v>6357</v>
+        <v>6174</v>
       </c>
       <c r="L7" t="n">
-        <v>6896</v>
+        <v>6605</v>
       </c>
       <c r="M7" t="n">
-        <v>7068</v>
+        <v>6712</v>
       </c>
       <c r="N7" t="n">
-        <v>7014</v>
+        <v>6597</v>
       </c>
       <c r="O7" t="n">
-        <v>6955</v>
+        <v>6476</v>
       </c>
       <c r="P7" t="n">
-        <v>6865</v>
+        <v>6312</v>
       </c>
       <c r="Q7" t="n">
-        <v>6810</v>
+        <v>6223</v>
       </c>
       <c r="R7" t="n">
-        <v>6743</v>
+        <v>6128</v>
       </c>
       <c r="S7" t="n">
-        <v>6732</v>
+        <v>6133</v>
       </c>
       <c r="T7" t="n">
-        <v>6790</v>
+        <v>6205</v>
       </c>
       <c r="U7" t="n">
-        <v>6987</v>
+        <v>6409</v>
       </c>
       <c r="V7" t="n">
-        <v>7226</v>
+        <v>6657</v>
       </c>
       <c r="W7" t="n">
-        <v>7203</v>
+        <v>6644</v>
       </c>
       <c r="X7" t="n">
-        <v>6939</v>
+        <v>6437</v>
       </c>
       <c r="Y7" t="n">
-        <v>6601</v>
+        <v>6172</v>
       </c>
       <c r="Z7" t="n">
-        <v>6295</v>
+        <v>5925</v>
       </c>
       <c r="AA7" t="n">
-        <v>5828</v>
+        <v>5569</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -563,82 +563,82 @@
         <v>2026</v>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
       <c r="D2" t="n">
-        <v>4758</v>
+        <v>5087</v>
       </c>
       <c r="E2" t="n">
-        <v>4540</v>
+        <v>4931</v>
       </c>
       <c r="F2" t="n">
-        <v>4440</v>
+        <v>4880</v>
       </c>
       <c r="G2" t="n">
-        <v>4405</v>
+        <v>4832</v>
       </c>
       <c r="H2" t="n">
-        <v>4426</v>
+        <v>4779</v>
       </c>
       <c r="I2" t="n">
-        <v>4488</v>
+        <v>4848</v>
       </c>
       <c r="J2" t="n">
-        <v>4612</v>
+        <v>4946</v>
       </c>
       <c r="K2" t="n">
-        <v>4857</v>
+        <v>5219</v>
       </c>
       <c r="L2" t="n">
-        <v>5365</v>
+        <v>5604</v>
       </c>
       <c r="M2" t="n">
-        <v>5795</v>
+        <v>6022</v>
       </c>
       <c r="N2" t="n">
-        <v>5920</v>
+        <v>6210</v>
       </c>
       <c r="O2" t="n">
-        <v>5848</v>
+        <v>6189</v>
       </c>
       <c r="P2" t="n">
-        <v>5649</v>
+        <v>6151</v>
       </c>
       <c r="Q2" t="n">
-        <v>5449</v>
+        <v>6081</v>
       </c>
       <c r="R2" t="n">
-        <v>5278</v>
+        <v>6026</v>
       </c>
       <c r="S2" t="n">
-        <v>5257</v>
+        <v>6037</v>
       </c>
       <c r="T2" t="n">
-        <v>5409</v>
+        <v>6209</v>
       </c>
       <c r="U2" t="n">
-        <v>5790</v>
+        <v>6546</v>
       </c>
       <c r="V2" t="n">
-        <v>6007</v>
+        <v>6763</v>
       </c>
       <c r="W2" t="n">
-        <v>5891</v>
+        <v>6702</v>
       </c>
       <c r="X2" t="n">
-        <v>5699</v>
+        <v>6539</v>
       </c>
       <c r="Y2" t="n">
-        <v>5486</v>
+        <v>6294</v>
       </c>
       <c r="Z2" t="n">
-        <v>5373</v>
+        <v>6121</v>
       </c>
       <c r="AA2" t="n">
-        <v>5174</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="3">
@@ -649,79 +649,79 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4876</v>
+        <v>5588</v>
       </c>
       <c r="E3" t="n">
-        <v>4744</v>
+        <v>5362</v>
       </c>
       <c r="F3" t="n">
-        <v>4700</v>
+        <v>5266</v>
       </c>
       <c r="G3" t="n">
-        <v>4659</v>
+        <v>5284</v>
       </c>
       <c r="H3" t="n">
-        <v>4614</v>
+        <v>5336</v>
       </c>
       <c r="I3" t="n">
-        <v>4691</v>
+        <v>5466</v>
       </c>
       <c r="J3" t="n">
-        <v>4801</v>
+        <v>5894</v>
       </c>
       <c r="K3" t="n">
-        <v>5106</v>
+        <v>6414</v>
       </c>
       <c r="L3" t="n">
-        <v>5536</v>
+        <v>6892</v>
       </c>
       <c r="M3" t="n">
-        <v>6003</v>
+        <v>7121</v>
       </c>
       <c r="N3" t="n">
-        <v>6212</v>
+        <v>7085</v>
       </c>
       <c r="O3" t="n">
-        <v>6162</v>
+        <v>6967</v>
       </c>
       <c r="P3" t="n">
-        <v>6066</v>
+        <v>6823</v>
       </c>
       <c r="Q3" t="n">
-        <v>5890</v>
+        <v>6799</v>
       </c>
       <c r="R3" t="n">
-        <v>5750</v>
+        <v>6744</v>
       </c>
       <c r="S3" t="n">
-        <v>5764</v>
+        <v>6727</v>
       </c>
       <c r="T3" t="n">
-        <v>5967</v>
+        <v>6665</v>
       </c>
       <c r="U3" t="n">
-        <v>6366</v>
+        <v>6939</v>
       </c>
       <c r="V3" t="n">
-        <v>6623</v>
+        <v>7331</v>
       </c>
       <c r="W3" t="n">
-        <v>6559</v>
+        <v>7300</v>
       </c>
       <c r="X3" t="n">
-        <v>6388</v>
+        <v>7103</v>
       </c>
       <c r="Y3" t="n">
-        <v>6130</v>
+        <v>6836</v>
       </c>
       <c r="Z3" t="n">
-        <v>5949</v>
+        <v>6601</v>
       </c>
       <c r="AA3" t="n">
-        <v>5654</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="4">
@@ -732,79 +732,79 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5308</v>
+        <v>5886</v>
       </c>
       <c r="E4" t="n">
-        <v>5147</v>
+        <v>5634</v>
       </c>
       <c r="F4" t="n">
-        <v>5072</v>
+        <v>5557</v>
       </c>
       <c r="G4" t="n">
-        <v>5073</v>
+        <v>5555</v>
       </c>
       <c r="H4" t="n">
-        <v>5152</v>
+        <v>5590</v>
       </c>
       <c r="I4" t="n">
-        <v>5314</v>
+        <v>5740</v>
       </c>
       <c r="J4" t="n">
-        <v>5817</v>
+        <v>6227</v>
       </c>
       <c r="K4" t="n">
-        <v>6408</v>
+        <v>6780</v>
       </c>
       <c r="L4" t="n">
-        <v>6924</v>
+        <v>7244</v>
       </c>
       <c r="M4" t="n">
-        <v>7094</v>
+        <v>7364</v>
       </c>
       <c r="N4" t="n">
-        <v>6921</v>
+        <v>7245</v>
       </c>
       <c r="O4" t="n">
-        <v>6734</v>
+        <v>7111</v>
       </c>
       <c r="P4" t="n">
-        <v>6522</v>
+        <v>6932</v>
       </c>
       <c r="Q4" t="n">
-        <v>6442</v>
+        <v>6835</v>
       </c>
       <c r="R4" t="n">
-        <v>6373</v>
+        <v>6733</v>
       </c>
       <c r="S4" t="n">
-        <v>6406</v>
+        <v>6744</v>
       </c>
       <c r="T4" t="n">
-        <v>6439</v>
+        <v>6814</v>
       </c>
       <c r="U4" t="n">
-        <v>6781</v>
+        <v>7029</v>
       </c>
       <c r="V4" t="n">
-        <v>7223</v>
+        <v>7292</v>
       </c>
       <c r="W4" t="n">
-        <v>7198</v>
+        <v>7273</v>
       </c>
       <c r="X4" t="n">
-        <v>7019</v>
+        <v>7055</v>
       </c>
       <c r="Y4" t="n">
-        <v>6769</v>
+        <v>6770</v>
       </c>
       <c r="Z4" t="n">
-        <v>6542</v>
+        <v>6513</v>
       </c>
       <c r="AA4" t="n">
-        <v>6183</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="5">
@@ -815,79 +815,79 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5769</v>
+        <v>5795</v>
       </c>
       <c r="E5" t="n">
-        <v>5504</v>
+        <v>5499</v>
       </c>
       <c r="F5" t="n">
-        <v>5430</v>
+        <v>5408</v>
       </c>
       <c r="G5" t="n">
-        <v>5424</v>
+        <v>5407</v>
       </c>
       <c r="H5" t="n">
-        <v>5463</v>
+        <v>5440</v>
       </c>
       <c r="I5" t="n">
-        <v>5616</v>
+        <v>5587</v>
       </c>
       <c r="J5" t="n">
-        <v>6111</v>
+        <v>6061</v>
       </c>
       <c r="K5" t="n">
-        <v>6676</v>
+        <v>6600</v>
       </c>
       <c r="L5" t="n">
-        <v>7151</v>
+        <v>7052</v>
       </c>
       <c r="M5" t="n">
-        <v>7270</v>
+        <v>7170</v>
       </c>
       <c r="N5" t="n">
-        <v>7123</v>
+        <v>7090</v>
       </c>
       <c r="O5" t="n">
-        <v>6969</v>
+        <v>7001</v>
       </c>
       <c r="P5" t="n">
-        <v>6761</v>
+        <v>6883</v>
       </c>
       <c r="Q5" t="n">
-        <v>6648</v>
+        <v>6818</v>
       </c>
       <c r="R5" t="n">
-        <v>6527</v>
+        <v>6750</v>
       </c>
       <c r="S5" t="n">
-        <v>6533</v>
+        <v>6756</v>
       </c>
       <c r="T5" t="n">
-        <v>6625</v>
+        <v>6793</v>
       </c>
       <c r="U5" t="n">
-        <v>6882</v>
+        <v>6906</v>
       </c>
       <c r="V5" t="n">
-        <v>7196</v>
+        <v>7045</v>
       </c>
       <c r="W5" t="n">
-        <v>7183</v>
+        <v>7027</v>
       </c>
       <c r="X5" t="n">
-        <v>6983</v>
+        <v>6815</v>
       </c>
       <c r="Y5" t="n">
-        <v>6725</v>
+        <v>6539</v>
       </c>
       <c r="Z5" t="n">
-        <v>6486</v>
+        <v>6290</v>
       </c>
       <c r="AA5" t="n">
-        <v>6140</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="6">
@@ -898,79 +898,79 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5693</v>
+        <v>5445</v>
       </c>
       <c r="E6" t="n">
-        <v>5437</v>
+        <v>5151</v>
       </c>
       <c r="F6" t="n">
-        <v>5366</v>
+        <v>5061</v>
       </c>
       <c r="G6" t="n">
-        <v>5361</v>
+        <v>5059</v>
       </c>
       <c r="H6" t="n">
-        <v>5396</v>
+        <v>5093</v>
       </c>
       <c r="I6" t="n">
-        <v>5535</v>
+        <v>5238</v>
       </c>
       <c r="J6" t="n">
-        <v>5986</v>
+        <v>5710</v>
       </c>
       <c r="K6" t="n">
+        <v>6246</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6697</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6813</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6753</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6686</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6596</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6547</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6495</v>
+      </c>
+      <c r="S6" t="n">
         <v>6500</v>
       </c>
-      <c r="L6" t="n">
-        <v>6933</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7041</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6907</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6767</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6576</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6473</v>
-      </c>
-      <c r="R6" t="n">
-        <v>6363</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6369</v>
-      </c>
       <c r="T6" t="n">
-        <v>6452</v>
+        <v>6525</v>
       </c>
       <c r="U6" t="n">
-        <v>6688</v>
+        <v>6604</v>
       </c>
       <c r="V6" t="n">
-        <v>6975</v>
+        <v>6701</v>
       </c>
       <c r="W6" t="n">
-        <v>6962</v>
+        <v>6682</v>
       </c>
       <c r="X6" t="n">
-        <v>6759</v>
+        <v>6467</v>
       </c>
       <c r="Y6" t="n">
-        <v>6498</v>
+        <v>6185</v>
       </c>
       <c r="Z6" t="n">
-        <v>6255</v>
+        <v>5932</v>
       </c>
       <c r="AA6" t="n">
-        <v>5905</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="7">
@@ -981,79 +981,79 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5370</v>
+        <v>5075</v>
       </c>
       <c r="E7" t="n">
-        <v>5117</v>
+        <v>4783</v>
       </c>
       <c r="F7" t="n">
-        <v>5046</v>
+        <v>4694</v>
       </c>
       <c r="G7" t="n">
-        <v>5040</v>
+        <v>4693</v>
       </c>
       <c r="H7" t="n">
-        <v>5076</v>
+        <v>4726</v>
       </c>
       <c r="I7" t="n">
-        <v>5214</v>
+        <v>4870</v>
       </c>
       <c r="J7" t="n">
-        <v>5663</v>
+        <v>5340</v>
       </c>
       <c r="K7" t="n">
-        <v>6174</v>
+        <v>5873</v>
       </c>
       <c r="L7" t="n">
-        <v>6605</v>
+        <v>6322</v>
       </c>
       <c r="M7" t="n">
-        <v>6712</v>
+        <v>6438</v>
       </c>
       <c r="N7" t="n">
-        <v>6597</v>
+        <v>6398</v>
       </c>
       <c r="O7" t="n">
-        <v>6476</v>
+        <v>6353</v>
       </c>
       <c r="P7" t="n">
-        <v>6312</v>
+        <v>6293</v>
       </c>
       <c r="Q7" t="n">
-        <v>6223</v>
+        <v>6261</v>
       </c>
       <c r="R7" t="n">
-        <v>6128</v>
+        <v>6226</v>
       </c>
       <c r="S7" t="n">
-        <v>6133</v>
+        <v>6227</v>
       </c>
       <c r="T7" t="n">
-        <v>6205</v>
+        <v>6231</v>
       </c>
       <c r="U7" t="n">
-        <v>6409</v>
+        <v>6243</v>
       </c>
       <c r="V7" t="n">
-        <v>6657</v>
+        <v>6257</v>
       </c>
       <c r="W7" t="n">
-        <v>6644</v>
+        <v>6238</v>
       </c>
       <c r="X7" t="n">
-        <v>6437</v>
+        <v>6025</v>
       </c>
       <c r="Y7" t="n">
-        <v>6172</v>
+        <v>5746</v>
       </c>
       <c r="Z7" t="n">
-        <v>5925</v>
+        <v>5496</v>
       </c>
       <c r="AA7" t="n">
-        <v>5569</v>
+        <v>5127</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -566,79 +566,79 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>5087</v>
+        <v>5494</v>
       </c>
       <c r="E2" t="n">
-        <v>4931</v>
+        <v>5316</v>
       </c>
       <c r="F2" t="n">
-        <v>4880</v>
+        <v>5240</v>
       </c>
       <c r="G2" t="n">
-        <v>4832</v>
+        <v>5259</v>
       </c>
       <c r="H2" t="n">
-        <v>4779</v>
+        <v>5312</v>
       </c>
       <c r="I2" t="n">
-        <v>4848</v>
+        <v>5449</v>
       </c>
       <c r="J2" t="n">
-        <v>4946</v>
+        <v>5895</v>
       </c>
       <c r="K2" t="n">
-        <v>5219</v>
+        <v>6437</v>
       </c>
       <c r="L2" t="n">
-        <v>5604</v>
+        <v>6935</v>
       </c>
       <c r="M2" t="n">
-        <v>6022</v>
+        <v>7173</v>
       </c>
       <c r="N2" t="n">
-        <v>6210</v>
+        <v>7138</v>
       </c>
       <c r="O2" t="n">
-        <v>6189</v>
+        <v>7017</v>
       </c>
       <c r="P2" t="n">
-        <v>6151</v>
+        <v>6872</v>
       </c>
       <c r="Q2" t="n">
-        <v>6081</v>
+        <v>6847</v>
       </c>
       <c r="R2" t="n">
-        <v>6026</v>
+        <v>6791</v>
       </c>
       <c r="S2" t="n">
-        <v>6037</v>
+        <v>6774</v>
       </c>
       <c r="T2" t="n">
-        <v>6209</v>
+        <v>6712</v>
       </c>
       <c r="U2" t="n">
-        <v>6546</v>
+        <v>7014</v>
       </c>
       <c r="V2" t="n">
-        <v>6763</v>
+        <v>7448</v>
       </c>
       <c r="W2" t="n">
-        <v>6702</v>
+        <v>7416</v>
       </c>
       <c r="X2" t="n">
-        <v>6539</v>
+        <v>7221</v>
       </c>
       <c r="Y2" t="n">
-        <v>6294</v>
+        <v>6956</v>
       </c>
       <c r="Z2" t="n">
-        <v>6121</v>
+        <v>6723</v>
       </c>
       <c r="AA2" t="n">
-        <v>5841</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="3">
@@ -649,79 +649,79 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5588</v>
+        <v>5936</v>
       </c>
       <c r="E3" t="n">
-        <v>5362</v>
+        <v>5669</v>
       </c>
       <c r="F3" t="n">
-        <v>5266</v>
+        <v>5555</v>
       </c>
       <c r="G3" t="n">
-        <v>5284</v>
+        <v>5553</v>
       </c>
       <c r="H3" t="n">
-        <v>5336</v>
+        <v>5594</v>
       </c>
       <c r="I3" t="n">
-        <v>5466</v>
+        <v>5761</v>
       </c>
       <c r="J3" t="n">
-        <v>5894</v>
+        <v>6277</v>
       </c>
       <c r="K3" t="n">
-        <v>6414</v>
+        <v>6822</v>
       </c>
       <c r="L3" t="n">
-        <v>6892</v>
+        <v>7340</v>
       </c>
       <c r="M3" t="n">
-        <v>7121</v>
+        <v>7511</v>
       </c>
       <c r="N3" t="n">
-        <v>7085</v>
+        <v>7425</v>
       </c>
       <c r="O3" t="n">
-        <v>6967</v>
+        <v>7295</v>
       </c>
       <c r="P3" t="n">
-        <v>6823</v>
+        <v>7153</v>
       </c>
       <c r="Q3" t="n">
-        <v>6799</v>
+        <v>7072</v>
       </c>
       <c r="R3" t="n">
-        <v>6744</v>
+        <v>6963</v>
       </c>
       <c r="S3" t="n">
-        <v>6727</v>
+        <v>6956</v>
       </c>
       <c r="T3" t="n">
-        <v>6665</v>
+        <v>6997</v>
       </c>
       <c r="U3" t="n">
-        <v>6939</v>
+        <v>7143</v>
       </c>
       <c r="V3" t="n">
-        <v>7331</v>
+        <v>7431</v>
       </c>
       <c r="W3" t="n">
-        <v>7300</v>
+        <v>7388</v>
       </c>
       <c r="X3" t="n">
-        <v>7103</v>
+        <v>7164</v>
       </c>
       <c r="Y3" t="n">
-        <v>6836</v>
+        <v>6894</v>
       </c>
       <c r="Z3" t="n">
-        <v>6601</v>
+        <v>6658</v>
       </c>
       <c r="AA3" t="n">
-        <v>6240</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="4">
@@ -732,79 +732,79 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>5886</v>
+        <v>5864</v>
       </c>
       <c r="E4" t="n">
-        <v>5634</v>
+        <v>5563</v>
       </c>
       <c r="F4" t="n">
-        <v>5557</v>
+        <v>5433</v>
       </c>
       <c r="G4" t="n">
-        <v>5555</v>
+        <v>5431</v>
       </c>
       <c r="H4" t="n">
-        <v>5590</v>
+        <v>5474</v>
       </c>
       <c r="I4" t="n">
-        <v>5740</v>
+        <v>5646</v>
       </c>
       <c r="J4" t="n">
-        <v>6227</v>
+        <v>6177</v>
       </c>
       <c r="K4" t="n">
-        <v>6780</v>
+        <v>6737</v>
       </c>
       <c r="L4" t="n">
-        <v>7244</v>
+        <v>7270</v>
       </c>
       <c r="M4" t="n">
-        <v>7364</v>
+        <v>7447</v>
       </c>
       <c r="N4" t="n">
-        <v>7245</v>
+        <v>7358</v>
       </c>
       <c r="O4" t="n">
-        <v>7111</v>
+        <v>7223</v>
       </c>
       <c r="P4" t="n">
-        <v>6932</v>
+        <v>7075</v>
       </c>
       <c r="Q4" t="n">
-        <v>6835</v>
+        <v>6991</v>
       </c>
       <c r="R4" t="n">
-        <v>6733</v>
+        <v>6879</v>
       </c>
       <c r="S4" t="n">
-        <v>6744</v>
+        <v>6871</v>
       </c>
       <c r="T4" t="n">
-        <v>6814</v>
+        <v>6909</v>
       </c>
       <c r="U4" t="n">
-        <v>7029</v>
+        <v>7044</v>
       </c>
       <c r="V4" t="n">
-        <v>7292</v>
+        <v>7311</v>
       </c>
       <c r="W4" t="n">
-        <v>7273</v>
+        <v>7268</v>
       </c>
       <c r="X4" t="n">
-        <v>7055</v>
+        <v>7042</v>
       </c>
       <c r="Y4" t="n">
         <v>6770</v>
       </c>
       <c r="Z4" t="n">
-        <v>6513</v>
+        <v>6533</v>
       </c>
       <c r="AA4" t="n">
-        <v>6136</v>
+        <v>6157</v>
       </c>
     </row>
     <row r="5">
@@ -815,79 +815,79 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5795</v>
+        <v>5514</v>
       </c>
       <c r="E5" t="n">
-        <v>5499</v>
+        <v>5215</v>
       </c>
       <c r="F5" t="n">
-        <v>5408</v>
+        <v>5086</v>
       </c>
       <c r="G5" t="n">
-        <v>5407</v>
+        <v>5084</v>
       </c>
       <c r="H5" t="n">
-        <v>5440</v>
+        <v>5127</v>
       </c>
       <c r="I5" t="n">
-        <v>5587</v>
+        <v>5298</v>
       </c>
       <c r="J5" t="n">
-        <v>6061</v>
+        <v>5827</v>
       </c>
       <c r="K5" t="n">
-        <v>6600</v>
+        <v>6385</v>
       </c>
       <c r="L5" t="n">
-        <v>7052</v>
+        <v>6915</v>
       </c>
       <c r="M5" t="n">
-        <v>7170</v>
+        <v>7091</v>
       </c>
       <c r="N5" t="n">
-        <v>7090</v>
+        <v>7020</v>
       </c>
       <c r="O5" t="n">
-        <v>7001</v>
+        <v>6911</v>
       </c>
       <c r="P5" t="n">
-        <v>6883</v>
+        <v>6792</v>
       </c>
       <c r="Q5" t="n">
-        <v>6818</v>
+        <v>6724</v>
       </c>
       <c r="R5" t="n">
-        <v>6750</v>
+        <v>6634</v>
       </c>
       <c r="S5" t="n">
-        <v>6756</v>
+        <v>6628</v>
       </c>
       <c r="T5" t="n">
-        <v>6793</v>
+        <v>6657</v>
       </c>
       <c r="U5" t="n">
-        <v>6906</v>
+        <v>6761</v>
       </c>
       <c r="V5" t="n">
-        <v>7045</v>
+        <v>6967</v>
       </c>
       <c r="W5" t="n">
-        <v>7027</v>
+        <v>6923</v>
       </c>
       <c r="X5" t="n">
-        <v>6815</v>
+        <v>6693</v>
       </c>
       <c r="Y5" t="n">
-        <v>6539</v>
+        <v>6416</v>
       </c>
       <c r="Z5" t="n">
-        <v>6290</v>
+        <v>6175</v>
       </c>
       <c r="AA5" t="n">
-        <v>5925</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="6">
@@ -898,79 +898,79 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5445</v>
+        <v>5183</v>
       </c>
       <c r="E6" t="n">
-        <v>5151</v>
+        <v>4886</v>
       </c>
       <c r="F6" t="n">
-        <v>5061</v>
+        <v>4759</v>
       </c>
       <c r="G6" t="n">
-        <v>5059</v>
+        <v>4756</v>
       </c>
       <c r="H6" t="n">
-        <v>5093</v>
+        <v>4799</v>
       </c>
       <c r="I6" t="n">
-        <v>5238</v>
+        <v>4970</v>
       </c>
       <c r="J6" t="n">
-        <v>5710</v>
+        <v>5496</v>
       </c>
       <c r="K6" t="n">
-        <v>6246</v>
+        <v>6052</v>
       </c>
       <c r="L6" t="n">
-        <v>6697</v>
+        <v>6580</v>
       </c>
       <c r="M6" t="n">
-        <v>6813</v>
+        <v>6755</v>
       </c>
       <c r="N6" t="n">
-        <v>6753</v>
+        <v>6700</v>
       </c>
       <c r="O6" t="n">
-        <v>6686</v>
+        <v>6616</v>
       </c>
       <c r="P6" t="n">
-        <v>6596</v>
+        <v>6525</v>
       </c>
       <c r="Q6" t="n">
-        <v>6547</v>
+        <v>6473</v>
       </c>
       <c r="R6" t="n">
-        <v>6495</v>
+        <v>6403</v>
       </c>
       <c r="S6" t="n">
-        <v>6500</v>
+        <v>6399</v>
       </c>
       <c r="T6" t="n">
-        <v>6525</v>
+        <v>6413</v>
       </c>
       <c r="U6" t="n">
-        <v>6604</v>
+        <v>6463</v>
       </c>
       <c r="V6" t="n">
-        <v>6701</v>
+        <v>6562</v>
       </c>
       <c r="W6" t="n">
-        <v>6682</v>
+        <v>6518</v>
       </c>
       <c r="X6" t="n">
-        <v>6467</v>
+        <v>6291</v>
       </c>
       <c r="Y6" t="n">
-        <v>6185</v>
+        <v>6017</v>
       </c>
       <c r="Z6" t="n">
-        <v>5932</v>
+        <v>5779</v>
       </c>
       <c r="AA6" t="n">
-        <v>5560</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="7">
@@ -981,79 +981,79 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5075</v>
+        <v>4983</v>
       </c>
       <c r="E7" t="n">
-        <v>4783</v>
+        <v>4686</v>
       </c>
       <c r="F7" t="n">
-        <v>4694</v>
+        <v>4551</v>
       </c>
       <c r="G7" t="n">
-        <v>4693</v>
+        <v>4503</v>
       </c>
       <c r="H7" t="n">
-        <v>4726</v>
+        <v>4527</v>
       </c>
       <c r="I7" t="n">
-        <v>4870</v>
+        <v>4599</v>
       </c>
       <c r="J7" t="n">
-        <v>5340</v>
+        <v>4742</v>
       </c>
       <c r="K7" t="n">
-        <v>5873</v>
+        <v>5024</v>
       </c>
       <c r="L7" t="n">
-        <v>6322</v>
+        <v>5609</v>
       </c>
       <c r="M7" t="n">
-        <v>6438</v>
+        <v>6106</v>
       </c>
       <c r="N7" t="n">
-        <v>6398</v>
+        <v>6250</v>
       </c>
       <c r="O7" t="n">
-        <v>6353</v>
+        <v>6225</v>
       </c>
       <c r="P7" t="n">
-        <v>6293</v>
+        <v>6158</v>
       </c>
       <c r="Q7" t="n">
-        <v>6261</v>
+        <v>6089</v>
       </c>
       <c r="R7" t="n">
-        <v>6226</v>
+        <v>6030</v>
       </c>
       <c r="S7" t="n">
-        <v>6227</v>
+        <v>6024</v>
       </c>
       <c r="T7" t="n">
-        <v>6231</v>
+        <v>6053</v>
       </c>
       <c r="U7" t="n">
-        <v>6243</v>
+        <v>6128</v>
       </c>
       <c r="V7" t="n">
-        <v>6257</v>
+        <v>6170</v>
       </c>
       <c r="W7" t="n">
-        <v>6238</v>
+        <v>6022</v>
       </c>
       <c r="X7" t="n">
-        <v>6025</v>
+        <v>5776</v>
       </c>
       <c r="Y7" t="n">
-        <v>5746</v>
+        <v>5503</v>
       </c>
       <c r="Z7" t="n">
-        <v>5496</v>
+        <v>5359</v>
       </c>
       <c r="AA7" t="n">
-        <v>5127</v>
+        <v>5103</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -566,79 +566,79 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5494</v>
+        <v>5853</v>
       </c>
       <c r="E2" t="n">
-        <v>5316</v>
+        <v>5583</v>
       </c>
       <c r="F2" t="n">
-        <v>5240</v>
+        <v>5466</v>
       </c>
       <c r="G2" t="n">
-        <v>5259</v>
+        <v>5452</v>
       </c>
       <c r="H2" t="n">
-        <v>5312</v>
+        <v>5489</v>
       </c>
       <c r="I2" t="n">
-        <v>5449</v>
+        <v>5668</v>
       </c>
       <c r="J2" t="n">
-        <v>5895</v>
+        <v>6196</v>
       </c>
       <c r="K2" t="n">
-        <v>6437</v>
+        <v>6735</v>
       </c>
       <c r="L2" t="n">
-        <v>6935</v>
+        <v>7262</v>
       </c>
       <c r="M2" t="n">
-        <v>7173</v>
+        <v>7431</v>
       </c>
       <c r="N2" t="n">
-        <v>7138</v>
+        <v>7364</v>
       </c>
       <c r="O2" t="n">
-        <v>7017</v>
+        <v>7246</v>
       </c>
       <c r="P2" t="n">
-        <v>6872</v>
+        <v>7135</v>
       </c>
       <c r="Q2" t="n">
-        <v>6847</v>
+        <v>7068</v>
       </c>
       <c r="R2" t="n">
-        <v>6791</v>
+        <v>6979</v>
       </c>
       <c r="S2" t="n">
-        <v>6774</v>
+        <v>6993</v>
       </c>
       <c r="T2" t="n">
-        <v>6712</v>
+        <v>7041</v>
       </c>
       <c r="U2" t="n">
-        <v>7014</v>
+        <v>7189</v>
       </c>
       <c r="V2" t="n">
-        <v>7448</v>
+        <v>7501</v>
       </c>
       <c r="W2" t="n">
-        <v>7416</v>
+        <v>7454</v>
       </c>
       <c r="X2" t="n">
-        <v>7221</v>
+        <v>7216</v>
       </c>
       <c r="Y2" t="n">
-        <v>6956</v>
+        <v>6936</v>
       </c>
       <c r="Z2" t="n">
-        <v>6723</v>
+        <v>6690</v>
       </c>
       <c r="AA2" t="n">
-        <v>6364</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="3">
@@ -649,79 +649,79 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5936</v>
+        <v>5911</v>
       </c>
       <c r="E3" t="n">
-        <v>5669</v>
+        <v>5643</v>
       </c>
       <c r="F3" t="n">
-        <v>5555</v>
+        <v>5527</v>
       </c>
       <c r="G3" t="n">
-        <v>5553</v>
+        <v>5512</v>
       </c>
       <c r="H3" t="n">
-        <v>5594</v>
+        <v>5545</v>
       </c>
       <c r="I3" t="n">
-        <v>5761</v>
+        <v>5701</v>
       </c>
       <c r="J3" t="n">
-        <v>6277</v>
+        <v>6160</v>
       </c>
       <c r="K3" t="n">
-        <v>6822</v>
+        <v>6630</v>
       </c>
       <c r="L3" t="n">
-        <v>7340</v>
+        <v>7089</v>
       </c>
       <c r="M3" t="n">
-        <v>7511</v>
+        <v>7236</v>
       </c>
       <c r="N3" t="n">
-        <v>7425</v>
+        <v>7148</v>
       </c>
       <c r="O3" t="n">
-        <v>7295</v>
+        <v>6993</v>
       </c>
       <c r="P3" t="n">
-        <v>7153</v>
+        <v>6846</v>
       </c>
       <c r="Q3" t="n">
-        <v>7072</v>
+        <v>6757</v>
       </c>
       <c r="R3" t="n">
-        <v>6963</v>
+        <v>6640</v>
       </c>
       <c r="S3" t="n">
-        <v>6956</v>
+        <v>6652</v>
       </c>
       <c r="T3" t="n">
-        <v>6997</v>
+        <v>6695</v>
       </c>
       <c r="U3" t="n">
-        <v>7143</v>
+        <v>6827</v>
       </c>
       <c r="V3" t="n">
-        <v>7431</v>
+        <v>7103</v>
       </c>
       <c r="W3" t="n">
-        <v>7388</v>
+        <v>7060</v>
       </c>
       <c r="X3" t="n">
-        <v>7164</v>
+        <v>6842</v>
       </c>
       <c r="Y3" t="n">
-        <v>6894</v>
+        <v>6585</v>
       </c>
       <c r="Z3" t="n">
-        <v>6658</v>
+        <v>6359</v>
       </c>
       <c r="AA3" t="n">
-        <v>6285</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="4">
@@ -732,79 +732,79 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>5864</v>
+        <v>5615</v>
       </c>
       <c r="E4" t="n">
-        <v>5563</v>
+        <v>5348</v>
       </c>
       <c r="F4" t="n">
-        <v>5433</v>
+        <v>5232</v>
       </c>
       <c r="G4" t="n">
-        <v>5431</v>
+        <v>5218</v>
       </c>
       <c r="H4" t="n">
-        <v>5474</v>
+        <v>5250</v>
       </c>
       <c r="I4" t="n">
-        <v>5646</v>
+        <v>5406</v>
       </c>
       <c r="J4" t="n">
-        <v>6177</v>
+        <v>5863</v>
       </c>
       <c r="K4" t="n">
-        <v>6737</v>
+        <v>6331</v>
       </c>
       <c r="L4" t="n">
-        <v>7270</v>
+        <v>6788</v>
       </c>
       <c r="M4" t="n">
-        <v>7447</v>
+        <v>6935</v>
       </c>
       <c r="N4" t="n">
-        <v>7358</v>
+        <v>6860</v>
       </c>
       <c r="O4" t="n">
-        <v>7223</v>
+        <v>6726</v>
       </c>
       <c r="P4" t="n">
-        <v>7075</v>
+        <v>6601</v>
       </c>
       <c r="Q4" t="n">
-        <v>6991</v>
+        <v>6525</v>
       </c>
       <c r="R4" t="n">
-        <v>6879</v>
+        <v>6424</v>
       </c>
       <c r="S4" t="n">
-        <v>6871</v>
+        <v>6434</v>
       </c>
       <c r="T4" t="n">
-        <v>6909</v>
+        <v>6470</v>
       </c>
       <c r="U4" t="n">
-        <v>7044</v>
+        <v>6580</v>
       </c>
       <c r="V4" t="n">
-        <v>7311</v>
+        <v>6812</v>
       </c>
       <c r="W4" t="n">
-        <v>7268</v>
+        <v>6767</v>
       </c>
       <c r="X4" t="n">
-        <v>7042</v>
+        <v>6546</v>
       </c>
       <c r="Y4" t="n">
-        <v>6770</v>
+        <v>6285</v>
       </c>
       <c r="Z4" t="n">
-        <v>6533</v>
+        <v>6056</v>
       </c>
       <c r="AA4" t="n">
-        <v>6157</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="5">
@@ -815,79 +815,79 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5514</v>
+        <v>5326</v>
       </c>
       <c r="E5" t="n">
-        <v>5215</v>
+        <v>5060</v>
       </c>
       <c r="F5" t="n">
-        <v>5086</v>
+        <v>4946</v>
       </c>
       <c r="G5" t="n">
-        <v>5084</v>
+        <v>4931</v>
       </c>
       <c r="H5" t="n">
-        <v>5127</v>
+        <v>4964</v>
       </c>
       <c r="I5" t="n">
-        <v>5298</v>
+        <v>5118</v>
       </c>
       <c r="J5" t="n">
-        <v>5827</v>
+        <v>5574</v>
       </c>
       <c r="K5" t="n">
-        <v>6385</v>
+        <v>6040</v>
       </c>
       <c r="L5" t="n">
-        <v>6915</v>
+        <v>6495</v>
       </c>
       <c r="M5" t="n">
-        <v>7091</v>
+        <v>6641</v>
       </c>
       <c r="N5" t="n">
-        <v>7020</v>
+        <v>6578</v>
       </c>
       <c r="O5" t="n">
-        <v>6911</v>
+        <v>6466</v>
       </c>
       <c r="P5" t="n">
-        <v>6792</v>
+        <v>6362</v>
       </c>
       <c r="Q5" t="n">
-        <v>6724</v>
+        <v>6298</v>
       </c>
       <c r="R5" t="n">
-        <v>6634</v>
+        <v>6214</v>
       </c>
       <c r="S5" t="n">
-        <v>6628</v>
+        <v>6220</v>
       </c>
       <c r="T5" t="n">
-        <v>6657</v>
+        <v>6242</v>
       </c>
       <c r="U5" t="n">
-        <v>6761</v>
+        <v>6308</v>
       </c>
       <c r="V5" t="n">
-        <v>6967</v>
+        <v>6447</v>
       </c>
       <c r="W5" t="n">
-        <v>6923</v>
+        <v>6403</v>
       </c>
       <c r="X5" t="n">
-        <v>6693</v>
+        <v>6186</v>
       </c>
       <c r="Y5" t="n">
-        <v>6416</v>
+        <v>5928</v>
       </c>
       <c r="Z5" t="n">
-        <v>6175</v>
+        <v>5702</v>
       </c>
       <c r="AA5" t="n">
-        <v>5793</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="6">
@@ -898,79 +898,79 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>5183</v>
+        <v>5038</v>
       </c>
       <c r="E6" t="n">
-        <v>4886</v>
+        <v>4732</v>
       </c>
       <c r="F6" t="n">
-        <v>4759</v>
+        <v>4604</v>
       </c>
       <c r="G6" t="n">
-        <v>4756</v>
+        <v>4590</v>
       </c>
       <c r="H6" t="n">
-        <v>4799</v>
+        <v>4606</v>
       </c>
       <c r="I6" t="n">
-        <v>4970</v>
+        <v>4692</v>
       </c>
       <c r="J6" t="n">
-        <v>5496</v>
+        <v>4804</v>
       </c>
       <c r="K6" t="n">
-        <v>6052</v>
+        <v>4978</v>
       </c>
       <c r="L6" t="n">
-        <v>6580</v>
+        <v>5428</v>
       </c>
       <c r="M6" t="n">
-        <v>6755</v>
+        <v>5859</v>
       </c>
       <c r="N6" t="n">
-        <v>6700</v>
+        <v>6045</v>
       </c>
       <c r="O6" t="n">
-        <v>6616</v>
+        <v>6067</v>
       </c>
       <c r="P6" t="n">
-        <v>6525</v>
+        <v>5974</v>
       </c>
       <c r="Q6" t="n">
-        <v>6473</v>
+        <v>5915</v>
       </c>
       <c r="R6" t="n">
-        <v>6403</v>
+        <v>5810</v>
       </c>
       <c r="S6" t="n">
-        <v>6399</v>
+        <v>5796</v>
       </c>
       <c r="T6" t="n">
-        <v>6413</v>
+        <v>5771</v>
       </c>
       <c r="U6" t="n">
-        <v>6463</v>
+        <v>5875</v>
       </c>
       <c r="V6" t="n">
-        <v>6562</v>
+        <v>5970</v>
       </c>
       <c r="W6" t="n">
-        <v>6518</v>
+        <v>5804</v>
       </c>
       <c r="X6" t="n">
-        <v>6291</v>
+        <v>5605</v>
       </c>
       <c r="Y6" t="n">
-        <v>6017</v>
+        <v>5342</v>
       </c>
       <c r="Z6" t="n">
-        <v>5779</v>
+        <v>5198</v>
       </c>
       <c r="AA6" t="n">
-        <v>5401</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="7">
@@ -981,79 +981,79 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>4983</v>
+        <v>4922</v>
       </c>
       <c r="E7" t="n">
-        <v>4686</v>
+        <v>4700</v>
       </c>
       <c r="F7" t="n">
-        <v>4551</v>
+        <v>4627</v>
       </c>
       <c r="G7" t="n">
-        <v>4503</v>
+        <v>4559</v>
       </c>
       <c r="H7" t="n">
-        <v>4527</v>
+        <v>4482</v>
       </c>
       <c r="I7" t="n">
-        <v>4599</v>
+        <v>4555</v>
       </c>
       <c r="J7" t="n">
-        <v>4742</v>
+        <v>4660</v>
       </c>
       <c r="K7" t="n">
-        <v>5024</v>
+        <v>4950</v>
       </c>
       <c r="L7" t="n">
-        <v>5609</v>
+        <v>5358</v>
       </c>
       <c r="M7" t="n">
-        <v>6106</v>
+        <v>5802</v>
       </c>
       <c r="N7" t="n">
-        <v>6250</v>
+        <v>6001</v>
       </c>
       <c r="O7" t="n">
-        <v>6225</v>
+        <v>5977</v>
       </c>
       <c r="P7" t="n">
-        <v>6158</v>
+        <v>5932</v>
       </c>
       <c r="Q7" t="n">
-        <v>6089</v>
+        <v>5850</v>
       </c>
       <c r="R7" t="n">
-        <v>6030</v>
+        <v>5785</v>
       </c>
       <c r="S7" t="n">
-        <v>6024</v>
+        <v>5790</v>
       </c>
       <c r="T7" t="n">
-        <v>6053</v>
+        <v>5870</v>
       </c>
       <c r="U7" t="n">
-        <v>6128</v>
+        <v>6028</v>
       </c>
       <c r="V7" t="n">
-        <v>6170</v>
+        <v>6129</v>
       </c>
       <c r="W7" t="n">
-        <v>6022</v>
+        <v>6054</v>
       </c>
       <c r="X7" t="n">
-        <v>5776</v>
+        <v>5855</v>
       </c>
       <c r="Y7" t="n">
-        <v>5503</v>
+        <v>5556</v>
       </c>
       <c r="Z7" t="n">
-        <v>5359</v>
+        <v>5345</v>
       </c>
       <c r="AA7" t="n">
-        <v>5103</v>
+        <v>5003</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,137 +434,137 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -569,76 +581,76 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5245</v>
+        <v>5295</v>
       </c>
       <c r="E2" t="n">
-        <v>5018</v>
+        <v>5047</v>
       </c>
       <c r="F2" t="n">
-        <v>4950</v>
+        <v>4972</v>
       </c>
       <c r="G2" t="n">
-        <v>4921</v>
+        <v>4941</v>
       </c>
       <c r="H2" t="n">
-        <v>4938</v>
+        <v>4959</v>
       </c>
       <c r="I2" t="n">
-        <v>5093</v>
+        <v>5122</v>
       </c>
       <c r="J2" t="n">
-        <v>5473</v>
+        <v>5522</v>
       </c>
       <c r="K2" t="n">
-        <v>5928</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>6299</v>
+        <v>6391</v>
       </c>
       <c r="M2" t="n">
-        <v>6448</v>
+        <v>6548</v>
       </c>
       <c r="N2" t="n">
-        <v>6337</v>
+        <v>6437</v>
       </c>
       <c r="O2" t="n">
-        <v>6124</v>
+        <v>6224</v>
       </c>
       <c r="P2" t="n">
-        <v>5918</v>
+        <v>6018</v>
       </c>
       <c r="Q2" t="n">
-        <v>5748</v>
+        <v>5848</v>
       </c>
       <c r="R2" t="n">
-        <v>5652</v>
+        <v>5752</v>
       </c>
       <c r="S2" t="n">
-        <v>5707</v>
+        <v>5815</v>
       </c>
       <c r="T2" t="n">
-        <v>5726</v>
+        <v>5837</v>
       </c>
       <c r="U2" t="n">
-        <v>5972</v>
+        <v>6120</v>
       </c>
       <c r="V2" t="n">
-        <v>6319</v>
+        <v>6519</v>
       </c>
       <c r="W2" t="n">
-        <v>6310</v>
+        <v>6509</v>
       </c>
       <c r="X2" t="n">
-        <v>6121</v>
+        <v>6302</v>
       </c>
       <c r="Y2" t="n">
-        <v>5866</v>
+        <v>6021</v>
       </c>
       <c r="Z2" t="n">
-        <v>5629</v>
+        <v>5760</v>
       </c>
       <c r="AA2" t="n">
-        <v>5319</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="3">
@@ -652,76 +664,76 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4978</v>
+        <v>5028</v>
       </c>
       <c r="E3" t="n">
-        <v>4753</v>
+        <v>4782</v>
       </c>
       <c r="F3" t="n">
-        <v>4685</v>
+        <v>4708</v>
       </c>
       <c r="G3" t="n">
-        <v>4656</v>
+        <v>4676</v>
       </c>
       <c r="H3" t="n">
-        <v>4673</v>
+        <v>4694</v>
       </c>
       <c r="I3" t="n">
-        <v>4828</v>
+        <v>4857</v>
       </c>
       <c r="J3" t="n">
-        <v>5206</v>
+        <v>5255</v>
       </c>
       <c r="K3" t="n">
-        <v>5659</v>
+        <v>5731</v>
       </c>
       <c r="L3" t="n">
-        <v>6028</v>
+        <v>6120</v>
       </c>
       <c r="M3" t="n">
-        <v>6177</v>
+        <v>6277</v>
       </c>
       <c r="N3" t="n">
-        <v>6076</v>
+        <v>6176</v>
       </c>
       <c r="O3" t="n">
-        <v>5884</v>
+        <v>5984</v>
       </c>
       <c r="P3" t="n">
-        <v>5698</v>
+        <v>5798</v>
       </c>
       <c r="Q3" t="n">
-        <v>5544</v>
+        <v>5644</v>
       </c>
       <c r="R3" t="n">
-        <v>5458</v>
+        <v>5558</v>
       </c>
       <c r="S3" t="n">
-        <v>5501</v>
+        <v>5609</v>
       </c>
       <c r="T3" t="n">
-        <v>5515</v>
+        <v>5627</v>
       </c>
       <c r="U3" t="n">
-        <v>5707</v>
+        <v>5855</v>
       </c>
       <c r="V3" t="n">
-        <v>5976</v>
+        <v>6176</v>
       </c>
       <c r="W3" t="n">
-        <v>5968</v>
+        <v>6167</v>
       </c>
       <c r="X3" t="n">
-        <v>5782</v>
+        <v>5963</v>
       </c>
       <c r="Y3" t="n">
-        <v>5531</v>
+        <v>5686</v>
       </c>
       <c r="Z3" t="n">
-        <v>5298</v>
+        <v>5429</v>
       </c>
       <c r="AA3" t="n">
-        <v>4993</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="4">
@@ -735,76 +747,76 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4733</v>
+        <v>4783</v>
       </c>
       <c r="E4" t="n">
-        <v>4469</v>
+        <v>4498</v>
       </c>
       <c r="F4" t="n">
-        <v>4360</v>
+        <v>4380</v>
       </c>
       <c r="G4" t="n">
-        <v>4373</v>
+        <v>4394</v>
       </c>
       <c r="H4" t="n">
-        <v>4369</v>
+        <v>4389</v>
       </c>
       <c r="I4" t="n">
-        <v>4390</v>
+        <v>4412</v>
       </c>
       <c r="J4" t="n">
-        <v>4519</v>
+        <v>4549</v>
       </c>
       <c r="K4" t="n">
-        <v>4873</v>
+        <v>4926</v>
       </c>
       <c r="L4" t="n">
-        <v>5265</v>
+        <v>5342</v>
       </c>
       <c r="M4" t="n">
-        <v>5555</v>
+        <v>5650</v>
       </c>
       <c r="N4" t="n">
-        <v>5630</v>
+        <v>5730</v>
       </c>
       <c r="O4" t="n">
-        <v>5516</v>
+        <v>5616</v>
       </c>
       <c r="P4" t="n">
-        <v>5433</v>
+        <v>5533</v>
       </c>
       <c r="Q4" t="n">
-        <v>5232</v>
+        <v>5332</v>
       </c>
       <c r="R4" t="n">
-        <v>5064</v>
+        <v>5164</v>
       </c>
       <c r="S4" t="n">
-        <v>5052</v>
+        <v>5152</v>
       </c>
       <c r="T4" t="n">
-        <v>5155</v>
+        <v>5277</v>
       </c>
       <c r="U4" t="n">
-        <v>5365</v>
+        <v>5529</v>
       </c>
       <c r="V4" t="n">
-        <v>5542</v>
+        <v>5742</v>
       </c>
       <c r="W4" t="n">
-        <v>5436</v>
+        <v>5625</v>
       </c>
       <c r="X4" t="n">
-        <v>5214</v>
+        <v>5377</v>
       </c>
       <c r="Y4" t="n">
-        <v>4975</v>
+        <v>5112</v>
       </c>
       <c r="Z4" t="n">
-        <v>4859</v>
+        <v>4982</v>
       </c>
       <c r="AA4" t="n">
-        <v>4649</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="5">
@@ -818,76 +830,76 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4663</v>
+        <v>4713</v>
       </c>
       <c r="E5" t="n">
-        <v>4466</v>
+        <v>4500</v>
       </c>
       <c r="F5" t="n">
-        <v>4376</v>
+        <v>4402</v>
       </c>
       <c r="G5" t="n">
-        <v>4322</v>
+        <v>4344</v>
       </c>
       <c r="H5" t="n">
-        <v>4298</v>
+        <v>4318</v>
       </c>
       <c r="I5" t="n">
-        <v>4343</v>
+        <v>4365</v>
       </c>
       <c r="J5" t="n">
-        <v>4444</v>
+        <v>4473</v>
       </c>
       <c r="K5" t="n">
-        <v>4702</v>
+        <v>4746</v>
       </c>
       <c r="L5" t="n">
-        <v>5047</v>
+        <v>5112</v>
       </c>
       <c r="M5" t="n">
-        <v>5394</v>
+        <v>5481</v>
       </c>
       <c r="N5" t="n">
-        <v>5576</v>
+        <v>5675</v>
       </c>
       <c r="O5" t="n">
-        <v>5607</v>
+        <v>5707</v>
       </c>
       <c r="P5" t="n">
-        <v>5583</v>
+        <v>5683</v>
       </c>
       <c r="Q5" t="n">
-        <v>5261</v>
+        <v>5361</v>
       </c>
       <c r="R5" t="n">
-        <v>5099</v>
+        <v>5199</v>
       </c>
       <c r="S5" t="n">
-        <v>5118</v>
+        <v>5221</v>
       </c>
       <c r="T5" t="n">
-        <v>5257</v>
+        <v>5382</v>
       </c>
       <c r="U5" t="n">
-        <v>5527</v>
+        <v>5693</v>
       </c>
       <c r="V5" t="n">
-        <v>5746</v>
+        <v>5946</v>
       </c>
       <c r="W5" t="n">
-        <v>5661</v>
+        <v>5852</v>
       </c>
       <c r="X5" t="n">
-        <v>5465</v>
+        <v>5637</v>
       </c>
       <c r="Y5" t="n">
-        <v>5200</v>
+        <v>5347</v>
       </c>
       <c r="Z5" t="n">
-        <v>5027</v>
+        <v>5156</v>
       </c>
       <c r="AA5" t="n">
-        <v>4728</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="6">
@@ -901,76 +913,76 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>4933</v>
+        <v>4983</v>
       </c>
       <c r="E6" t="n">
-        <v>4698</v>
+        <v>4728</v>
       </c>
       <c r="F6" t="n">
-        <v>4597</v>
+        <v>4617</v>
       </c>
       <c r="G6" t="n">
-        <v>4607</v>
+        <v>4628</v>
       </c>
       <c r="H6" t="n">
-        <v>4641</v>
+        <v>4663</v>
       </c>
       <c r="I6" t="n">
-        <v>4768</v>
+        <v>4797</v>
       </c>
       <c r="J6" t="n">
-        <v>5144</v>
+        <v>5189</v>
       </c>
       <c r="K6" t="n">
-        <v>5600</v>
+        <v>5667</v>
       </c>
       <c r="L6" t="n">
-        <v>6046</v>
+        <v>6134</v>
       </c>
       <c r="M6" t="n">
-        <v>6282</v>
+        <v>6381</v>
       </c>
       <c r="N6" t="n">
-        <v>6305</v>
+        <v>6405</v>
       </c>
       <c r="O6" t="n">
-        <v>6183</v>
+        <v>6283</v>
       </c>
       <c r="P6" t="n">
-        <v>6012</v>
+        <v>6112</v>
       </c>
       <c r="Q6" t="n">
-        <v>5961</v>
+        <v>6061</v>
       </c>
       <c r="R6" t="n">
-        <v>5791</v>
+        <v>5891</v>
       </c>
       <c r="S6" t="n">
-        <v>5737</v>
+        <v>5837</v>
       </c>
       <c r="T6" t="n">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="U6" t="n">
-        <v>5793</v>
+        <v>5926</v>
       </c>
       <c r="V6" t="n">
-        <v>6185</v>
+        <v>6385</v>
       </c>
       <c r="W6" t="n">
-        <v>6163</v>
+        <v>6361</v>
       </c>
       <c r="X6" t="n">
-        <v>5974</v>
+        <v>6154</v>
       </c>
       <c r="Y6" t="n">
-        <v>5710</v>
+        <v>5865</v>
       </c>
       <c r="Z6" t="n">
-        <v>5463</v>
+        <v>5595</v>
       </c>
       <c r="AA6" t="n">
-        <v>5126</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="7">
@@ -984,76 +996,76 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5198</v>
+        <v>5248</v>
       </c>
       <c r="E7" t="n">
-        <v>4978</v>
+        <v>5007</v>
       </c>
       <c r="F7" t="n">
-        <v>4911</v>
+        <v>4934</v>
       </c>
       <c r="G7" t="n">
-        <v>4883</v>
+        <v>4903</v>
       </c>
       <c r="H7" t="n">
-        <v>4901</v>
+        <v>4922</v>
       </c>
       <c r="I7" t="n">
-        <v>5067</v>
+        <v>5096</v>
       </c>
       <c r="J7" t="n">
-        <v>5474</v>
+        <v>5523</v>
       </c>
       <c r="K7" t="n">
-        <v>5961</v>
+        <v>6033</v>
       </c>
       <c r="L7" t="n">
-        <v>6358</v>
+        <v>6450</v>
       </c>
       <c r="M7" t="n">
-        <v>6518</v>
+        <v>6618</v>
       </c>
       <c r="N7" t="n">
-        <v>6411</v>
+        <v>6511</v>
       </c>
       <c r="O7" t="n">
+        <v>6307</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6109</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5945</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5853</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5914</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5935</v>
+      </c>
+      <c r="U7" t="n">
         <v>6207</v>
       </c>
-      <c r="P7" t="n">
-        <v>6009</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5845</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5753</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5806</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5824</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6059</v>
-      </c>
       <c r="V7" t="n">
-        <v>6392</v>
+        <v>6592</v>
       </c>
       <c r="W7" t="n">
-        <v>6382</v>
+        <v>6581</v>
       </c>
       <c r="X7" t="n">
-        <v>6185</v>
+        <v>6365</v>
       </c>
       <c r="Y7" t="n">
-        <v>5917</v>
+        <v>6072</v>
       </c>
       <c r="Z7" t="n">
-        <v>5670</v>
+        <v>5801</v>
       </c>
       <c r="AA7" t="n">
-        <v>5345</v>
+        <v>5445</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1068,6 +1068,89 @@
         <v>5445</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5201</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4959</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4856</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4875</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5049</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5476</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5985</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6402</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6570</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6465</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6264</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6069</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5909</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5819</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5879</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5899</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6167</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6545</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6535</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6318</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6024</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5752</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4783</v>
+        <v>4778</v>
       </c>
       <c r="E4" t="n">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="F4" t="n">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="G4" t="n">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="H4" t="n">
         <v>4389</v>
@@ -765,58 +765,58 @@
         <v>4412</v>
       </c>
       <c r="J4" t="n">
-        <v>4549</v>
+        <v>4555</v>
       </c>
       <c r="K4" t="n">
-        <v>4926</v>
+        <v>4947</v>
       </c>
       <c r="L4" t="n">
-        <v>5342</v>
+        <v>5381</v>
       </c>
       <c r="M4" t="n">
-        <v>5650</v>
+        <v>5702</v>
       </c>
       <c r="N4" t="n">
-        <v>5730</v>
+        <v>5785</v>
       </c>
       <c r="O4" t="n">
-        <v>5616</v>
+        <v>5741</v>
       </c>
       <c r="P4" t="n">
-        <v>5533</v>
+        <v>5709</v>
       </c>
       <c r="Q4" t="n">
-        <v>5332</v>
+        <v>5631</v>
       </c>
       <c r="R4" t="n">
-        <v>5164</v>
+        <v>5566</v>
       </c>
       <c r="S4" t="n">
-        <v>5152</v>
+        <v>5561</v>
       </c>
       <c r="T4" t="n">
-        <v>5277</v>
+        <v>5605</v>
       </c>
       <c r="U4" t="n">
-        <v>5529</v>
+        <v>5694</v>
       </c>
       <c r="V4" t="n">
-        <v>5742</v>
+        <v>5769</v>
       </c>
       <c r="W4" t="n">
-        <v>5625</v>
+        <v>5646</v>
       </c>
       <c r="X4" t="n">
-        <v>5377</v>
+        <v>5386</v>
       </c>
       <c r="Y4" t="n">
-        <v>5112</v>
+        <v>5108</v>
       </c>
       <c r="Z4" t="n">
-        <v>4982</v>
+        <v>4971</v>
       </c>
       <c r="AA4" t="n">
-        <v>4749</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="5">
@@ -830,76 +830,76 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4713</v>
+        <v>4646</v>
       </c>
       <c r="E5" t="n">
-        <v>4500</v>
+        <v>4393</v>
       </c>
       <c r="F5" t="n">
-        <v>4402</v>
+        <v>4276</v>
       </c>
       <c r="G5" t="n">
-        <v>4344</v>
+        <v>4255</v>
       </c>
       <c r="H5" t="n">
         <v>4318</v>
       </c>
       <c r="I5" t="n">
-        <v>4365</v>
+        <v>4337</v>
       </c>
       <c r="J5" t="n">
-        <v>4473</v>
+        <v>4442</v>
       </c>
       <c r="K5" t="n">
-        <v>4746</v>
+        <v>4670</v>
       </c>
       <c r="L5" t="n">
-        <v>5112</v>
+        <v>5022</v>
       </c>
       <c r="M5" t="n">
-        <v>5481</v>
+        <v>5362</v>
       </c>
       <c r="N5" t="n">
-        <v>5675</v>
+        <v>5567</v>
       </c>
       <c r="O5" t="n">
-        <v>5707</v>
+        <v>5661</v>
       </c>
       <c r="P5" t="n">
-        <v>5683</v>
+        <v>5711</v>
       </c>
       <c r="Q5" t="n">
-        <v>5361</v>
+        <v>5562</v>
       </c>
       <c r="R5" t="n">
-        <v>5199</v>
+        <v>5562</v>
       </c>
       <c r="S5" t="n">
-        <v>5221</v>
+        <v>5577</v>
       </c>
       <c r="T5" t="n">
-        <v>5382</v>
+        <v>5646</v>
       </c>
       <c r="U5" t="n">
-        <v>5693</v>
+        <v>5776</v>
       </c>
       <c r="V5" t="n">
-        <v>5946</v>
+        <v>5911</v>
       </c>
       <c r="W5" t="n">
-        <v>5852</v>
+        <v>5791</v>
       </c>
       <c r="X5" t="n">
-        <v>5637</v>
+        <v>5547</v>
       </c>
       <c r="Y5" t="n">
-        <v>5347</v>
+        <v>5272</v>
       </c>
       <c r="Z5" t="n">
-        <v>5156</v>
+        <v>5071</v>
       </c>
       <c r="AA5" t="n">
-        <v>4828</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="6">
@@ -913,76 +913,76 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>4983</v>
+        <v>4926</v>
       </c>
       <c r="E6" t="n">
-        <v>4728</v>
+        <v>4675</v>
       </c>
       <c r="F6" t="n">
-        <v>4617</v>
+        <v>4565</v>
       </c>
       <c r="G6" t="n">
-        <v>4628</v>
+        <v>4578</v>
       </c>
       <c r="H6" t="n">
-        <v>4663</v>
+        <v>4607</v>
       </c>
       <c r="I6" t="n">
-        <v>4797</v>
+        <v>4731</v>
       </c>
       <c r="J6" t="n">
-        <v>5189</v>
+        <v>5121</v>
       </c>
       <c r="K6" t="n">
-        <v>5667</v>
+        <v>5631</v>
       </c>
       <c r="L6" t="n">
-        <v>6134</v>
+        <v>6130</v>
       </c>
       <c r="M6" t="n">
-        <v>6381</v>
+        <v>6394</v>
       </c>
       <c r="N6" t="n">
-        <v>6405</v>
+        <v>6419</v>
       </c>
       <c r="O6" t="n">
-        <v>6283</v>
+        <v>6359</v>
       </c>
       <c r="P6" t="n">
-        <v>6112</v>
+        <v>6274</v>
       </c>
       <c r="Q6" t="n">
-        <v>6061</v>
+        <v>6249</v>
       </c>
       <c r="R6" t="n">
-        <v>5891</v>
+        <v>6199</v>
       </c>
       <c r="S6" t="n">
-        <v>5837</v>
+        <v>6139</v>
       </c>
       <c r="T6" t="n">
-        <v>5700</v>
+        <v>6072</v>
       </c>
       <c r="U6" t="n">
-        <v>5926</v>
+        <v>6167</v>
       </c>
       <c r="V6" t="n">
-        <v>6385</v>
+        <v>6362</v>
       </c>
       <c r="W6" t="n">
-        <v>6361</v>
+        <v>6336</v>
       </c>
       <c r="X6" t="n">
-        <v>6154</v>
+        <v>6120</v>
       </c>
       <c r="Y6" t="n">
-        <v>5865</v>
+        <v>5816</v>
       </c>
       <c r="Z6" t="n">
-        <v>5595</v>
+        <v>5534</v>
       </c>
       <c r="AA6" t="n">
-        <v>5226</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="7">
@@ -996,76 +996,76 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5248</v>
+        <v>5304</v>
       </c>
       <c r="E7" t="n">
-        <v>5007</v>
+        <v>5066</v>
       </c>
       <c r="F7" t="n">
-        <v>4934</v>
+        <v>4988</v>
       </c>
       <c r="G7" t="n">
-        <v>4903</v>
+        <v>4962</v>
       </c>
       <c r="H7" t="n">
-        <v>4922</v>
+        <v>4972</v>
       </c>
       <c r="I7" t="n">
-        <v>5096</v>
+        <v>5135</v>
       </c>
       <c r="J7" t="n">
-        <v>5523</v>
+        <v>5597</v>
       </c>
       <c r="K7" t="n">
-        <v>6033</v>
+        <v>6134</v>
       </c>
       <c r="L7" t="n">
-        <v>6450</v>
+        <v>6593</v>
       </c>
       <c r="M7" t="n">
-        <v>6618</v>
+        <v>6745</v>
       </c>
       <c r="N7" t="n">
-        <v>6511</v>
+        <v>6671</v>
       </c>
       <c r="O7" t="n">
-        <v>6307</v>
+        <v>6557</v>
       </c>
       <c r="P7" t="n">
-        <v>6109</v>
+        <v>6444</v>
       </c>
       <c r="Q7" t="n">
-        <v>5945</v>
+        <v>6385</v>
       </c>
       <c r="R7" t="n">
-        <v>5853</v>
+        <v>6306</v>
       </c>
       <c r="S7" t="n">
-        <v>5914</v>
+        <v>6328</v>
       </c>
       <c r="T7" t="n">
-        <v>5935</v>
+        <v>6363</v>
       </c>
       <c r="U7" t="n">
-        <v>6207</v>
+        <v>6481</v>
       </c>
       <c r="V7" t="n">
-        <v>6592</v>
+        <v>6678</v>
       </c>
       <c r="W7" t="n">
-        <v>6581</v>
+        <v>6647</v>
       </c>
       <c r="X7" t="n">
-        <v>6365</v>
+        <v>6424</v>
       </c>
       <c r="Y7" t="n">
-        <v>6072</v>
+        <v>6117</v>
       </c>
       <c r="Z7" t="n">
-        <v>5801</v>
+        <v>5852</v>
       </c>
       <c r="AA7" t="n">
-        <v>5445</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="8">
@@ -1079,76 +1079,159 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>5201</v>
+        <v>5311</v>
       </c>
       <c r="E8" t="n">
-        <v>4959</v>
+        <v>5073</v>
       </c>
       <c r="F8" t="n">
-        <v>4886</v>
+        <v>4994</v>
       </c>
       <c r="G8" t="n">
-        <v>4856</v>
+        <v>4969</v>
       </c>
       <c r="H8" t="n">
-        <v>4875</v>
+        <v>4979</v>
       </c>
       <c r="I8" t="n">
-        <v>5049</v>
+        <v>5141</v>
       </c>
       <c r="J8" t="n">
-        <v>5476</v>
+        <v>5604</v>
       </c>
       <c r="K8" t="n">
-        <v>5985</v>
+        <v>6141</v>
       </c>
       <c r="L8" t="n">
-        <v>6402</v>
+        <v>6600</v>
       </c>
       <c r="M8" t="n">
-        <v>6570</v>
+        <v>6752</v>
       </c>
       <c r="N8" t="n">
-        <v>6465</v>
+        <v>6677</v>
       </c>
       <c r="O8" t="n">
-        <v>6264</v>
+        <v>6563</v>
       </c>
       <c r="P8" t="n">
-        <v>6069</v>
+        <v>6450</v>
       </c>
       <c r="Q8" t="n">
-        <v>5909</v>
+        <v>6390</v>
       </c>
       <c r="R8" t="n">
-        <v>5819</v>
+        <v>6311</v>
       </c>
       <c r="S8" t="n">
-        <v>5879</v>
+        <v>6333</v>
       </c>
       <c r="T8" t="n">
-        <v>5899</v>
+        <v>6368</v>
       </c>
       <c r="U8" t="n">
-        <v>6167</v>
+        <v>6487</v>
       </c>
       <c r="V8" t="n">
-        <v>6545</v>
+        <v>6685</v>
       </c>
       <c r="W8" t="n">
-        <v>6535</v>
+        <v>6654</v>
       </c>
       <c r="X8" t="n">
-        <v>6318</v>
+        <v>6430</v>
       </c>
       <c r="Y8" t="n">
-        <v>6024</v>
+        <v>6124</v>
       </c>
       <c r="Z8" t="n">
-        <v>5752</v>
+        <v>5859</v>
       </c>
       <c r="AA8" t="n">
-        <v>5395</v>
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5121</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4884</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4806</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4780</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4790</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4953</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5414</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5950</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6408</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6559</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6494</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6394</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6295</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6242</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6173</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6192</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6223</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6326</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6498</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6467</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6241</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5932</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5665</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5343</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,76 +830,76 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4646</v>
+        <v>4703</v>
       </c>
       <c r="E5" t="n">
-        <v>4393</v>
+        <v>4461</v>
       </c>
       <c r="F5" t="n">
-        <v>4276</v>
+        <v>4349</v>
       </c>
       <c r="G5" t="n">
-        <v>4255</v>
+        <v>4329</v>
       </c>
       <c r="H5" t="n">
-        <v>4318</v>
+        <v>4380</v>
       </c>
       <c r="I5" t="n">
-        <v>4337</v>
+        <v>4395</v>
       </c>
       <c r="J5" t="n">
-        <v>4442</v>
+        <v>4480</v>
       </c>
       <c r="K5" t="n">
-        <v>4670</v>
+        <v>4665</v>
       </c>
       <c r="L5" t="n">
-        <v>5022</v>
+        <v>4950</v>
       </c>
       <c r="M5" t="n">
-        <v>5362</v>
+        <v>5225</v>
       </c>
       <c r="N5" t="n">
-        <v>5567</v>
+        <v>5392</v>
       </c>
       <c r="O5" t="n">
-        <v>5661</v>
+        <v>5467</v>
       </c>
       <c r="P5" t="n">
-        <v>5711</v>
+        <v>5508</v>
       </c>
       <c r="Q5" t="n">
-        <v>5562</v>
+        <v>5377</v>
       </c>
       <c r="R5" t="n">
-        <v>5562</v>
+        <v>5377</v>
       </c>
       <c r="S5" t="n">
-        <v>5577</v>
+        <v>5400</v>
       </c>
       <c r="T5" t="n">
-        <v>5646</v>
+        <v>5504</v>
       </c>
       <c r="U5" t="n">
-        <v>5776</v>
+        <v>5699</v>
       </c>
       <c r="V5" t="n">
-        <v>5911</v>
+        <v>5903</v>
       </c>
       <c r="W5" t="n">
-        <v>5791</v>
+        <v>5798</v>
       </c>
       <c r="X5" t="n">
-        <v>5547</v>
+        <v>5585</v>
       </c>
       <c r="Y5" t="n">
-        <v>5272</v>
+        <v>5345</v>
       </c>
       <c r="Z5" t="n">
-        <v>5071</v>
+        <v>5170</v>
       </c>
       <c r="AA5" t="n">
-        <v>4789</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="6">
@@ -913,76 +913,76 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>4926</v>
+        <v>4954</v>
       </c>
       <c r="E6" t="n">
-        <v>4675</v>
+        <v>4717</v>
       </c>
       <c r="F6" t="n">
-        <v>4565</v>
+        <v>4610</v>
       </c>
       <c r="G6" t="n">
-        <v>4578</v>
+        <v>4617</v>
       </c>
       <c r="H6" t="n">
-        <v>4607</v>
+        <v>4622</v>
       </c>
       <c r="I6" t="n">
-        <v>4731</v>
+        <v>4721</v>
       </c>
       <c r="J6" t="n">
-        <v>5121</v>
+        <v>5017</v>
       </c>
       <c r="K6" t="n">
-        <v>5631</v>
+        <v>5437</v>
       </c>
       <c r="L6" t="n">
-        <v>6130</v>
+        <v>5872</v>
       </c>
       <c r="M6" t="n">
-        <v>6394</v>
+        <v>6121</v>
       </c>
       <c r="N6" t="n">
-        <v>6419</v>
+        <v>6188</v>
       </c>
       <c r="O6" t="n">
-        <v>6359</v>
+        <v>6171</v>
       </c>
       <c r="P6" t="n">
-        <v>6274</v>
+        <v>6126</v>
       </c>
       <c r="Q6" t="n">
-        <v>6249</v>
+        <v>6097</v>
       </c>
       <c r="R6" t="n">
-        <v>6199</v>
+        <v>6047</v>
       </c>
       <c r="S6" t="n">
-        <v>6139</v>
+        <v>5945</v>
       </c>
       <c r="T6" t="n">
-        <v>6072</v>
+        <v>5866</v>
       </c>
       <c r="U6" t="n">
-        <v>6167</v>
+        <v>5982</v>
       </c>
       <c r="V6" t="n">
-        <v>6362</v>
+        <v>6324</v>
       </c>
       <c r="W6" t="n">
-        <v>6336</v>
+        <v>6311</v>
       </c>
       <c r="X6" t="n">
-        <v>6120</v>
+        <v>6123</v>
       </c>
       <c r="Y6" t="n">
-        <v>5816</v>
+        <v>5850</v>
       </c>
       <c r="Z6" t="n">
-        <v>5534</v>
+        <v>5581</v>
       </c>
       <c r="AA6" t="n">
-        <v>5199</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="7">
@@ -996,76 +996,76 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5304</v>
+        <v>5257</v>
       </c>
       <c r="E7" t="n">
+        <v>5034</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4944</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4937</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4936</v>
+      </c>
+      <c r="I7" t="n">
         <v>5066</v>
       </c>
-      <c r="F7" t="n">
-        <v>4988</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4962</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4972</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5135</v>
-      </c>
       <c r="J7" t="n">
-        <v>5597</v>
+        <v>5469</v>
       </c>
       <c r="K7" t="n">
-        <v>6134</v>
+        <v>5930</v>
       </c>
       <c r="L7" t="n">
-        <v>6593</v>
+        <v>6311</v>
       </c>
       <c r="M7" t="n">
-        <v>6745</v>
+        <v>6439</v>
       </c>
       <c r="N7" t="n">
-        <v>6671</v>
+        <v>6367</v>
       </c>
       <c r="O7" t="n">
-        <v>6557</v>
+        <v>6265</v>
       </c>
       <c r="P7" t="n">
-        <v>6444</v>
+        <v>6168</v>
       </c>
       <c r="Q7" t="n">
-        <v>6385</v>
+        <v>6116</v>
       </c>
       <c r="R7" t="n">
-        <v>6306</v>
+        <v>6046</v>
       </c>
       <c r="S7" t="n">
-        <v>6328</v>
+        <v>6059</v>
       </c>
       <c r="T7" t="n">
-        <v>6363</v>
+        <v>6104</v>
       </c>
       <c r="U7" t="n">
-        <v>6481</v>
+        <v>6273</v>
       </c>
       <c r="V7" t="n">
-        <v>6678</v>
+        <v>6567</v>
       </c>
       <c r="W7" t="n">
-        <v>6647</v>
+        <v>6540</v>
       </c>
       <c r="X7" t="n">
-        <v>6424</v>
+        <v>6337</v>
       </c>
       <c r="Y7" t="n">
-        <v>6117</v>
+        <v>6058</v>
       </c>
       <c r="Z7" t="n">
-        <v>5852</v>
+        <v>5836</v>
       </c>
       <c r="AA7" t="n">
-        <v>5534</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="8">
@@ -1079,76 +1079,76 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>5311</v>
+        <v>5231</v>
       </c>
       <c r="E8" t="n">
-        <v>5073</v>
+        <v>5008</v>
       </c>
       <c r="F8" t="n">
-        <v>4994</v>
+        <v>4918</v>
       </c>
       <c r="G8" t="n">
-        <v>4969</v>
+        <v>4911</v>
       </c>
       <c r="H8" t="n">
-        <v>4979</v>
+        <v>4910</v>
       </c>
       <c r="I8" t="n">
-        <v>5141</v>
+        <v>5040</v>
       </c>
       <c r="J8" t="n">
-        <v>5604</v>
+        <v>5443</v>
       </c>
       <c r="K8" t="n">
-        <v>6141</v>
+        <v>5903</v>
       </c>
       <c r="L8" t="n">
-        <v>6600</v>
+        <v>6285</v>
       </c>
       <c r="M8" t="n">
-        <v>6752</v>
+        <v>6412</v>
       </c>
       <c r="N8" t="n">
-        <v>6677</v>
+        <v>6342</v>
       </c>
       <c r="O8" t="n">
-        <v>6563</v>
+        <v>6242</v>
       </c>
       <c r="P8" t="n">
-        <v>6450</v>
+        <v>6147</v>
       </c>
       <c r="Q8" t="n">
-        <v>6390</v>
+        <v>6095</v>
       </c>
       <c r="R8" t="n">
+        <v>6027</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6040</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6084</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6251</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6541</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6514</v>
+      </c>
+      <c r="X8" t="n">
         <v>6311</v>
       </c>
-      <c r="S8" t="n">
-        <v>6333</v>
-      </c>
-      <c r="T8" t="n">
-        <v>6368</v>
-      </c>
-      <c r="U8" t="n">
-        <v>6487</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6685</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6654</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6430</v>
-      </c>
       <c r="Y8" t="n">
-        <v>6124</v>
+        <v>6032</v>
       </c>
       <c r="Z8" t="n">
-        <v>5859</v>
+        <v>5810</v>
       </c>
       <c r="AA8" t="n">
-        <v>5541</v>
+        <v>5491</v>
       </c>
     </row>
     <row r="9">
@@ -1162,76 +1162,159 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>5121</v>
+        <v>5036</v>
       </c>
       <c r="E9" t="n">
-        <v>4884</v>
+        <v>4812</v>
       </c>
       <c r="F9" t="n">
-        <v>4806</v>
+        <v>4721</v>
       </c>
       <c r="G9" t="n">
-        <v>4780</v>
+        <v>4714</v>
       </c>
       <c r="H9" t="n">
-        <v>4790</v>
+        <v>4713</v>
       </c>
       <c r="I9" t="n">
-        <v>4953</v>
+        <v>4842</v>
       </c>
       <c r="J9" t="n">
-        <v>5414</v>
+        <v>5245</v>
       </c>
       <c r="K9" t="n">
-        <v>5950</v>
+        <v>5705</v>
       </c>
       <c r="L9" t="n">
-        <v>6408</v>
+        <v>6086</v>
       </c>
       <c r="M9" t="n">
-        <v>6559</v>
+        <v>6214</v>
       </c>
       <c r="N9" t="n">
-        <v>6494</v>
+        <v>6154</v>
       </c>
       <c r="O9" t="n">
-        <v>6394</v>
+        <v>6069</v>
       </c>
       <c r="P9" t="n">
-        <v>6295</v>
+        <v>5987</v>
       </c>
       <c r="Q9" t="n">
-        <v>6242</v>
+        <v>5943</v>
       </c>
       <c r="R9" t="n">
-        <v>6173</v>
+        <v>5885</v>
       </c>
       <c r="S9" t="n">
-        <v>6192</v>
+        <v>5896</v>
       </c>
       <c r="T9" t="n">
-        <v>6223</v>
+        <v>5937</v>
       </c>
       <c r="U9" t="n">
-        <v>6326</v>
+        <v>6087</v>
       </c>
       <c r="V9" t="n">
-        <v>6498</v>
+        <v>6349</v>
       </c>
       <c r="W9" t="n">
-        <v>6467</v>
+        <v>6322</v>
       </c>
       <c r="X9" t="n">
-        <v>6241</v>
+        <v>6117</v>
       </c>
       <c r="Y9" t="n">
-        <v>5932</v>
+        <v>5834</v>
       </c>
       <c r="Z9" t="n">
-        <v>5665</v>
+        <v>5610</v>
       </c>
       <c r="AA9" t="n">
-        <v>5343</v>
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4852</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4627</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4536</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4529</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4528</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4657</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5059</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5519</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5900</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6027</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5977</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5905</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5837</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5800</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5751</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5760</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5789</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5898</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6089</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6062</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5861</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5584</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>5364</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5048</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,76 +913,76 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>4954</v>
+        <v>5048</v>
       </c>
       <c r="E6" t="n">
-        <v>4717</v>
+        <v>4722</v>
       </c>
       <c r="F6" t="n">
-        <v>4610</v>
+        <v>4574</v>
       </c>
       <c r="G6" t="n">
-        <v>4617</v>
+        <v>4581</v>
       </c>
       <c r="H6" t="n">
-        <v>4622</v>
+        <v>4586</v>
       </c>
       <c r="I6" t="n">
-        <v>4721</v>
+        <v>4678</v>
       </c>
       <c r="J6" t="n">
-        <v>5017</v>
+        <v>4956</v>
       </c>
       <c r="K6" t="n">
-        <v>5437</v>
+        <v>5349</v>
       </c>
       <c r="L6" t="n">
-        <v>5872</v>
+        <v>5757</v>
       </c>
       <c r="M6" t="n">
-        <v>6121</v>
+        <v>5990</v>
       </c>
       <c r="N6" t="n">
-        <v>6188</v>
+        <v>6053</v>
       </c>
       <c r="O6" t="n">
-        <v>6171</v>
+        <v>6028</v>
       </c>
       <c r="P6" t="n">
-        <v>6126</v>
+        <v>5963</v>
       </c>
       <c r="Q6" t="n">
-        <v>6097</v>
+        <v>5923</v>
       </c>
       <c r="R6" t="n">
-        <v>6047</v>
+        <v>5849</v>
       </c>
       <c r="S6" t="n">
-        <v>5945</v>
+        <v>5703</v>
       </c>
       <c r="T6" t="n">
-        <v>5866</v>
+        <v>5590</v>
       </c>
       <c r="U6" t="n">
-        <v>5982</v>
+        <v>5736</v>
       </c>
       <c r="V6" t="n">
-        <v>6324</v>
+        <v>6165</v>
       </c>
       <c r="W6" t="n">
-        <v>6311</v>
+        <v>6154</v>
       </c>
       <c r="X6" t="n">
-        <v>6123</v>
+        <v>6012</v>
       </c>
       <c r="Y6" t="n">
-        <v>5850</v>
+        <v>5806</v>
       </c>
       <c r="Z6" t="n">
-        <v>5581</v>
+        <v>5604</v>
       </c>
       <c r="AA6" t="n">
-        <v>5261</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="7">
@@ -996,76 +996,76 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5257</v>
+        <v>5374</v>
       </c>
       <c r="E7" t="n">
-        <v>5034</v>
+        <v>5082</v>
       </c>
       <c r="F7" t="n">
-        <v>4944</v>
+        <v>4948</v>
       </c>
       <c r="G7" t="n">
-        <v>4937</v>
+        <v>4942</v>
       </c>
       <c r="H7" t="n">
-        <v>4936</v>
+        <v>4925</v>
       </c>
       <c r="I7" t="n">
-        <v>5066</v>
+        <v>5041</v>
       </c>
       <c r="J7" t="n">
-        <v>5469</v>
+        <v>5407</v>
       </c>
       <c r="K7" t="n">
-        <v>5930</v>
+        <v>5822</v>
       </c>
       <c r="L7" t="n">
-        <v>6311</v>
+        <v>6180</v>
       </c>
       <c r="M7" t="n">
-        <v>6439</v>
+        <v>6328</v>
       </c>
       <c r="N7" t="n">
-        <v>6367</v>
+        <v>6249</v>
       </c>
       <c r="O7" t="n">
-        <v>6265</v>
+        <v>6114</v>
       </c>
       <c r="P7" t="n">
-        <v>6168</v>
+        <v>5979</v>
       </c>
       <c r="Q7" t="n">
-        <v>6116</v>
+        <v>5898</v>
       </c>
       <c r="R7" t="n">
-        <v>6046</v>
+        <v>5782</v>
       </c>
       <c r="S7" t="n">
-        <v>6059</v>
+        <v>5778</v>
       </c>
       <c r="T7" t="n">
-        <v>6104</v>
+        <v>5813</v>
       </c>
       <c r="U7" t="n">
-        <v>6273</v>
+        <v>6026</v>
       </c>
       <c r="V7" t="n">
-        <v>6567</v>
+        <v>6431</v>
       </c>
       <c r="W7" t="n">
-        <v>6540</v>
+        <v>6406</v>
       </c>
       <c r="X7" t="n">
-        <v>6337</v>
+        <v>6254</v>
       </c>
       <c r="Y7" t="n">
-        <v>6058</v>
+        <v>6044</v>
       </c>
       <c r="Z7" t="n">
-        <v>5836</v>
+        <v>5884</v>
       </c>
       <c r="AA7" t="n">
-        <v>5518</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="8">
@@ -1079,76 +1079,76 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>5231</v>
+        <v>5343</v>
       </c>
       <c r="E8" t="n">
-        <v>5008</v>
+        <v>5051</v>
       </c>
       <c r="F8" t="n">
-        <v>4918</v>
+        <v>4917</v>
       </c>
       <c r="G8" t="n">
         <v>4911</v>
       </c>
       <c r="H8" t="n">
-        <v>4910</v>
+        <v>4894</v>
       </c>
       <c r="I8" t="n">
-        <v>5040</v>
+        <v>5010</v>
       </c>
       <c r="J8" t="n">
-        <v>5443</v>
+        <v>5376</v>
       </c>
       <c r="K8" t="n">
-        <v>5903</v>
+        <v>5791</v>
       </c>
       <c r="L8" t="n">
-        <v>6285</v>
+        <v>6149</v>
       </c>
       <c r="M8" t="n">
-        <v>6412</v>
+        <v>6296</v>
       </c>
       <c r="N8" t="n">
-        <v>6342</v>
+        <v>6219</v>
       </c>
       <c r="O8" t="n">
-        <v>6242</v>
+        <v>6086</v>
       </c>
       <c r="P8" t="n">
-        <v>6147</v>
+        <v>5953</v>
       </c>
       <c r="Q8" t="n">
-        <v>6095</v>
+        <v>5874</v>
       </c>
       <c r="R8" t="n">
-        <v>6027</v>
+        <v>5760</v>
       </c>
       <c r="S8" t="n">
-        <v>6040</v>
+        <v>5756</v>
       </c>
       <c r="T8" t="n">
-        <v>6084</v>
+        <v>5791</v>
       </c>
       <c r="U8" t="n">
-        <v>6251</v>
+        <v>6001</v>
       </c>
       <c r="V8" t="n">
-        <v>6541</v>
+        <v>6400</v>
       </c>
       <c r="W8" t="n">
-        <v>6514</v>
+        <v>6375</v>
       </c>
       <c r="X8" t="n">
-        <v>6311</v>
+        <v>6223</v>
       </c>
       <c r="Y8" t="n">
-        <v>6032</v>
+        <v>6012</v>
       </c>
       <c r="Z8" t="n">
-        <v>5810</v>
+        <v>5852</v>
       </c>
       <c r="AA8" t="n">
-        <v>5491</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="9">
@@ -1162,76 +1162,76 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>5036</v>
+        <v>5131</v>
       </c>
       <c r="E9" t="n">
-        <v>4812</v>
+        <v>4838</v>
       </c>
       <c r="F9" t="n">
-        <v>4721</v>
+        <v>4703</v>
       </c>
       <c r="G9" t="n">
-        <v>4714</v>
+        <v>4698</v>
       </c>
       <c r="H9" t="n">
-        <v>4713</v>
+        <v>4680</v>
       </c>
       <c r="I9" t="n">
-        <v>4842</v>
+        <v>4796</v>
       </c>
       <c r="J9" t="n">
-        <v>5245</v>
+        <v>5162</v>
       </c>
       <c r="K9" t="n">
-        <v>5705</v>
+        <v>5577</v>
       </c>
       <c r="L9" t="n">
-        <v>6086</v>
+        <v>5934</v>
       </c>
       <c r="M9" t="n">
-        <v>6214</v>
+        <v>6081</v>
       </c>
       <c r="N9" t="n">
-        <v>6154</v>
+        <v>6013</v>
       </c>
       <c r="O9" t="n">
-        <v>6069</v>
+        <v>5897</v>
       </c>
       <c r="P9" t="n">
-        <v>5987</v>
+        <v>5782</v>
       </c>
       <c r="Q9" t="n">
-        <v>5943</v>
+        <v>5712</v>
       </c>
       <c r="R9" t="n">
-        <v>5885</v>
+        <v>5613</v>
       </c>
       <c r="S9" t="n">
-        <v>5896</v>
+        <v>5609</v>
       </c>
       <c r="T9" t="n">
-        <v>5937</v>
+        <v>5641</v>
       </c>
       <c r="U9" t="n">
-        <v>6087</v>
+        <v>5831</v>
       </c>
       <c r="V9" t="n">
-        <v>6349</v>
+        <v>6192</v>
       </c>
       <c r="W9" t="n">
-        <v>6322</v>
+        <v>6167</v>
       </c>
       <c r="X9" t="n">
-        <v>6117</v>
+        <v>6012</v>
       </c>
       <c r="Y9" t="n">
-        <v>5834</v>
+        <v>5798</v>
       </c>
       <c r="Z9" t="n">
-        <v>5610</v>
+        <v>5636</v>
       </c>
       <c r="AA9" t="n">
-        <v>5288</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="10">
@@ -1245,76 +1245,159 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>4852</v>
+        <v>4920</v>
       </c>
       <c r="E10" t="n">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="F10" t="n">
-        <v>4536</v>
+        <v>4490</v>
       </c>
       <c r="G10" t="n">
+        <v>4484</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4467</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4583</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4948</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5362</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5719</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5866</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5808</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5709</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5610</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5550</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5466</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5462</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5487</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5631</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5904</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5879</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5728</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5520</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>5361</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4785</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4533</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4410</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4279</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4299</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4395</v>
+      </c>
+      <c r="J11" t="n">
         <v>4529</v>
       </c>
-      <c r="H10" t="n">
-        <v>4528</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4657</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5059</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5519</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5900</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6027</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5977</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5905</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5837</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5800</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5751</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5760</v>
-      </c>
-      <c r="T10" t="n">
-        <v>5789</v>
-      </c>
-      <c r="U10" t="n">
-        <v>5898</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6089</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6062</v>
-      </c>
-      <c r="X10" t="n">
-        <v>5861</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5584</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>5364</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>5048</v>
+      <c r="K11" t="n">
+        <v>4696</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5055</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5278</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5422</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5349</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5321</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5231</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5166</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5133</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5167</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5380</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5577</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5478</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5315</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5119</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5053</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4894</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,76 +996,76 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5374</v>
+        <v>4980</v>
       </c>
       <c r="E7" t="n">
-        <v>5082</v>
+        <v>4731</v>
       </c>
       <c r="F7" t="n">
-        <v>4948</v>
+        <v>4615</v>
       </c>
       <c r="G7" t="n">
-        <v>4942</v>
+        <v>4583</v>
       </c>
       <c r="H7" t="n">
-        <v>4925</v>
+        <v>4605</v>
       </c>
       <c r="I7" t="n">
-        <v>5041</v>
+        <v>4745</v>
       </c>
       <c r="J7" t="n">
-        <v>5407</v>
+        <v>5257</v>
       </c>
       <c r="K7" t="n">
-        <v>5822</v>
+        <v>5838</v>
       </c>
       <c r="L7" t="n">
-        <v>6180</v>
+        <v>6343</v>
       </c>
       <c r="M7" t="n">
-        <v>6328</v>
+        <v>6561</v>
       </c>
       <c r="N7" t="n">
-        <v>6249</v>
+        <v>6517</v>
       </c>
       <c r="O7" t="n">
-        <v>6114</v>
+        <v>6447</v>
       </c>
       <c r="P7" t="n">
-        <v>5979</v>
+        <v>6379</v>
       </c>
       <c r="Q7" t="n">
-        <v>5898</v>
+        <v>6338</v>
       </c>
       <c r="R7" t="n">
-        <v>5782</v>
+        <v>6275</v>
       </c>
       <c r="S7" t="n">
-        <v>5778</v>
+        <v>6267</v>
       </c>
       <c r="T7" t="n">
-        <v>5813</v>
+        <v>6289</v>
       </c>
       <c r="U7" t="n">
-        <v>6026</v>
+        <v>6409</v>
       </c>
       <c r="V7" t="n">
-        <v>6431</v>
+        <v>6610</v>
       </c>
       <c r="W7" t="n">
-        <v>6406</v>
+        <v>6650</v>
       </c>
       <c r="X7" t="n">
-        <v>6254</v>
+        <v>6350</v>
       </c>
       <c r="Y7" t="n">
-        <v>6044</v>
+        <v>6087</v>
       </c>
       <c r="Z7" t="n">
-        <v>5884</v>
+        <v>5853</v>
       </c>
       <c r="AA7" t="n">
-        <v>5644</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="8">
@@ -1079,76 +1079,76 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>5343</v>
+        <v>5121</v>
       </c>
       <c r="E8" t="n">
-        <v>5051</v>
+        <v>4872</v>
       </c>
       <c r="F8" t="n">
-        <v>4917</v>
+        <v>4756</v>
       </c>
       <c r="G8" t="n">
-        <v>4911</v>
+        <v>4745</v>
       </c>
       <c r="H8" t="n">
-        <v>4894</v>
+        <v>4724</v>
       </c>
       <c r="I8" t="n">
-        <v>5010</v>
+        <v>4876</v>
       </c>
       <c r="J8" t="n">
-        <v>5376</v>
+        <v>5354</v>
       </c>
       <c r="K8" t="n">
-        <v>5791</v>
+        <v>5896</v>
       </c>
       <c r="L8" t="n">
-        <v>6149</v>
+        <v>6368</v>
       </c>
       <c r="M8" t="n">
-        <v>6296</v>
+        <v>6571</v>
       </c>
       <c r="N8" t="n">
-        <v>6219</v>
+        <v>6527</v>
       </c>
       <c r="O8" t="n">
-        <v>6086</v>
+        <v>6457</v>
       </c>
       <c r="P8" t="n">
-        <v>5953</v>
+        <v>6388</v>
       </c>
       <c r="Q8" t="n">
-        <v>5874</v>
+        <v>6346</v>
       </c>
       <c r="R8" t="n">
-        <v>5760</v>
+        <v>6283</v>
       </c>
       <c r="S8" t="n">
-        <v>5756</v>
+        <v>6274</v>
       </c>
       <c r="T8" t="n">
-        <v>5791</v>
+        <v>6284</v>
       </c>
       <c r="U8" t="n">
-        <v>6001</v>
+        <v>6332</v>
       </c>
       <c r="V8" t="n">
-        <v>6400</v>
+        <v>6431</v>
       </c>
       <c r="W8" t="n">
-        <v>6375</v>
+        <v>6398</v>
       </c>
       <c r="X8" t="n">
-        <v>6223</v>
+        <v>6181</v>
       </c>
       <c r="Y8" t="n">
-        <v>6012</v>
+        <v>5883</v>
       </c>
       <c r="Z8" t="n">
-        <v>5852</v>
+        <v>5655</v>
       </c>
       <c r="AA8" t="n">
-        <v>5612</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="9">
@@ -1162,76 +1162,76 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>5131</v>
+        <v>4947</v>
       </c>
       <c r="E9" t="n">
-        <v>4838</v>
+        <v>4697</v>
       </c>
       <c r="F9" t="n">
-        <v>4703</v>
+        <v>4581</v>
       </c>
       <c r="G9" t="n">
-        <v>4698</v>
+        <v>4570</v>
       </c>
       <c r="H9" t="n">
-        <v>4680</v>
+        <v>4548</v>
       </c>
       <c r="I9" t="n">
-        <v>4796</v>
+        <v>4700</v>
       </c>
       <c r="J9" t="n">
-        <v>5162</v>
+        <v>5178</v>
       </c>
       <c r="K9" t="n">
-        <v>5577</v>
+        <v>5720</v>
       </c>
       <c r="L9" t="n">
-        <v>5934</v>
+        <v>6192</v>
       </c>
       <c r="M9" t="n">
-        <v>6081</v>
+        <v>6395</v>
       </c>
       <c r="N9" t="n">
-        <v>6013</v>
+        <v>6359</v>
       </c>
       <c r="O9" t="n">
-        <v>5897</v>
+        <v>6302</v>
       </c>
       <c r="P9" t="n">
-        <v>5782</v>
+        <v>6246</v>
       </c>
       <c r="Q9" t="n">
-        <v>5712</v>
+        <v>6211</v>
       </c>
       <c r="R9" t="n">
-        <v>5613</v>
+        <v>6161</v>
       </c>
       <c r="S9" t="n">
-        <v>5609</v>
+        <v>6154</v>
       </c>
       <c r="T9" t="n">
-        <v>5641</v>
+        <v>6160</v>
       </c>
       <c r="U9" t="n">
-        <v>5831</v>
+        <v>6193</v>
       </c>
       <c r="V9" t="n">
-        <v>6192</v>
+        <v>6260</v>
       </c>
       <c r="W9" t="n">
-        <v>6167</v>
+        <v>6227</v>
       </c>
       <c r="X9" t="n">
-        <v>6012</v>
+        <v>6008</v>
       </c>
       <c r="Y9" t="n">
-        <v>5798</v>
+        <v>5707</v>
       </c>
       <c r="Z9" t="n">
-        <v>5636</v>
+        <v>5477</v>
       </c>
       <c r="AA9" t="n">
-        <v>5392</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="10">
@@ -1245,76 +1245,76 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>4920</v>
+        <v>4798</v>
       </c>
       <c r="E10" t="n">
-        <v>4626</v>
+        <v>4548</v>
       </c>
       <c r="F10" t="n">
-        <v>4490</v>
+        <v>4431</v>
       </c>
       <c r="G10" t="n">
-        <v>4484</v>
+        <v>4420</v>
       </c>
       <c r="H10" t="n">
-        <v>4467</v>
+        <v>4398</v>
       </c>
       <c r="I10" t="n">
-        <v>4583</v>
+        <v>4550</v>
       </c>
       <c r="J10" t="n">
-        <v>4948</v>
+        <v>5027</v>
       </c>
       <c r="K10" t="n">
-        <v>5362</v>
+        <v>5569</v>
       </c>
       <c r="L10" t="n">
-        <v>5719</v>
+        <v>6041</v>
       </c>
       <c r="M10" t="n">
-        <v>5866</v>
+        <v>6244</v>
       </c>
       <c r="N10" t="n">
-        <v>5808</v>
+        <v>6215</v>
       </c>
       <c r="O10" t="n">
-        <v>5709</v>
+        <v>6169</v>
       </c>
       <c r="P10" t="n">
-        <v>5610</v>
+        <v>6124</v>
       </c>
       <c r="Q10" t="n">
-        <v>5550</v>
+        <v>6097</v>
       </c>
       <c r="R10" t="n">
-        <v>5466</v>
+        <v>6056</v>
       </c>
       <c r="S10" t="n">
-        <v>5462</v>
+        <v>6050</v>
       </c>
       <c r="T10" t="n">
-        <v>5487</v>
+        <v>6050</v>
       </c>
       <c r="U10" t="n">
-        <v>5631</v>
+        <v>6044</v>
       </c>
       <c r="V10" t="n">
-        <v>5904</v>
+        <v>6034</v>
       </c>
       <c r="W10" t="n">
-        <v>5879</v>
+        <v>6001</v>
       </c>
       <c r="X10" t="n">
-        <v>5728</v>
+        <v>5787</v>
       </c>
       <c r="Y10" t="n">
-        <v>5520</v>
+        <v>5492</v>
       </c>
       <c r="Z10" t="n">
-        <v>5361</v>
+        <v>5267</v>
       </c>
       <c r="AA10" t="n">
-        <v>5123</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="11">
@@ -1328,76 +1328,159 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>4785</v>
+        <v>4597</v>
       </c>
       <c r="E11" t="n">
-        <v>4533</v>
+        <v>4371</v>
       </c>
       <c r="F11" t="n">
-        <v>4410</v>
+        <v>4261</v>
       </c>
       <c r="G11" t="n">
-        <v>4279</v>
+        <v>4143</v>
       </c>
       <c r="H11" t="n">
-        <v>4299</v>
+        <v>4172</v>
       </c>
       <c r="I11" t="n">
-        <v>4395</v>
+        <v>4305</v>
       </c>
       <c r="J11" t="n">
-        <v>4529</v>
+        <v>4493</v>
       </c>
       <c r="K11" t="n">
-        <v>4696</v>
+        <v>4725</v>
       </c>
       <c r="L11" t="n">
-        <v>5055</v>
+        <v>5225</v>
       </c>
       <c r="M11" t="n">
-        <v>5278</v>
+        <v>5536</v>
       </c>
       <c r="N11" t="n">
-        <v>5422</v>
+        <v>5737</v>
       </c>
       <c r="O11" t="n">
-        <v>5349</v>
+        <v>5721</v>
       </c>
       <c r="P11" t="n">
-        <v>5321</v>
+        <v>5715</v>
       </c>
       <c r="Q11" t="n">
-        <v>5231</v>
+        <v>5696</v>
       </c>
       <c r="R11" t="n">
-        <v>5166</v>
+        <v>5682</v>
       </c>
       <c r="S11" t="n">
-        <v>5133</v>
+        <v>5675</v>
       </c>
       <c r="T11" t="n">
-        <v>5167</v>
+        <v>5672</v>
       </c>
       <c r="U11" t="n">
+        <v>5656</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5641</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5496</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5256</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4967</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4871</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4109</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4067</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4106</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4192</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4402</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4652</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5074</v>
+      </c>
+      <c r="M12" t="n">
         <v>5380</v>
       </c>
-      <c r="V11" t="n">
-        <v>5577</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5478</v>
-      </c>
-      <c r="X11" t="n">
-        <v>5315</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>5119</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>5053</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>4894</v>
+      <c r="N12" t="n">
+        <v>5700</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5705</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5706</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5707</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5711</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5720</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5755</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5800</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5825</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5829</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5536</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5268</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5066</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4699</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,76 +1079,76 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>5121</v>
+        <v>5101</v>
       </c>
       <c r="E8" t="n">
-        <v>4872</v>
+        <v>4879</v>
       </c>
       <c r="F8" t="n">
-        <v>4756</v>
+        <v>4787</v>
       </c>
       <c r="G8" t="n">
-        <v>4745</v>
+        <v>4779</v>
       </c>
       <c r="H8" t="n">
-        <v>4724</v>
+        <v>4759</v>
       </c>
       <c r="I8" t="n">
-        <v>4876</v>
+        <v>4919</v>
       </c>
       <c r="J8" t="n">
-        <v>5354</v>
+        <v>5376</v>
       </c>
       <c r="K8" t="n">
-        <v>5896</v>
+        <v>5875</v>
       </c>
       <c r="L8" t="n">
-        <v>6368</v>
+        <v>6299</v>
       </c>
       <c r="M8" t="n">
-        <v>6571</v>
+        <v>6467</v>
       </c>
       <c r="N8" t="n">
-        <v>6527</v>
+        <v>6401</v>
       </c>
       <c r="O8" t="n">
-        <v>6457</v>
+        <v>6299</v>
       </c>
       <c r="P8" t="n">
-        <v>6388</v>
+        <v>6201</v>
       </c>
       <c r="Q8" t="n">
-        <v>6346</v>
+        <v>6138</v>
       </c>
       <c r="R8" t="n">
-        <v>6283</v>
+        <v>6055</v>
       </c>
       <c r="S8" t="n">
-        <v>6274</v>
+        <v>6052</v>
       </c>
       <c r="T8" t="n">
-        <v>6284</v>
+        <v>6077</v>
       </c>
       <c r="U8" t="n">
-        <v>6332</v>
+        <v>6166</v>
       </c>
       <c r="V8" t="n">
-        <v>6431</v>
+        <v>6357</v>
       </c>
       <c r="W8" t="n">
-        <v>6398</v>
+        <v>6326</v>
       </c>
       <c r="X8" t="n">
-        <v>6181</v>
+        <v>6101</v>
       </c>
       <c r="Y8" t="n">
-        <v>5883</v>
+        <v>5812</v>
       </c>
       <c r="Z8" t="n">
-        <v>5655</v>
+        <v>5597</v>
       </c>
       <c r="AA8" t="n">
-        <v>5319</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="9">
@@ -1162,76 +1162,76 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>4947</v>
+        <v>4927</v>
       </c>
       <c r="E9" t="n">
-        <v>4697</v>
+        <v>4704</v>
       </c>
       <c r="F9" t="n">
-        <v>4581</v>
+        <v>4611</v>
       </c>
       <c r="G9" t="n">
-        <v>4570</v>
+        <v>4604</v>
       </c>
       <c r="H9" t="n">
-        <v>4548</v>
+        <v>4583</v>
       </c>
       <c r="I9" t="n">
-        <v>4700</v>
+        <v>4743</v>
       </c>
       <c r="J9" t="n">
-        <v>5178</v>
+        <v>5200</v>
       </c>
       <c r="K9" t="n">
-        <v>5720</v>
+        <v>5699</v>
       </c>
       <c r="L9" t="n">
-        <v>6192</v>
+        <v>6122</v>
       </c>
       <c r="M9" t="n">
-        <v>6395</v>
+        <v>6290</v>
       </c>
       <c r="N9" t="n">
-        <v>6359</v>
+        <v>6233</v>
       </c>
       <c r="O9" t="n">
-        <v>6302</v>
+        <v>6145</v>
       </c>
       <c r="P9" t="n">
-        <v>6246</v>
+        <v>6060</v>
       </c>
       <c r="Q9" t="n">
-        <v>6211</v>
+        <v>6006</v>
       </c>
       <c r="R9" t="n">
-        <v>6161</v>
+        <v>5934</v>
       </c>
       <c r="S9" t="n">
+        <v>5931</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5952</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6026</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6186</v>
+      </c>
+      <c r="W9" t="n">
         <v>6154</v>
       </c>
-      <c r="T9" t="n">
-        <v>6160</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6193</v>
-      </c>
-      <c r="V9" t="n">
-        <v>6260</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6227</v>
-      </c>
       <c r="X9" t="n">
-        <v>6008</v>
+        <v>5928</v>
       </c>
       <c r="Y9" t="n">
-        <v>5707</v>
+        <v>5636</v>
       </c>
       <c r="Z9" t="n">
-        <v>5477</v>
+        <v>5419</v>
       </c>
       <c r="AA9" t="n">
-        <v>5138</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="10">
@@ -1245,76 +1245,76 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>4798</v>
+        <v>4779</v>
       </c>
       <c r="E10" t="n">
-        <v>4548</v>
+        <v>4554</v>
       </c>
       <c r="F10" t="n">
-        <v>4431</v>
+        <v>4462</v>
       </c>
       <c r="G10" t="n">
-        <v>4420</v>
+        <v>4454</v>
       </c>
       <c r="H10" t="n">
-        <v>4398</v>
+        <v>4434</v>
       </c>
       <c r="I10" t="n">
-        <v>4550</v>
+        <v>4593</v>
       </c>
       <c r="J10" t="n">
-        <v>5027</v>
+        <v>5050</v>
       </c>
       <c r="K10" t="n">
-        <v>5569</v>
+        <v>5548</v>
       </c>
       <c r="L10" t="n">
-        <v>6041</v>
+        <v>5971</v>
       </c>
       <c r="M10" t="n">
-        <v>6244</v>
+        <v>6139</v>
       </c>
       <c r="N10" t="n">
-        <v>6215</v>
+        <v>6089</v>
       </c>
       <c r="O10" t="n">
-        <v>6169</v>
+        <v>6013</v>
       </c>
       <c r="P10" t="n">
-        <v>6124</v>
+        <v>5940</v>
       </c>
       <c r="Q10" t="n">
-        <v>6097</v>
+        <v>5893</v>
       </c>
       <c r="R10" t="n">
-        <v>6056</v>
+        <v>5830</v>
       </c>
       <c r="S10" t="n">
-        <v>6050</v>
+        <v>5828</v>
       </c>
       <c r="T10" t="n">
-        <v>6050</v>
+        <v>5839</v>
       </c>
       <c r="U10" t="n">
-        <v>6044</v>
+        <v>5877</v>
       </c>
       <c r="V10" t="n">
-        <v>6034</v>
+        <v>5960</v>
       </c>
       <c r="W10" t="n">
-        <v>6001</v>
+        <v>5929</v>
       </c>
       <c r="X10" t="n">
-        <v>5787</v>
+        <v>5707</v>
       </c>
       <c r="Y10" t="n">
-        <v>5492</v>
+        <v>5421</v>
       </c>
       <c r="Z10" t="n">
-        <v>5267</v>
+        <v>5209</v>
       </c>
       <c r="AA10" t="n">
-        <v>4935</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="11">
@@ -1328,76 +1328,76 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>4597</v>
+        <v>4577</v>
       </c>
       <c r="E11" t="n">
-        <v>4371</v>
+        <v>4307</v>
       </c>
       <c r="F11" t="n">
-        <v>4261</v>
+        <v>4196</v>
       </c>
       <c r="G11" t="n">
-        <v>4143</v>
+        <v>4183</v>
       </c>
       <c r="H11" t="n">
-        <v>4172</v>
+        <v>4176</v>
       </c>
       <c r="I11" t="n">
-        <v>4305</v>
+        <v>4205</v>
       </c>
       <c r="J11" t="n">
-        <v>4493</v>
+        <v>4360</v>
       </c>
       <c r="K11" t="n">
-        <v>4725</v>
+        <v>4721</v>
       </c>
       <c r="L11" t="n">
-        <v>5225</v>
+        <v>5215</v>
       </c>
       <c r="M11" t="n">
-        <v>5536</v>
+        <v>5548</v>
       </c>
       <c r="N11" t="n">
-        <v>5737</v>
+        <v>5633</v>
       </c>
       <c r="O11" t="n">
-        <v>5721</v>
+        <v>5600</v>
       </c>
       <c r="P11" t="n">
-        <v>5715</v>
+        <v>5565</v>
       </c>
       <c r="Q11" t="n">
-        <v>5696</v>
+        <v>5522</v>
       </c>
       <c r="R11" t="n">
-        <v>5682</v>
+        <v>5470</v>
       </c>
       <c r="S11" t="n">
-        <v>5675</v>
+        <v>5452</v>
       </c>
       <c r="T11" t="n">
-        <v>5672</v>
+        <v>5472</v>
       </c>
       <c r="U11" t="n">
-        <v>5656</v>
+        <v>5521</v>
       </c>
       <c r="V11" t="n">
-        <v>5641</v>
+        <v>5567</v>
       </c>
       <c r="W11" t="n">
-        <v>5496</v>
+        <v>5478</v>
       </c>
       <c r="X11" t="n">
-        <v>5256</v>
+        <v>5230</v>
       </c>
       <c r="Y11" t="n">
-        <v>4967</v>
+        <v>4940</v>
       </c>
       <c r="Z11" t="n">
-        <v>4871</v>
+        <v>4811</v>
       </c>
       <c r="AA11" t="n">
-        <v>4636</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,159 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>4512</v>
+        <v>4492</v>
       </c>
       <c r="E12" t="n">
-        <v>4256</v>
+        <v>4261</v>
       </c>
       <c r="F12" t="n">
-        <v>4109</v>
+        <v>4155</v>
       </c>
       <c r="G12" t="n">
-        <v>4067</v>
+        <v>4099</v>
       </c>
       <c r="H12" t="n">
-        <v>4106</v>
+        <v>4125</v>
       </c>
       <c r="I12" t="n">
-        <v>4192</v>
+        <v>4158</v>
       </c>
       <c r="J12" t="n">
-        <v>4402</v>
+        <v>4300</v>
       </c>
       <c r="K12" t="n">
-        <v>4652</v>
+        <v>4609</v>
       </c>
       <c r="L12" t="n">
-        <v>5074</v>
+        <v>5042</v>
       </c>
       <c r="M12" t="n">
-        <v>5380</v>
+        <v>5414</v>
       </c>
       <c r="N12" t="n">
-        <v>5700</v>
+        <v>5575</v>
       </c>
       <c r="O12" t="n">
-        <v>5705</v>
+        <v>5597</v>
       </c>
       <c r="P12" t="n">
-        <v>5706</v>
+        <v>5585</v>
       </c>
       <c r="Q12" t="n">
-        <v>5707</v>
+        <v>5546</v>
       </c>
       <c r="R12" t="n">
-        <v>5711</v>
+        <v>5499</v>
       </c>
       <c r="S12" t="n">
-        <v>5720</v>
+        <v>5489</v>
       </c>
       <c r="T12" t="n">
-        <v>5755</v>
+        <v>5545</v>
       </c>
       <c r="U12" t="n">
-        <v>5800</v>
+        <v>5643</v>
       </c>
       <c r="V12" t="n">
-        <v>5825</v>
+        <v>5757</v>
       </c>
       <c r="W12" t="n">
-        <v>5829</v>
+        <v>5699</v>
       </c>
       <c r="X12" t="n">
-        <v>5536</v>
+        <v>5478</v>
       </c>
       <c r="Y12" t="n">
-        <v>5268</v>
+        <v>5191</v>
       </c>
       <c r="Z12" t="n">
-        <v>5066</v>
+        <v>4972</v>
       </c>
       <c r="AA12" t="n">
-        <v>4699</v>
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4725</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4473</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4361</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4366</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4389</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4536</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4928</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5405</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5900</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6183</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6260</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6243</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6202</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6177</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6070</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6036</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5964</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6014</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6160</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6145</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5941</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5644</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5352</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4998</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,76 +1162,76 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>4927</v>
+        <v>4950</v>
       </c>
       <c r="E9" t="n">
-        <v>4704</v>
+        <v>4734</v>
       </c>
       <c r="F9" t="n">
-        <v>4611</v>
+        <v>4632</v>
       </c>
       <c r="G9" t="n">
-        <v>4604</v>
+        <v>4624</v>
       </c>
       <c r="H9" t="n">
-        <v>4583</v>
+        <v>4599</v>
       </c>
       <c r="I9" t="n">
-        <v>4743</v>
+        <v>4750</v>
       </c>
       <c r="J9" t="n">
-        <v>5200</v>
+        <v>5214</v>
       </c>
       <c r="K9" t="n">
-        <v>5699</v>
+        <v>5716</v>
       </c>
       <c r="L9" t="n">
-        <v>6122</v>
+        <v>6126</v>
       </c>
       <c r="M9" t="n">
-        <v>6290</v>
+        <v>6281</v>
       </c>
       <c r="N9" t="n">
-        <v>6233</v>
+        <v>6211</v>
       </c>
       <c r="O9" t="n">
-        <v>6145</v>
+        <v>6098</v>
       </c>
       <c r="P9" t="n">
-        <v>6060</v>
+        <v>5988</v>
       </c>
       <c r="Q9" t="n">
-        <v>6006</v>
+        <v>5921</v>
       </c>
       <c r="R9" t="n">
-        <v>5934</v>
+        <v>5819</v>
       </c>
       <c r="S9" t="n">
-        <v>5931</v>
+        <v>5803</v>
       </c>
       <c r="T9" t="n">
-        <v>5952</v>
+        <v>5819</v>
       </c>
       <c r="U9" t="n">
-        <v>6026</v>
+        <v>5925</v>
       </c>
       <c r="V9" t="n">
-        <v>6186</v>
+        <v>6128</v>
       </c>
       <c r="W9" t="n">
-        <v>6154</v>
+        <v>6149</v>
       </c>
       <c r="X9" t="n">
-        <v>5928</v>
+        <v>5911</v>
       </c>
       <c r="Y9" t="n">
-        <v>5636</v>
+        <v>5627</v>
       </c>
       <c r="Z9" t="n">
-        <v>5419</v>
+        <v>5410</v>
       </c>
       <c r="AA9" t="n">
-        <v>5076</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="10">
@@ -1245,76 +1245,76 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>4779</v>
+        <v>4826</v>
       </c>
       <c r="E10" t="n">
-        <v>4554</v>
+        <v>4608</v>
       </c>
       <c r="F10" t="n">
-        <v>4462</v>
+        <v>4506</v>
       </c>
       <c r="G10" t="n">
-        <v>4454</v>
+        <v>4498</v>
       </c>
       <c r="H10" t="n">
-        <v>4434</v>
+        <v>4473</v>
       </c>
       <c r="I10" t="n">
-        <v>4593</v>
+        <v>4611</v>
       </c>
       <c r="J10" t="n">
-        <v>5050</v>
+        <v>5033</v>
       </c>
       <c r="K10" t="n">
-        <v>5548</v>
+        <v>5490</v>
       </c>
       <c r="L10" t="n">
-        <v>5971</v>
+        <v>5863</v>
       </c>
       <c r="M10" t="n">
-        <v>6139</v>
+        <v>6004</v>
       </c>
       <c r="N10" t="n">
-        <v>6089</v>
+        <v>5962</v>
       </c>
       <c r="O10" t="n">
-        <v>6013</v>
+        <v>5894</v>
       </c>
       <c r="P10" t="n">
-        <v>5940</v>
+        <v>5828</v>
       </c>
       <c r="Q10" t="n">
-        <v>5893</v>
+        <v>5787</v>
       </c>
       <c r="R10" t="n">
-        <v>5830</v>
+        <v>5726</v>
       </c>
       <c r="S10" t="n">
-        <v>5828</v>
+        <v>5716</v>
       </c>
       <c r="T10" t="n">
-        <v>5839</v>
+        <v>5736</v>
       </c>
       <c r="U10" t="n">
-        <v>5877</v>
+        <v>5868</v>
       </c>
       <c r="V10" t="n">
-        <v>5960</v>
+        <v>6146</v>
       </c>
       <c r="W10" t="n">
-        <v>5929</v>
+        <v>6122</v>
       </c>
       <c r="X10" t="n">
-        <v>5707</v>
+        <v>5870</v>
       </c>
       <c r="Y10" t="n">
-        <v>5421</v>
+        <v>5540</v>
       </c>
       <c r="Z10" t="n">
-        <v>5209</v>
+        <v>5288</v>
       </c>
       <c r="AA10" t="n">
-        <v>4874</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="11">
@@ -1328,76 +1328,76 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>4577</v>
+        <v>4586</v>
       </c>
       <c r="E11" t="n">
-        <v>4307</v>
+        <v>4310</v>
       </c>
       <c r="F11" t="n">
-        <v>4196</v>
+        <v>4198</v>
       </c>
       <c r="G11" t="n">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="H11" t="n">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="I11" t="n">
-        <v>4205</v>
+        <v>4202</v>
       </c>
       <c r="J11" t="n">
-        <v>4360</v>
+        <v>4340</v>
       </c>
       <c r="K11" t="n">
-        <v>4721</v>
+        <v>4658</v>
       </c>
       <c r="L11" t="n">
-        <v>5215</v>
+        <v>5094</v>
       </c>
       <c r="M11" t="n">
-        <v>5548</v>
+        <v>5387</v>
       </c>
       <c r="N11" t="n">
-        <v>5633</v>
+        <v>5462</v>
       </c>
       <c r="O11" t="n">
-        <v>5600</v>
+        <v>5435</v>
       </c>
       <c r="P11" t="n">
-        <v>5565</v>
+        <v>5407</v>
       </c>
       <c r="Q11" t="n">
-        <v>5522</v>
+        <v>5371</v>
       </c>
       <c r="R11" t="n">
-        <v>5470</v>
+        <v>5328</v>
       </c>
       <c r="S11" t="n">
-        <v>5452</v>
+        <v>5314</v>
       </c>
       <c r="T11" t="n">
-        <v>5472</v>
+        <v>5383</v>
       </c>
       <c r="U11" t="n">
-        <v>5521</v>
+        <v>5555</v>
       </c>
       <c r="V11" t="n">
-        <v>5567</v>
+        <v>5716</v>
       </c>
       <c r="W11" t="n">
-        <v>5478</v>
+        <v>5612</v>
       </c>
       <c r="X11" t="n">
-        <v>5230</v>
+        <v>5321</v>
       </c>
       <c r="Y11" t="n">
-        <v>4940</v>
+        <v>4981</v>
       </c>
       <c r="Z11" t="n">
-        <v>4811</v>
+        <v>4829</v>
       </c>
       <c r="AA11" t="n">
-        <v>4575</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>4492</v>
+        <v>4400</v>
       </c>
       <c r="E12" t="n">
-        <v>4261</v>
+        <v>4165</v>
       </c>
       <c r="F12" t="n">
-        <v>4155</v>
+        <v>4058</v>
       </c>
       <c r="G12" t="n">
-        <v>4099</v>
+        <v>4000</v>
       </c>
       <c r="H12" t="n">
-        <v>4125</v>
+        <v>4024</v>
       </c>
       <c r="I12" t="n">
-        <v>4158</v>
+        <v>4053</v>
       </c>
       <c r="J12" t="n">
-        <v>4300</v>
+        <v>4180</v>
       </c>
       <c r="K12" t="n">
-        <v>4609</v>
+        <v>4455</v>
       </c>
       <c r="L12" t="n">
-        <v>5042</v>
+        <v>4842</v>
       </c>
       <c r="M12" t="n">
-        <v>5414</v>
+        <v>5174</v>
       </c>
       <c r="N12" t="n">
-        <v>5575</v>
+        <v>5318</v>
       </c>
       <c r="O12" t="n">
-        <v>5597</v>
+        <v>5337</v>
       </c>
       <c r="P12" t="n">
-        <v>5585</v>
+        <v>5331</v>
       </c>
       <c r="Q12" t="n">
-        <v>5546</v>
+        <v>5311</v>
       </c>
       <c r="R12" t="n">
-        <v>5499</v>
+        <v>5286</v>
       </c>
       <c r="S12" t="n">
-        <v>5489</v>
+        <v>5281</v>
       </c>
       <c r="T12" t="n">
-        <v>5545</v>
+        <v>5390</v>
       </c>
       <c r="U12" t="n">
-        <v>5643</v>
+        <v>5583</v>
       </c>
       <c r="V12" t="n">
-        <v>5757</v>
+        <v>5806</v>
       </c>
       <c r="W12" t="n">
-        <v>5699</v>
+        <v>5739</v>
       </c>
       <c r="X12" t="n">
-        <v>5478</v>
+        <v>5484</v>
       </c>
       <c r="Y12" t="n">
-        <v>5191</v>
+        <v>5152</v>
       </c>
       <c r="Z12" t="n">
-        <v>4972</v>
+        <v>4898</v>
       </c>
       <c r="AA12" t="n">
-        <v>4638</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="13">
@@ -1494,76 +1494,159 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>4725</v>
+        <v>4807</v>
       </c>
       <c r="E13" t="n">
-        <v>4473</v>
+        <v>4554</v>
       </c>
       <c r="F13" t="n">
-        <v>4361</v>
+        <v>4470</v>
       </c>
       <c r="G13" t="n">
-        <v>4366</v>
+        <v>4437</v>
       </c>
       <c r="H13" t="n">
-        <v>4389</v>
+        <v>4467</v>
       </c>
       <c r="I13" t="n">
-        <v>4536</v>
+        <v>4620</v>
       </c>
       <c r="J13" t="n">
-        <v>4928</v>
+        <v>5037</v>
       </c>
       <c r="K13" t="n">
-        <v>5405</v>
+        <v>5509</v>
       </c>
       <c r="L13" t="n">
-        <v>5900</v>
+        <v>5930</v>
       </c>
       <c r="M13" t="n">
-        <v>6183</v>
+        <v>6151</v>
       </c>
       <c r="N13" t="n">
+        <v>6163</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6153</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6042</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6012</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5893</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5905</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5881</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6031</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6406</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6408</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6179</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5841</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5517</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5092</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4879</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4778</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4771</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4746</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4894</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5350</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5842</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6243</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6396</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6344</v>
+      </c>
+      <c r="O14" t="n">
         <v>6260</v>
       </c>
-      <c r="O13" t="n">
-        <v>6243</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6202</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6177</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6070</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6036</v>
-      </c>
-      <c r="T13" t="n">
-        <v>5964</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6014</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6160</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6145</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5941</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5644</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>5352</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>4998</v>
+      <c r="P14" t="n">
+        <v>6178</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6128</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6053</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6041</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6068</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6250</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6634</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6608</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6338</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5985</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5715</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5292</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,76 +1245,76 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>4826</v>
+        <v>4867</v>
       </c>
       <c r="E10" t="n">
-        <v>4608</v>
+        <v>4668</v>
       </c>
       <c r="F10" t="n">
-        <v>4506</v>
+        <v>4578</v>
       </c>
       <c r="G10" t="n">
-        <v>4498</v>
+        <v>4573</v>
       </c>
       <c r="H10" t="n">
-        <v>4473</v>
+        <v>4555</v>
       </c>
       <c r="I10" t="n">
-        <v>4611</v>
+        <v>4709</v>
       </c>
       <c r="J10" t="n">
-        <v>5033</v>
+        <v>5165</v>
       </c>
       <c r="K10" t="n">
-        <v>5490</v>
+        <v>5650</v>
       </c>
       <c r="L10" t="n">
-        <v>5863</v>
+        <v>6056</v>
       </c>
       <c r="M10" t="n">
-        <v>6004</v>
+        <v>6211</v>
       </c>
       <c r="N10" t="n">
-        <v>5962</v>
+        <v>6145</v>
       </c>
       <c r="O10" t="n">
-        <v>5894</v>
+        <v>6057</v>
       </c>
       <c r="P10" t="n">
-        <v>5828</v>
+        <v>5958</v>
       </c>
       <c r="Q10" t="n">
-        <v>5787</v>
+        <v>5885</v>
       </c>
       <c r="R10" t="n">
-        <v>5726</v>
+        <v>5779</v>
       </c>
       <c r="S10" t="n">
-        <v>5716</v>
+        <v>5767</v>
       </c>
       <c r="T10" t="n">
-        <v>5736</v>
+        <v>5778</v>
       </c>
       <c r="U10" t="n">
-        <v>5868</v>
+        <v>5913</v>
       </c>
       <c r="V10" t="n">
-        <v>6146</v>
+        <v>6202</v>
       </c>
       <c r="W10" t="n">
-        <v>6122</v>
+        <v>6184</v>
       </c>
       <c r="X10" t="n">
-        <v>5870</v>
+        <v>5938</v>
       </c>
       <c r="Y10" t="n">
-        <v>5540</v>
+        <v>5613</v>
       </c>
       <c r="Z10" t="n">
-        <v>5288</v>
+        <v>5361</v>
       </c>
       <c r="AA10" t="n">
-        <v>4892</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="11">
@@ -1328,76 +1328,76 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>4586</v>
+        <v>4595</v>
       </c>
       <c r="E11" t="n">
-        <v>4310</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="n">
-        <v>4198</v>
+        <v>4266</v>
       </c>
       <c r="G11" t="n">
-        <v>4184</v>
+        <v>4234</v>
       </c>
       <c r="H11" t="n">
-        <v>4177</v>
+        <v>4225</v>
       </c>
       <c r="I11" t="n">
-        <v>4202</v>
+        <v>4259</v>
       </c>
       <c r="J11" t="n">
-        <v>4340</v>
+        <v>4417</v>
       </c>
       <c r="K11" t="n">
-        <v>4658</v>
+        <v>4713</v>
       </c>
       <c r="L11" t="n">
-        <v>5094</v>
+        <v>5238</v>
       </c>
       <c r="M11" t="n">
-        <v>5387</v>
+        <v>5558</v>
       </c>
       <c r="N11" t="n">
-        <v>5462</v>
+        <v>5639</v>
       </c>
       <c r="O11" t="n">
-        <v>5435</v>
+        <v>5588</v>
       </c>
       <c r="P11" t="n">
-        <v>5407</v>
+        <v>5523</v>
       </c>
       <c r="Q11" t="n">
-        <v>5371</v>
+        <v>5468</v>
       </c>
       <c r="R11" t="n">
-        <v>5328</v>
+        <v>5383</v>
       </c>
       <c r="S11" t="n">
-        <v>5314</v>
+        <v>5341</v>
       </c>
       <c r="T11" t="n">
-        <v>5383</v>
+        <v>5400</v>
       </c>
       <c r="U11" t="n">
-        <v>5555</v>
+        <v>5570</v>
       </c>
       <c r="V11" t="n">
-        <v>5716</v>
+        <v>5740</v>
       </c>
       <c r="W11" t="n">
-        <v>5612</v>
+        <v>5668</v>
       </c>
       <c r="X11" t="n">
-        <v>5321</v>
+        <v>5376</v>
       </c>
       <c r="Y11" t="n">
-        <v>4981</v>
+        <v>5006</v>
       </c>
       <c r="Z11" t="n">
-        <v>4829</v>
+        <v>4855</v>
       </c>
       <c r="AA11" t="n">
-        <v>4553</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>4400</v>
+        <v>4320</v>
       </c>
       <c r="E12" t="n">
-        <v>4165</v>
+        <v>4108</v>
       </c>
       <c r="F12" t="n">
-        <v>4058</v>
+        <v>4011</v>
       </c>
       <c r="G12" t="n">
-        <v>4000</v>
+        <v>3960</v>
       </c>
       <c r="H12" t="n">
-        <v>4024</v>
+        <v>3985</v>
       </c>
       <c r="I12" t="n">
-        <v>4053</v>
+        <v>4018</v>
       </c>
       <c r="J12" t="n">
-        <v>4180</v>
+        <v>4158</v>
       </c>
       <c r="K12" t="n">
-        <v>4455</v>
+        <v>4462</v>
       </c>
       <c r="L12" t="n">
-        <v>4842</v>
+        <v>4888</v>
       </c>
       <c r="M12" t="n">
-        <v>5174</v>
+        <v>5254</v>
       </c>
       <c r="N12" t="n">
-        <v>5318</v>
+        <v>5413</v>
       </c>
       <c r="O12" t="n">
-        <v>5337</v>
+        <v>5435</v>
       </c>
       <c r="P12" t="n">
-        <v>5331</v>
+        <v>5414</v>
       </c>
       <c r="Q12" t="n">
-        <v>5311</v>
+        <v>5347</v>
       </c>
       <c r="R12" t="n">
-        <v>5286</v>
+        <v>5263</v>
       </c>
       <c r="S12" t="n">
-        <v>5281</v>
+        <v>5246</v>
       </c>
       <c r="T12" t="n">
-        <v>5390</v>
+        <v>5349</v>
       </c>
       <c r="U12" t="n">
-        <v>5583</v>
+        <v>5531</v>
       </c>
       <c r="V12" t="n">
-        <v>5806</v>
+        <v>5742</v>
       </c>
       <c r="W12" t="n">
-        <v>5739</v>
+        <v>5675</v>
       </c>
       <c r="X12" t="n">
-        <v>5484</v>
+        <v>5418</v>
       </c>
       <c r="Y12" t="n">
-        <v>5152</v>
+        <v>5083</v>
       </c>
       <c r="Z12" t="n">
-        <v>4898</v>
+        <v>4828</v>
       </c>
       <c r="AA12" t="n">
-        <v>4511</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="13">
@@ -1494,76 +1494,76 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>4807</v>
+        <v>4641</v>
       </c>
       <c r="E13" t="n">
-        <v>4554</v>
+        <v>4416</v>
       </c>
       <c r="F13" t="n">
-        <v>4470</v>
+        <v>4340</v>
       </c>
       <c r="G13" t="n">
-        <v>4437</v>
+        <v>4311</v>
       </c>
       <c r="H13" t="n">
-        <v>4467</v>
+        <v>4344</v>
       </c>
       <c r="I13" t="n">
-        <v>4620</v>
+        <v>4506</v>
       </c>
       <c r="J13" t="n">
-        <v>5037</v>
+        <v>4950</v>
       </c>
       <c r="K13" t="n">
-        <v>5509</v>
+        <v>5454</v>
       </c>
       <c r="L13" t="n">
-        <v>5930</v>
+        <v>5919</v>
       </c>
       <c r="M13" t="n">
-        <v>6151</v>
+        <v>6165</v>
       </c>
       <c r="N13" t="n">
-        <v>6163</v>
+        <v>6180</v>
       </c>
       <c r="O13" t="n">
-        <v>6153</v>
+        <v>6159</v>
       </c>
       <c r="P13" t="n">
-        <v>6042</v>
+        <v>6019</v>
       </c>
       <c r="Q13" t="n">
-        <v>6012</v>
+        <v>5983</v>
       </c>
       <c r="R13" t="n">
-        <v>5893</v>
+        <v>5830</v>
       </c>
       <c r="S13" t="n">
-        <v>5905</v>
+        <v>5830</v>
       </c>
       <c r="T13" t="n">
-        <v>5881</v>
+        <v>5785</v>
       </c>
       <c r="U13" t="n">
-        <v>6031</v>
+        <v>5914</v>
       </c>
       <c r="V13" t="n">
-        <v>6406</v>
+        <v>6233</v>
       </c>
       <c r="W13" t="n">
-        <v>6408</v>
+        <v>6230</v>
       </c>
       <c r="X13" t="n">
-        <v>6179</v>
+        <v>5996</v>
       </c>
       <c r="Y13" t="n">
-        <v>5841</v>
+        <v>5660</v>
       </c>
       <c r="Z13" t="n">
-        <v>5517</v>
+        <v>5344</v>
       </c>
       <c r="AA13" t="n">
-        <v>5053</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="14">
@@ -1577,76 +1577,159 @@
         <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>5092</v>
+        <v>4908</v>
       </c>
       <c r="E14" t="n">
-        <v>4879</v>
+        <v>4713</v>
       </c>
       <c r="F14" t="n">
-        <v>4778</v>
+        <v>4625</v>
       </c>
       <c r="G14" t="n">
-        <v>4771</v>
+        <v>4620</v>
       </c>
       <c r="H14" t="n">
-        <v>4746</v>
+        <v>4602</v>
       </c>
       <c r="I14" t="n">
-        <v>4894</v>
+        <v>4769</v>
       </c>
       <c r="J14" t="n">
-        <v>5350</v>
+        <v>5263</v>
       </c>
       <c r="K14" t="n">
-        <v>5842</v>
+        <v>5787</v>
       </c>
       <c r="L14" t="n">
-        <v>6243</v>
+        <v>6226</v>
       </c>
       <c r="M14" t="n">
+        <v>6395</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6326</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6234</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6131</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6056</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5944</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5932</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5946</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6103</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6440</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6421</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6161</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5817</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5550</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4980</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4786</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4697</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4693</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4675</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4842</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5336</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5860</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6300</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6468</v>
+      </c>
+      <c r="N15" t="n">
         <v>6396</v>
       </c>
-      <c r="N14" t="n">
-        <v>6344</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6260</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6178</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>6128</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6053</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6041</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6068</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6250</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6634</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6608</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6338</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5985</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5715</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>5292</v>
+      <c r="O15" t="n">
+        <v>6300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6191</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6112</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5995</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5982</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5996</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6160</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6511</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6492</v>
+      </c>
+      <c r="X15" t="n">
+        <v>6232</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5889</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5623</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5187</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,76 +1328,76 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>4595</v>
+        <v>4678</v>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>4466</v>
       </c>
       <c r="F11" t="n">
-        <v>4266</v>
+        <v>4380</v>
       </c>
       <c r="G11" t="n">
-        <v>4234</v>
+        <v>4350</v>
       </c>
       <c r="H11" t="n">
-        <v>4225</v>
+        <v>4343</v>
       </c>
       <c r="I11" t="n">
-        <v>4259</v>
+        <v>4374</v>
       </c>
       <c r="J11" t="n">
-        <v>4417</v>
+        <v>4522</v>
       </c>
       <c r="K11" t="n">
-        <v>4713</v>
+        <v>4798</v>
       </c>
       <c r="L11" t="n">
-        <v>5238</v>
+        <v>5288</v>
       </c>
       <c r="M11" t="n">
-        <v>5558</v>
+        <v>5586</v>
       </c>
       <c r="N11" t="n">
-        <v>5639</v>
+        <v>5661</v>
       </c>
       <c r="O11" t="n">
-        <v>5588</v>
+        <v>5574</v>
       </c>
       <c r="P11" t="n">
-        <v>5523</v>
+        <v>5463</v>
       </c>
       <c r="Q11" t="n">
-        <v>5468</v>
+        <v>5368</v>
       </c>
       <c r="R11" t="n">
-        <v>5383</v>
+        <v>5223</v>
       </c>
       <c r="S11" t="n">
-        <v>5341</v>
+        <v>5152</v>
       </c>
       <c r="T11" t="n">
-        <v>5400</v>
+        <v>5250</v>
       </c>
       <c r="U11" t="n">
-        <v>5570</v>
+        <v>5533</v>
       </c>
       <c r="V11" t="n">
-        <v>5740</v>
+        <v>5816</v>
       </c>
       <c r="W11" t="n">
-        <v>5668</v>
+        <v>5747</v>
       </c>
       <c r="X11" t="n">
-        <v>5376</v>
+        <v>5472</v>
       </c>
       <c r="Y11" t="n">
-        <v>5006</v>
+        <v>5123</v>
       </c>
       <c r="Z11" t="n">
-        <v>4855</v>
+        <v>4980</v>
       </c>
       <c r="AA11" t="n">
-        <v>4575</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>4320</v>
+        <v>4368</v>
       </c>
       <c r="E12" t="n">
-        <v>4108</v>
+        <v>4225</v>
       </c>
       <c r="F12" t="n">
-        <v>4011</v>
+        <v>4160</v>
       </c>
       <c r="G12" t="n">
-        <v>3960</v>
+        <v>4099</v>
       </c>
       <c r="H12" t="n">
-        <v>3985</v>
+        <v>4079</v>
       </c>
       <c r="I12" t="n">
-        <v>4018</v>
+        <v>4125</v>
       </c>
       <c r="J12" t="n">
-        <v>4158</v>
+        <v>4285</v>
       </c>
       <c r="K12" t="n">
-        <v>4462</v>
+        <v>4630</v>
       </c>
       <c r="L12" t="n">
-        <v>4888</v>
+        <v>5070</v>
       </c>
       <c r="M12" t="n">
-        <v>5254</v>
+        <v>5394</v>
       </c>
       <c r="N12" t="n">
-        <v>5413</v>
+        <v>5451</v>
       </c>
       <c r="O12" t="n">
-        <v>5435</v>
+        <v>5392</v>
       </c>
       <c r="P12" t="n">
-        <v>5414</v>
+        <v>5309</v>
       </c>
       <c r="Q12" t="n">
-        <v>5347</v>
+        <v>5252</v>
       </c>
       <c r="R12" t="n">
-        <v>5263</v>
+        <v>5109</v>
       </c>
       <c r="S12" t="n">
-        <v>5246</v>
+        <v>5061</v>
       </c>
       <c r="T12" t="n">
-        <v>5349</v>
+        <v>5229</v>
       </c>
       <c r="U12" t="n">
-        <v>5531</v>
+        <v>5513</v>
       </c>
       <c r="V12" t="n">
-        <v>5742</v>
+        <v>5865</v>
       </c>
       <c r="W12" t="n">
-        <v>5675</v>
+        <v>5867</v>
       </c>
       <c r="X12" t="n">
-        <v>5418</v>
+        <v>5677</v>
       </c>
       <c r="Y12" t="n">
-        <v>5083</v>
+        <v>5389</v>
       </c>
       <c r="Z12" t="n">
-        <v>4828</v>
+        <v>5161</v>
       </c>
       <c r="AA12" t="n">
-        <v>4439</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="13">
@@ -1494,76 +1494,76 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>4641</v>
+        <v>4501</v>
       </c>
       <c r="E13" t="n">
-        <v>4416</v>
+        <v>4303</v>
       </c>
       <c r="F13" t="n">
-        <v>4340</v>
+        <v>4255</v>
       </c>
       <c r="G13" t="n">
-        <v>4311</v>
+        <v>4203</v>
       </c>
       <c r="H13" t="n">
-        <v>4344</v>
+        <v>4246</v>
       </c>
       <c r="I13" t="n">
-        <v>4506</v>
+        <v>4427</v>
       </c>
       <c r="J13" t="n">
-        <v>4950</v>
+        <v>4935</v>
       </c>
       <c r="K13" t="n">
-        <v>5454</v>
+        <v>5476</v>
       </c>
       <c r="L13" t="n">
         <v>5919</v>
       </c>
       <c r="M13" t="n">
-        <v>6165</v>
+        <v>6130</v>
       </c>
       <c r="N13" t="n">
-        <v>6180</v>
+        <v>5894</v>
       </c>
       <c r="O13" t="n">
-        <v>6159</v>
+        <v>5900</v>
       </c>
       <c r="P13" t="n">
-        <v>6019</v>
+        <v>5558</v>
       </c>
       <c r="Q13" t="n">
-        <v>5983</v>
+        <v>5555</v>
       </c>
       <c r="R13" t="n">
-        <v>5830</v>
+        <v>5538</v>
       </c>
       <c r="S13" t="n">
-        <v>5830</v>
+        <v>5602</v>
       </c>
       <c r="T13" t="n">
-        <v>5785</v>
+        <v>5677</v>
       </c>
       <c r="U13" t="n">
-        <v>5914</v>
+        <v>5866</v>
       </c>
       <c r="V13" t="n">
-        <v>6233</v>
+        <v>6267</v>
       </c>
       <c r="W13" t="n">
-        <v>6230</v>
+        <v>6285</v>
       </c>
       <c r="X13" t="n">
-        <v>5996</v>
+        <v>6099</v>
       </c>
       <c r="Y13" t="n">
-        <v>5660</v>
+        <v>5835</v>
       </c>
       <c r="Z13" t="n">
-        <v>5344</v>
+        <v>5602</v>
       </c>
       <c r="AA13" t="n">
-        <v>4892</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="14">
@@ -1577,76 +1577,76 @@
         <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>4908</v>
+        <v>4766</v>
       </c>
       <c r="E14" t="n">
-        <v>4713</v>
+        <v>4572</v>
       </c>
       <c r="F14" t="n">
-        <v>4625</v>
+        <v>4491</v>
       </c>
       <c r="G14" t="n">
-        <v>4620</v>
+        <v>4489</v>
       </c>
       <c r="H14" t="n">
-        <v>4602</v>
+        <v>4494</v>
       </c>
       <c r="I14" t="n">
-        <v>4769</v>
+        <v>4662</v>
       </c>
       <c r="J14" t="n">
-        <v>5263</v>
+        <v>5188</v>
       </c>
       <c r="K14" t="n">
-        <v>5787</v>
+        <v>5755</v>
       </c>
       <c r="L14" t="n">
-        <v>6226</v>
+        <v>6203</v>
       </c>
       <c r="M14" t="n">
-        <v>6395</v>
+        <v>6343</v>
       </c>
       <c r="N14" t="n">
-        <v>6326</v>
+        <v>6233</v>
       </c>
       <c r="O14" t="n">
-        <v>6234</v>
+        <v>6099</v>
       </c>
       <c r="P14" t="n">
-        <v>6131</v>
+        <v>5957</v>
       </c>
       <c r="Q14" t="n">
-        <v>6056</v>
+        <v>5837</v>
       </c>
       <c r="R14" t="n">
-        <v>5944</v>
+        <v>5696</v>
       </c>
       <c r="S14" t="n">
-        <v>5932</v>
+        <v>5683</v>
       </c>
       <c r="T14" t="n">
-        <v>5946</v>
+        <v>5708</v>
       </c>
       <c r="U14" t="n">
-        <v>6103</v>
+        <v>5957</v>
       </c>
       <c r="V14" t="n">
-        <v>6440</v>
+        <v>6492</v>
       </c>
       <c r="W14" t="n">
-        <v>6421</v>
+        <v>6488</v>
       </c>
       <c r="X14" t="n">
-        <v>6161</v>
+        <v>6285</v>
       </c>
       <c r="Y14" t="n">
-        <v>5817</v>
+        <v>6015</v>
       </c>
       <c r="Z14" t="n">
-        <v>5550</v>
+        <v>5781</v>
       </c>
       <c r="AA14" t="n">
-        <v>5112</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,159 @@
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>4980</v>
+        <v>4958</v>
       </c>
       <c r="E15" t="n">
-        <v>4786</v>
+        <v>4763</v>
       </c>
       <c r="F15" t="n">
-        <v>4697</v>
+        <v>4681</v>
       </c>
       <c r="G15" t="n">
-        <v>4693</v>
+        <v>4679</v>
       </c>
       <c r="H15" t="n">
-        <v>4675</v>
+        <v>4684</v>
       </c>
       <c r="I15" t="n">
-        <v>4842</v>
+        <v>4853</v>
       </c>
       <c r="J15" t="n">
-        <v>5336</v>
+        <v>5380</v>
       </c>
       <c r="K15" t="n">
-        <v>5860</v>
+        <v>5948</v>
       </c>
       <c r="L15" t="n">
-        <v>6300</v>
+        <v>6397</v>
       </c>
       <c r="M15" t="n">
+        <v>6538</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6417</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6271</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6115</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5985</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5830</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5816</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5843</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6109</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6680</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6676</v>
+      </c>
+      <c r="X15" t="n">
+        <v>6476</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6209</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5977</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4950</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4755</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4673</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4672</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4677</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4845</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5372</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5940</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6389</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6531</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6410</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6264</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6109</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5979</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5825</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5811</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5838</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6103</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6673</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6669</v>
+      </c>
+      <c r="X16" t="n">
         <v>6468</v>
       </c>
-      <c r="N15" t="n">
-        <v>6396</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6300</v>
-      </c>
-      <c r="P15" t="n">
-        <v>6191</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6112</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5995</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5982</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5996</v>
-      </c>
-      <c r="U15" t="n">
-        <v>6160</v>
-      </c>
-      <c r="V15" t="n">
-        <v>6511</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6492</v>
-      </c>
-      <c r="X15" t="n">
-        <v>6232</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>5889</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>5623</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>5187</v>
+      <c r="Y16" t="n">
+        <v>6201</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5969</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5607</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,76 +1411,76 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>4368</v>
+        <v>4410</v>
       </c>
       <c r="E12" t="n">
-        <v>4225</v>
+        <v>4259</v>
       </c>
       <c r="F12" t="n">
-        <v>4160</v>
+        <v>4191</v>
       </c>
       <c r="G12" t="n">
-        <v>4099</v>
+        <v>4127</v>
       </c>
       <c r="H12" t="n">
-        <v>4079</v>
+        <v>4105</v>
       </c>
       <c r="I12" t="n">
-        <v>4125</v>
+        <v>4149</v>
       </c>
       <c r="J12" t="n">
-        <v>4285</v>
+        <v>4302</v>
       </c>
       <c r="K12" t="n">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="L12" t="n">
-        <v>5070</v>
+        <v>5050</v>
       </c>
       <c r="M12" t="n">
-        <v>5394</v>
+        <v>5358</v>
       </c>
       <c r="N12" t="n">
-        <v>5451</v>
+        <v>5413</v>
       </c>
       <c r="O12" t="n">
-        <v>5392</v>
+        <v>5366</v>
       </c>
       <c r="P12" t="n">
-        <v>5309</v>
+        <v>5299</v>
       </c>
       <c r="Q12" t="n">
-        <v>5252</v>
+        <v>5254</v>
       </c>
       <c r="R12" t="n">
-        <v>5109</v>
+        <v>5139</v>
       </c>
       <c r="S12" t="n">
-        <v>5061</v>
+        <v>5100</v>
       </c>
       <c r="T12" t="n">
-        <v>5229</v>
+        <v>5263</v>
       </c>
       <c r="U12" t="n">
-        <v>5513</v>
+        <v>5539</v>
       </c>
       <c r="V12" t="n">
-        <v>5865</v>
+        <v>5880</v>
       </c>
       <c r="W12" t="n">
-        <v>5867</v>
+        <v>5882</v>
       </c>
       <c r="X12" t="n">
-        <v>5677</v>
+        <v>5690</v>
       </c>
       <c r="Y12" t="n">
-        <v>5389</v>
+        <v>5400</v>
       </c>
       <c r="Z12" t="n">
-        <v>5161</v>
+        <v>5170</v>
       </c>
       <c r="AA12" t="n">
-        <v>4836</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="13">
@@ -1494,76 +1494,76 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>4501</v>
+        <v>4503</v>
       </c>
       <c r="E13" t="n">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="F13" t="n">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="G13" t="n">
-        <v>4203</v>
+        <v>4200</v>
       </c>
       <c r="H13" t="n">
-        <v>4246</v>
+        <v>4242</v>
       </c>
       <c r="I13" t="n">
-        <v>4427</v>
+        <v>4423</v>
       </c>
       <c r="J13" t="n">
-        <v>4935</v>
+        <v>4930</v>
       </c>
       <c r="K13" t="n">
-        <v>5476</v>
+        <v>5469</v>
       </c>
       <c r="L13" t="n">
-        <v>5919</v>
+        <v>5911</v>
       </c>
       <c r="M13" t="n">
-        <v>6130</v>
+        <v>6122</v>
       </c>
       <c r="N13" t="n">
-        <v>5894</v>
+        <v>5905</v>
       </c>
       <c r="O13" t="n">
-        <v>5900</v>
+        <v>5911</v>
       </c>
       <c r="P13" t="n">
-        <v>5558</v>
+        <v>5596</v>
       </c>
       <c r="Q13" t="n">
-        <v>5555</v>
+        <v>5593</v>
       </c>
       <c r="R13" t="n">
-        <v>5538</v>
+        <v>5577</v>
       </c>
       <c r="S13" t="n">
-        <v>5602</v>
+        <v>5639</v>
       </c>
       <c r="T13" t="n">
-        <v>5677</v>
+        <v>5712</v>
       </c>
       <c r="U13" t="n">
-        <v>5866</v>
+        <v>5895</v>
       </c>
       <c r="V13" t="n">
-        <v>6267</v>
+        <v>6282</v>
       </c>
       <c r="W13" t="n">
-        <v>6285</v>
+        <v>6300</v>
       </c>
       <c r="X13" t="n">
-        <v>6099</v>
+        <v>6112</v>
       </c>
       <c r="Y13" t="n">
-        <v>5835</v>
+        <v>5846</v>
       </c>
       <c r="Z13" t="n">
-        <v>5602</v>
+        <v>5612</v>
       </c>
       <c r="AA13" t="n">
-        <v>5197</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="14">
@@ -1577,76 +1577,76 @@
         <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>4766</v>
+        <v>4768</v>
       </c>
       <c r="E14" t="n">
-        <v>4572</v>
+        <v>4571</v>
       </c>
       <c r="F14" t="n">
+        <v>4487</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4485</v>
+      </c>
+      <c r="H14" t="n">
         <v>4491</v>
       </c>
-      <c r="G14" t="n">
-        <v>4489</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4494</v>
-      </c>
       <c r="I14" t="n">
-        <v>4662</v>
+        <v>4657</v>
       </c>
       <c r="J14" t="n">
-        <v>5188</v>
+        <v>5179</v>
       </c>
       <c r="K14" t="n">
-        <v>5755</v>
+        <v>5739</v>
       </c>
       <c r="L14" t="n">
-        <v>6203</v>
+        <v>6187</v>
       </c>
       <c r="M14" t="n">
-        <v>6343</v>
+        <v>6335</v>
       </c>
       <c r="N14" t="n">
-        <v>6233</v>
+        <v>6226</v>
       </c>
       <c r="O14" t="n">
-        <v>6099</v>
+        <v>6093</v>
       </c>
       <c r="P14" t="n">
-        <v>5957</v>
+        <v>5961</v>
       </c>
       <c r="Q14" t="n">
-        <v>5837</v>
+        <v>5857</v>
       </c>
       <c r="R14" t="n">
-        <v>5696</v>
+        <v>5731</v>
       </c>
       <c r="S14" t="n">
-        <v>5683</v>
+        <v>5723</v>
       </c>
       <c r="T14" t="n">
-        <v>5708</v>
+        <v>5752</v>
       </c>
       <c r="U14" t="n">
-        <v>5957</v>
+        <v>5988</v>
       </c>
       <c r="V14" t="n">
-        <v>6492</v>
+        <v>6506</v>
       </c>
       <c r="W14" t="n">
-        <v>6488</v>
+        <v>6504</v>
       </c>
       <c r="X14" t="n">
-        <v>6285</v>
+        <v>6296</v>
       </c>
       <c r="Y14" t="n">
-        <v>6015</v>
+        <v>6024</v>
       </c>
       <c r="Z14" t="n">
-        <v>5781</v>
+        <v>5786</v>
       </c>
       <c r="AA14" t="n">
-        <v>5415</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="E15" t="n">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="F15" t="n">
-        <v>4681</v>
+        <v>4678</v>
       </c>
       <c r="G15" t="n">
-        <v>4679</v>
+        <v>4676</v>
       </c>
       <c r="H15" t="n">
-        <v>4684</v>
+        <v>4682</v>
       </c>
       <c r="I15" t="n">
-        <v>4853</v>
+        <v>4848</v>
       </c>
       <c r="J15" t="n">
-        <v>5380</v>
+        <v>5371</v>
       </c>
       <c r="K15" t="n">
-        <v>5948</v>
+        <v>5933</v>
       </c>
       <c r="L15" t="n">
-        <v>6397</v>
+        <v>6382</v>
       </c>
       <c r="M15" t="n">
-        <v>6538</v>
+        <v>6530</v>
       </c>
       <c r="N15" t="n">
-        <v>6417</v>
+        <v>6410</v>
       </c>
       <c r="O15" t="n">
-        <v>6271</v>
+        <v>6264</v>
       </c>
       <c r="P15" t="n">
-        <v>6115</v>
+        <v>6118</v>
       </c>
       <c r="Q15" t="n">
-        <v>5985</v>
+        <v>6004</v>
       </c>
       <c r="R15" t="n">
-        <v>5830</v>
+        <v>5865</v>
       </c>
       <c r="S15" t="n">
-        <v>5816</v>
+        <v>5856</v>
       </c>
       <c r="T15" t="n">
-        <v>5843</v>
+        <v>5888</v>
       </c>
       <c r="U15" t="n">
-        <v>6109</v>
+        <v>6139</v>
       </c>
       <c r="V15" t="n">
-        <v>6680</v>
+        <v>6695</v>
       </c>
       <c r="W15" t="n">
-        <v>6676</v>
+        <v>6693</v>
       </c>
       <c r="X15" t="n">
-        <v>6476</v>
+        <v>6487</v>
       </c>
       <c r="Y15" t="n">
-        <v>6209</v>
+        <v>6218</v>
       </c>
       <c r="Z15" t="n">
-        <v>5977</v>
+        <v>5982</v>
       </c>
       <c r="AA15" t="n">
-        <v>5615</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,159 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>4950</v>
+        <v>4953</v>
       </c>
       <c r="E16" t="n">
         <v>4755</v>
       </c>
       <c r="F16" t="n">
-        <v>4673</v>
+        <v>4670</v>
       </c>
       <c r="G16" t="n">
-        <v>4672</v>
+        <v>4668</v>
       </c>
       <c r="H16" t="n">
-        <v>4677</v>
+        <v>4674</v>
       </c>
       <c r="I16" t="n">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="J16" t="n">
-        <v>5372</v>
+        <v>5364</v>
       </c>
       <c r="K16" t="n">
-        <v>5940</v>
+        <v>5925</v>
       </c>
       <c r="L16" t="n">
-        <v>6389</v>
+        <v>6374</v>
       </c>
       <c r="M16" t="n">
-        <v>6531</v>
+        <v>6522</v>
       </c>
       <c r="N16" t="n">
-        <v>6410</v>
+        <v>6403</v>
       </c>
       <c r="O16" t="n">
-        <v>6264</v>
+        <v>6257</v>
       </c>
       <c r="P16" t="n">
-        <v>6109</v>
+        <v>6112</v>
       </c>
       <c r="Q16" t="n">
-        <v>5979</v>
+        <v>5998</v>
       </c>
       <c r="R16" t="n">
-        <v>5825</v>
+        <v>5859</v>
       </c>
       <c r="S16" t="n">
-        <v>5811</v>
+        <v>5850</v>
       </c>
       <c r="T16" t="n">
-        <v>5838</v>
+        <v>5882</v>
       </c>
       <c r="U16" t="n">
-        <v>6103</v>
+        <v>6133</v>
       </c>
       <c r="V16" t="n">
-        <v>6673</v>
+        <v>6687</v>
       </c>
       <c r="W16" t="n">
-        <v>6669</v>
+        <v>6685</v>
       </c>
       <c r="X16" t="n">
-        <v>6468</v>
+        <v>6479</v>
       </c>
       <c r="Y16" t="n">
-        <v>6201</v>
+        <v>6210</v>
       </c>
       <c r="Z16" t="n">
-        <v>5969</v>
+        <v>5974</v>
       </c>
       <c r="AA16" t="n">
-        <v>5607</v>
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4504</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4420</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4418</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4424</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4589</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5111</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5670</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6118</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6266</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6161</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6032</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5905</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5805</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5683</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5675</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5701</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5906</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6359</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6357</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6154</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5890</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5658</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5303</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,76 +1494,76 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>4503</v>
+        <v>4492</v>
       </c>
       <c r="E13" t="n">
-        <v>4301</v>
+        <v>4268</v>
       </c>
       <c r="F13" t="n">
-        <v>4253</v>
+        <v>4215</v>
       </c>
       <c r="G13" t="n">
-        <v>4200</v>
+        <v>4156</v>
       </c>
       <c r="H13" t="n">
-        <v>4242</v>
+        <v>4189</v>
       </c>
       <c r="I13" t="n">
-        <v>4423</v>
+        <v>4332</v>
       </c>
       <c r="J13" t="n">
-        <v>4930</v>
+        <v>4732</v>
       </c>
       <c r="K13" t="n">
-        <v>5469</v>
+        <v>5158</v>
       </c>
       <c r="L13" t="n">
-        <v>5911</v>
+        <v>5507</v>
       </c>
       <c r="M13" t="n">
-        <v>6122</v>
+        <v>5674</v>
       </c>
       <c r="N13" t="n">
-        <v>5905</v>
+        <v>5505</v>
       </c>
       <c r="O13" t="n">
-        <v>5911</v>
+        <v>5510</v>
       </c>
       <c r="P13" t="n">
-        <v>5596</v>
+        <v>5265</v>
       </c>
       <c r="Q13" t="n">
-        <v>5593</v>
+        <v>5263</v>
       </c>
       <c r="R13" t="n">
-        <v>5577</v>
+        <v>5251</v>
       </c>
       <c r="S13" t="n">
-        <v>5639</v>
+        <v>5319</v>
       </c>
       <c r="T13" t="n">
-        <v>5712</v>
+        <v>5398</v>
       </c>
       <c r="U13" t="n">
-        <v>5895</v>
+        <v>5597</v>
       </c>
       <c r="V13" t="n">
-        <v>6282</v>
+        <v>6020</v>
       </c>
       <c r="W13" t="n">
-        <v>6300</v>
+        <v>6039</v>
       </c>
       <c r="X13" t="n">
-        <v>6112</v>
+        <v>5887</v>
       </c>
       <c r="Y13" t="n">
-        <v>5846</v>
+        <v>5670</v>
       </c>
       <c r="Z13" t="n">
-        <v>5612</v>
+        <v>5480</v>
       </c>
       <c r="AA13" t="n">
-        <v>5204</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="14">
@@ -1577,76 +1577,76 @@
         <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>4768</v>
+        <v>4821</v>
       </c>
       <c r="E14" t="n">
-        <v>4571</v>
+        <v>4606</v>
       </c>
       <c r="F14" t="n">
-        <v>4487</v>
+        <v>4511</v>
       </c>
       <c r="G14" t="n">
-        <v>4485</v>
+        <v>4504</v>
       </c>
       <c r="H14" t="n">
-        <v>4491</v>
+        <v>4513</v>
       </c>
       <c r="I14" t="n">
-        <v>4657</v>
+        <v>4647</v>
       </c>
       <c r="J14" t="n">
-        <v>5179</v>
+        <v>5054</v>
       </c>
       <c r="K14" t="n">
+        <v>5505</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5854</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5951</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5849</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5756</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5643</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5560</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5444</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5440</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5477</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5740</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6322</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6328</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6141</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5920</v>
+      </c>
+      <c r="Z14" t="n">
         <v>5739</v>
       </c>
-      <c r="L14" t="n">
-        <v>6187</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6335</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6226</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6093</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5961</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5857</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5731</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5723</v>
-      </c>
-      <c r="T14" t="n">
-        <v>5752</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5988</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6506</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6504</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6296</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>6024</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5786</v>
-      </c>
       <c r="AA14" t="n">
-        <v>5422</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>4960</v>
+        <v>4971</v>
       </c>
       <c r="E15" t="n">
-        <v>4762</v>
+        <v>4756</v>
       </c>
       <c r="F15" t="n">
-        <v>4678</v>
+        <v>4660</v>
       </c>
       <c r="G15" t="n">
-        <v>4676</v>
+        <v>4653</v>
       </c>
       <c r="H15" t="n">
-        <v>4682</v>
+        <v>4662</v>
       </c>
       <c r="I15" t="n">
-        <v>4848</v>
+        <v>4796</v>
       </c>
       <c r="J15" t="n">
-        <v>5371</v>
+        <v>5205</v>
       </c>
       <c r="K15" t="n">
-        <v>5933</v>
+        <v>5657</v>
       </c>
       <c r="L15" t="n">
-        <v>6382</v>
+        <v>6007</v>
       </c>
       <c r="M15" t="n">
-        <v>6530</v>
+        <v>6104</v>
       </c>
       <c r="N15" t="n">
-        <v>6410</v>
+        <v>5992</v>
       </c>
       <c r="O15" t="n">
-        <v>6264</v>
+        <v>5890</v>
       </c>
       <c r="P15" t="n">
-        <v>6118</v>
+        <v>5767</v>
       </c>
       <c r="Q15" t="n">
-        <v>6004</v>
+        <v>5676</v>
       </c>
       <c r="R15" t="n">
-        <v>5865</v>
+        <v>5549</v>
       </c>
       <c r="S15" t="n">
-        <v>5856</v>
+        <v>5545</v>
       </c>
       <c r="T15" t="n">
-        <v>5888</v>
+        <v>5584</v>
       </c>
       <c r="U15" t="n">
-        <v>6139</v>
+        <v>5862</v>
       </c>
       <c r="V15" t="n">
-        <v>6695</v>
+        <v>6481</v>
       </c>
       <c r="W15" t="n">
-        <v>6693</v>
+        <v>6487</v>
       </c>
       <c r="X15" t="n">
-        <v>6487</v>
+        <v>6300</v>
       </c>
       <c r="Y15" t="n">
-        <v>6218</v>
+        <v>6078</v>
       </c>
       <c r="Z15" t="n">
-        <v>5982</v>
+        <v>5896</v>
       </c>
       <c r="AA15" t="n">
-        <v>5622</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>4953</v>
+        <v>4968</v>
       </c>
       <c r="E16" t="n">
-        <v>4755</v>
+        <v>4752</v>
       </c>
       <c r="F16" t="n">
-        <v>4670</v>
+        <v>4656</v>
       </c>
       <c r="G16" t="n">
-        <v>4668</v>
+        <v>4650</v>
       </c>
       <c r="H16" t="n">
-        <v>4674</v>
+        <v>4658</v>
       </c>
       <c r="I16" t="n">
-        <v>4840</v>
+        <v>4792</v>
       </c>
       <c r="J16" t="n">
-        <v>5364</v>
+        <v>5201</v>
       </c>
       <c r="K16" t="n">
-        <v>5925</v>
+        <v>5653</v>
       </c>
       <c r="L16" t="n">
-        <v>6374</v>
+        <v>6003</v>
       </c>
       <c r="M16" t="n">
-        <v>6522</v>
+        <v>6100</v>
       </c>
       <c r="N16" t="n">
-        <v>6403</v>
+        <v>5988</v>
       </c>
       <c r="O16" t="n">
-        <v>6257</v>
+        <v>5887</v>
       </c>
       <c r="P16" t="n">
-        <v>6112</v>
+        <v>5763</v>
       </c>
       <c r="Q16" t="n">
-        <v>5998</v>
+        <v>5673</v>
       </c>
       <c r="R16" t="n">
+        <v>5546</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5542</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5581</v>
+      </c>
+      <c r="U16" t="n">
         <v>5859</v>
       </c>
-      <c r="S16" t="n">
-        <v>5850</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5882</v>
-      </c>
-      <c r="U16" t="n">
-        <v>6133</v>
-      </c>
       <c r="V16" t="n">
-        <v>6687</v>
+        <v>6476</v>
       </c>
       <c r="W16" t="n">
-        <v>6685</v>
+        <v>6483</v>
       </c>
       <c r="X16" t="n">
-        <v>6479</v>
+        <v>6296</v>
       </c>
       <c r="Y16" t="n">
-        <v>6210</v>
+        <v>6074</v>
       </c>
       <c r="Z16" t="n">
-        <v>5974</v>
+        <v>5892</v>
       </c>
       <c r="AA16" t="n">
-        <v>5614</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,159 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>4700</v>
+        <v>4756</v>
       </c>
       <c r="E17" t="n">
-        <v>4504</v>
+        <v>4541</v>
       </c>
       <c r="F17" t="n">
-        <v>4420</v>
+        <v>4446</v>
       </c>
       <c r="G17" t="n">
-        <v>4418</v>
+        <v>4439</v>
       </c>
       <c r="H17" t="n">
-        <v>4424</v>
+        <v>4448</v>
       </c>
       <c r="I17" t="n">
-        <v>4589</v>
+        <v>4581</v>
       </c>
       <c r="J17" t="n">
-        <v>5111</v>
+        <v>4989</v>
       </c>
       <c r="K17" t="n">
-        <v>5670</v>
+        <v>5439</v>
       </c>
       <c r="L17" t="n">
-        <v>6118</v>
+        <v>5788</v>
       </c>
       <c r="M17" t="n">
-        <v>6266</v>
+        <v>5885</v>
       </c>
       <c r="N17" t="n">
-        <v>6161</v>
+        <v>5787</v>
       </c>
       <c r="O17" t="n">
-        <v>6032</v>
+        <v>5698</v>
       </c>
       <c r="P17" t="n">
-        <v>5905</v>
+        <v>5589</v>
       </c>
       <c r="Q17" t="n">
-        <v>5805</v>
+        <v>5510</v>
       </c>
       <c r="R17" t="n">
-        <v>5683</v>
+        <v>5399</v>
       </c>
       <c r="S17" t="n">
+        <v>5395</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5427</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5659</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6173</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6179</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5999</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5786</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5611</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4949</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4750</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4652</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4612</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4579</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4659</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4827</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5228</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5721</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5717</v>
+      </c>
+      <c r="N18" t="n">
         <v>5675</v>
       </c>
-      <c r="T17" t="n">
-        <v>5701</v>
-      </c>
-      <c r="U17" t="n">
-        <v>5906</v>
-      </c>
-      <c r="V17" t="n">
-        <v>6359</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6357</v>
-      </c>
-      <c r="X17" t="n">
-        <v>6154</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>5890</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>5658</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>5303</v>
+      <c r="O18" t="n">
+        <v>5736</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5562</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5403</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5300</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5362</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5585</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5814</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6174</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6106</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5862</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5711</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5567</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5428</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,6 +1981,89 @@
         <v>5428</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5102</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4924</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4843</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4768</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4742</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4782</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4919</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5216</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5593</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5872</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5921</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5857</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5769</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5708</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5554</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5502</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5734</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6126</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6611</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6614</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6452</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>6207</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6014</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1660,76 +1660,76 @@
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>4971</v>
+        <v>4855</v>
       </c>
       <c r="E15" t="n">
-        <v>4756</v>
+        <v>4614</v>
       </c>
       <c r="F15" t="n">
-        <v>4660</v>
+        <v>4523</v>
       </c>
       <c r="G15" t="n">
-        <v>4653</v>
+        <v>4522</v>
       </c>
       <c r="H15" t="n">
-        <v>4662</v>
+        <v>4558</v>
       </c>
       <c r="I15" t="n">
-        <v>4796</v>
+        <v>4697</v>
       </c>
       <c r="J15" t="n">
-        <v>5205</v>
+        <v>5162</v>
       </c>
       <c r="K15" t="n">
-        <v>5657</v>
+        <v>5669</v>
       </c>
       <c r="L15" t="n">
-        <v>6007</v>
+        <v>6071</v>
       </c>
       <c r="M15" t="n">
-        <v>6104</v>
+        <v>6184</v>
       </c>
       <c r="N15" t="n">
-        <v>5992</v>
+        <v>6055</v>
       </c>
       <c r="O15" t="n">
-        <v>5890</v>
+        <v>5956</v>
       </c>
       <c r="P15" t="n">
-        <v>5767</v>
+        <v>5850</v>
       </c>
       <c r="Q15" t="n">
-        <v>5676</v>
+        <v>5770</v>
       </c>
       <c r="R15" t="n">
-        <v>5549</v>
+        <v>5663</v>
       </c>
       <c r="S15" t="n">
-        <v>5545</v>
+        <v>5645</v>
       </c>
       <c r="T15" t="n">
-        <v>5584</v>
+        <v>5662</v>
       </c>
       <c r="U15" t="n">
-        <v>5862</v>
+        <v>5894</v>
       </c>
       <c r="V15" t="n">
-        <v>6481</v>
+        <v>6441</v>
       </c>
       <c r="W15" t="n">
-        <v>6487</v>
+        <v>6470</v>
       </c>
       <c r="X15" t="n">
-        <v>6300</v>
+        <v>6252</v>
       </c>
       <c r="Y15" t="n">
-        <v>6078</v>
+        <v>5977</v>
       </c>
       <c r="Z15" t="n">
-        <v>5896</v>
+        <v>5724</v>
       </c>
       <c r="AA15" t="n">
-        <v>5588</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>4968</v>
+        <v>4990</v>
       </c>
       <c r="E16" t="n">
-        <v>4752</v>
+        <v>4735</v>
       </c>
       <c r="F16" t="n">
-        <v>4656</v>
+        <v>4638</v>
       </c>
       <c r="G16" t="n">
-        <v>4650</v>
+        <v>4637</v>
       </c>
       <c r="H16" t="n">
-        <v>4658</v>
+        <v>4676</v>
       </c>
       <c r="I16" t="n">
-        <v>4792</v>
+        <v>4823</v>
       </c>
       <c r="J16" t="n">
-        <v>5201</v>
+        <v>5316</v>
       </c>
       <c r="K16" t="n">
-        <v>5653</v>
+        <v>5853</v>
       </c>
       <c r="L16" t="n">
-        <v>6003</v>
+        <v>6280</v>
       </c>
       <c r="M16" t="n">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="N16" t="n">
-        <v>5988</v>
+        <v>6288</v>
       </c>
       <c r="O16" t="n">
-        <v>5887</v>
+        <v>6203</v>
       </c>
       <c r="P16" t="n">
-        <v>5763</v>
+        <v>6112</v>
       </c>
       <c r="Q16" t="n">
-        <v>5673</v>
+        <v>6042</v>
       </c>
       <c r="R16" t="n">
-        <v>5546</v>
+        <v>5951</v>
       </c>
       <c r="S16" t="n">
-        <v>5542</v>
+        <v>5935</v>
       </c>
       <c r="T16" t="n">
-        <v>5581</v>
+        <v>5943</v>
       </c>
       <c r="U16" t="n">
-        <v>5859</v>
+        <v>6047</v>
       </c>
       <c r="V16" t="n">
-        <v>6476</v>
+        <v>6292</v>
       </c>
       <c r="W16" t="n">
-        <v>6483</v>
+        <v>6305</v>
       </c>
       <c r="X16" t="n">
-        <v>6296</v>
+        <v>6087</v>
       </c>
       <c r="Y16" t="n">
-        <v>6074</v>
+        <v>5811</v>
       </c>
       <c r="Z16" t="n">
-        <v>5892</v>
+        <v>5558</v>
       </c>
       <c r="AA16" t="n">
-        <v>5584</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>4756</v>
+        <v>4835</v>
       </c>
       <c r="E17" t="n">
-        <v>4541</v>
+        <v>4602</v>
       </c>
       <c r="F17" t="n">
-        <v>4446</v>
+        <v>4514</v>
       </c>
       <c r="G17" t="n">
-        <v>4439</v>
+        <v>4513</v>
       </c>
       <c r="H17" t="n">
-        <v>4448</v>
+        <v>4549</v>
       </c>
       <c r="I17" t="n">
-        <v>4581</v>
+        <v>4682</v>
       </c>
       <c r="J17" t="n">
-        <v>4989</v>
+        <v>5129</v>
       </c>
       <c r="K17" t="n">
-        <v>5439</v>
+        <v>5616</v>
       </c>
       <c r="L17" t="n">
-        <v>5788</v>
+        <v>6002</v>
       </c>
       <c r="M17" t="n">
-        <v>5885</v>
+        <v>6111</v>
       </c>
       <c r="N17" t="n">
-        <v>5787</v>
+        <v>5966</v>
       </c>
       <c r="O17" t="n">
-        <v>5698</v>
+        <v>5855</v>
       </c>
       <c r="P17" t="n">
-        <v>5589</v>
+        <v>5736</v>
       </c>
       <c r="Q17" t="n">
-        <v>5510</v>
+        <v>5646</v>
       </c>
       <c r="R17" t="n">
-        <v>5399</v>
+        <v>5527</v>
       </c>
       <c r="S17" t="n">
-        <v>5395</v>
+        <v>5506</v>
       </c>
       <c r="T17" t="n">
-        <v>5427</v>
+        <v>5520</v>
       </c>
       <c r="U17" t="n">
-        <v>5659</v>
+        <v>5709</v>
       </c>
       <c r="V17" t="n">
-        <v>6173</v>
+        <v>6155</v>
       </c>
       <c r="W17" t="n">
-        <v>6179</v>
+        <v>6178</v>
       </c>
       <c r="X17" t="n">
-        <v>5999</v>
+        <v>5996</v>
       </c>
       <c r="Y17" t="n">
-        <v>5786</v>
+        <v>5766</v>
       </c>
       <c r="Z17" t="n">
-        <v>5611</v>
+        <v>5554</v>
       </c>
       <c r="AA17" t="n">
-        <v>5316</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="18">
@@ -1909,76 +1909,76 @@
         <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>4949</v>
+        <v>4942</v>
       </c>
       <c r="E18" t="n">
-        <v>4750</v>
+        <v>4747</v>
       </c>
       <c r="F18" t="n">
-        <v>4652</v>
+        <v>4659</v>
       </c>
       <c r="G18" t="n">
-        <v>4612</v>
+        <v>4628</v>
       </c>
       <c r="H18" t="n">
-        <v>4579</v>
+        <v>4619</v>
       </c>
       <c r="I18" t="n">
-        <v>4659</v>
+        <v>4675</v>
       </c>
       <c r="J18" t="n">
-        <v>4827</v>
+        <v>4933</v>
       </c>
       <c r="K18" t="n">
-        <v>5228</v>
+        <v>5403</v>
       </c>
       <c r="L18" t="n">
-        <v>5721</v>
+        <v>5984</v>
       </c>
       <c r="M18" t="n">
-        <v>5717</v>
+        <v>6157</v>
       </c>
       <c r="N18" t="n">
-        <v>5675</v>
+        <v>6087</v>
       </c>
       <c r="O18" t="n">
-        <v>5736</v>
+        <v>5930</v>
       </c>
       <c r="P18" t="n">
-        <v>5562</v>
+        <v>5772</v>
       </c>
       <c r="Q18" t="n">
-        <v>5403</v>
+        <v>5669</v>
       </c>
       <c r="R18" t="n">
-        <v>5300</v>
+        <v>5531</v>
       </c>
       <c r="S18" t="n">
-        <v>5362</v>
+        <v>5539</v>
       </c>
       <c r="T18" t="n">
-        <v>5585</v>
+        <v>5693</v>
       </c>
       <c r="U18" t="n">
-        <v>5814</v>
+        <v>6004</v>
       </c>
       <c r="V18" t="n">
-        <v>6174</v>
+        <v>6335</v>
       </c>
       <c r="W18" t="n">
-        <v>6106</v>
+        <v>6272</v>
       </c>
       <c r="X18" t="n">
-        <v>5862</v>
+        <v>6054</v>
       </c>
       <c r="Y18" t="n">
-        <v>5711</v>
+        <v>5827</v>
       </c>
       <c r="Z18" t="n">
-        <v>5567</v>
+        <v>5714</v>
       </c>
       <c r="AA18" t="n">
-        <v>5428</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,159 @@
         <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>5102</v>
+        <v>5039</v>
       </c>
       <c r="E19" t="n">
-        <v>4924</v>
+        <v>4885</v>
       </c>
       <c r="F19" t="n">
-        <v>4843</v>
+        <v>4797</v>
       </c>
       <c r="G19" t="n">
-        <v>4768</v>
+        <v>4741</v>
       </c>
       <c r="H19" t="n">
-        <v>4742</v>
+        <v>4725</v>
       </c>
       <c r="I19" t="n">
-        <v>4782</v>
+        <v>4769</v>
       </c>
       <c r="J19" t="n">
-        <v>4919</v>
+        <v>4932</v>
       </c>
       <c r="K19" t="n">
-        <v>5216</v>
+        <v>5261</v>
       </c>
       <c r="L19" t="n">
-        <v>5593</v>
+        <v>5765</v>
       </c>
       <c r="M19" t="n">
-        <v>5872</v>
+        <v>6154</v>
       </c>
       <c r="N19" t="n">
-        <v>5921</v>
+        <v>6278</v>
       </c>
       <c r="O19" t="n">
-        <v>5857</v>
+        <v>6282</v>
       </c>
       <c r="P19" t="n">
-        <v>5769</v>
+        <v>6166</v>
       </c>
       <c r="Q19" t="n">
-        <v>5708</v>
+        <v>6034</v>
       </c>
       <c r="R19" t="n">
-        <v>5554</v>
+        <v>5803</v>
       </c>
       <c r="S19" t="n">
-        <v>5502</v>
+        <v>5694</v>
       </c>
       <c r="T19" t="n">
-        <v>5734</v>
+        <v>5929</v>
       </c>
       <c r="U19" t="n">
-        <v>6126</v>
+        <v>6256</v>
       </c>
       <c r="V19" t="n">
-        <v>6611</v>
+        <v>6711</v>
       </c>
       <c r="W19" t="n">
-        <v>6614</v>
+        <v>6715</v>
       </c>
       <c r="X19" t="n">
-        <v>6452</v>
+        <v>6536</v>
       </c>
       <c r="Y19" t="n">
-        <v>6207</v>
+        <v>6293</v>
       </c>
       <c r="Z19" t="n">
-        <v>6014</v>
+        <v>6081</v>
       </c>
       <c r="AA19" t="n">
-        <v>5738</v>
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4881</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4682</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4603</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4620</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4658</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4846</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5441</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6034</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6433</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6564</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6384</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6300</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6170</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6086</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5948</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5893</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5984</v>
+      </c>
+      <c r="U20" t="n">
+        <v>6257</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6690</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6719</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6523</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>6290</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>6078</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5718</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2147,6 +2147,89 @@
         <v>5718</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4659</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4476</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4406</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4405</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4447</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4603</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5128</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5700</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6154</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6281</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6142</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6035</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5921</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5835</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5720</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5700</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5715</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5919</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6400</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6425</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6234</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5992</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>5770</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1826,76 +1826,76 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>4835</v>
+        <v>5001</v>
       </c>
       <c r="E17" t="n">
-        <v>4602</v>
+        <v>4813</v>
       </c>
       <c r="F17" t="n">
-        <v>4514</v>
+        <v>4741</v>
       </c>
       <c r="G17" t="n">
-        <v>4513</v>
+        <v>4727</v>
       </c>
       <c r="H17" t="n">
-        <v>4549</v>
+        <v>4770</v>
       </c>
       <c r="I17" t="n">
-        <v>4682</v>
+        <v>4884</v>
       </c>
       <c r="J17" t="n">
-        <v>5129</v>
+        <v>5267</v>
       </c>
       <c r="K17" t="n">
-        <v>5616</v>
+        <v>5685</v>
       </c>
       <c r="L17" t="n">
-        <v>6002</v>
+        <v>6019</v>
       </c>
       <c r="M17" t="n">
-        <v>6111</v>
+        <v>6120</v>
       </c>
       <c r="N17" t="n">
-        <v>5966</v>
+        <v>6044</v>
       </c>
       <c r="O17" t="n">
-        <v>5855</v>
+        <v>5977</v>
       </c>
       <c r="P17" t="n">
-        <v>5736</v>
+        <v>5899</v>
       </c>
       <c r="Q17" t="n">
-        <v>5646</v>
+        <v>5847</v>
       </c>
       <c r="R17" t="n">
-        <v>5527</v>
+        <v>5778</v>
       </c>
       <c r="S17" t="n">
-        <v>5506</v>
+        <v>5768</v>
       </c>
       <c r="T17" t="n">
-        <v>5520</v>
+        <v>5778</v>
       </c>
       <c r="U17" t="n">
-        <v>5709</v>
+        <v>5887</v>
       </c>
       <c r="V17" t="n">
-        <v>6155</v>
+        <v>6143</v>
       </c>
       <c r="W17" t="n">
-        <v>6178</v>
+        <v>6160</v>
       </c>
       <c r="X17" t="n">
-        <v>5996</v>
+        <v>5954</v>
       </c>
       <c r="Y17" t="n">
-        <v>5766</v>
+        <v>5697</v>
       </c>
       <c r="Z17" t="n">
-        <v>5554</v>
+        <v>5472</v>
       </c>
       <c r="AA17" t="n">
-        <v>5230</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="18">
@@ -1909,76 +1909,76 @@
         <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>4942</v>
+        <v>5200</v>
       </c>
       <c r="E18" t="n">
-        <v>4747</v>
+        <v>5012</v>
       </c>
       <c r="F18" t="n">
-        <v>4659</v>
+        <v>4917</v>
       </c>
       <c r="G18" t="n">
-        <v>4628</v>
+        <v>4885</v>
       </c>
       <c r="H18" t="n">
-        <v>4619</v>
+        <v>4873</v>
       </c>
       <c r="I18" t="n">
-        <v>4675</v>
+        <v>4931</v>
       </c>
       <c r="J18" t="n">
-        <v>4933</v>
+        <v>5187</v>
       </c>
       <c r="K18" t="n">
-        <v>5403</v>
+        <v>5645</v>
       </c>
       <c r="L18" t="n">
-        <v>5984</v>
+        <v>6028</v>
       </c>
       <c r="M18" t="n">
-        <v>6157</v>
+        <v>5990</v>
       </c>
       <c r="N18" t="n">
-        <v>6087</v>
+        <v>5872</v>
       </c>
       <c r="O18" t="n">
-        <v>5930</v>
+        <v>5789</v>
       </c>
       <c r="P18" t="n">
-        <v>5772</v>
+        <v>5723</v>
       </c>
       <c r="Q18" t="n">
-        <v>5669</v>
+        <v>5697</v>
       </c>
       <c r="R18" t="n">
-        <v>5531</v>
+        <v>5677</v>
       </c>
       <c r="S18" t="n">
-        <v>5539</v>
+        <v>5731</v>
       </c>
       <c r="T18" t="n">
-        <v>5693</v>
+        <v>5833</v>
       </c>
       <c r="U18" t="n">
-        <v>6004</v>
+        <v>5987</v>
       </c>
       <c r="V18" t="n">
-        <v>6335</v>
+        <v>6162</v>
       </c>
       <c r="W18" t="n">
-        <v>6272</v>
+        <v>6077</v>
       </c>
       <c r="X18" t="n">
-        <v>6054</v>
+        <v>5817</v>
       </c>
       <c r="Y18" t="n">
-        <v>5827</v>
+        <v>5604</v>
       </c>
       <c r="Z18" t="n">
-        <v>5714</v>
+        <v>5469</v>
       </c>
       <c r="AA18" t="n">
-        <v>5512</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>5039</v>
+        <v>5253</v>
       </c>
       <c r="E19" t="n">
-        <v>4885</v>
+        <v>5097</v>
       </c>
       <c r="F19" t="n">
-        <v>4797</v>
+        <v>5008</v>
       </c>
       <c r="G19" t="n">
-        <v>4741</v>
+        <v>4951</v>
       </c>
       <c r="H19" t="n">
-        <v>4725</v>
+        <v>4935</v>
       </c>
       <c r="I19" t="n">
-        <v>4769</v>
+        <v>4968</v>
       </c>
       <c r="J19" t="n">
-        <v>4932</v>
+        <v>5092</v>
       </c>
       <c r="K19" t="n">
-        <v>5261</v>
+        <v>5341</v>
       </c>
       <c r="L19" t="n">
-        <v>5765</v>
+        <v>5722</v>
       </c>
       <c r="M19" t="n">
-        <v>6154</v>
+        <v>6017</v>
       </c>
       <c r="N19" t="n">
-        <v>6278</v>
+        <v>6111</v>
       </c>
       <c r="O19" t="n">
-        <v>6282</v>
+        <v>6114</v>
       </c>
       <c r="P19" t="n">
-        <v>6166</v>
+        <v>6054</v>
       </c>
       <c r="Q19" t="n">
-        <v>6034</v>
+        <v>5986</v>
       </c>
       <c r="R19" t="n">
-        <v>5803</v>
+        <v>5866</v>
       </c>
       <c r="S19" t="n">
-        <v>5694</v>
+        <v>5810</v>
       </c>
       <c r="T19" t="n">
-        <v>5929</v>
+        <v>5967</v>
       </c>
       <c r="U19" t="n">
-        <v>6256</v>
+        <v>6187</v>
       </c>
       <c r="V19" t="n">
-        <v>6711</v>
+        <v>6492</v>
       </c>
       <c r="W19" t="n">
-        <v>6715</v>
+        <v>6495</v>
       </c>
       <c r="X19" t="n">
-        <v>6536</v>
+        <v>6298</v>
       </c>
       <c r="Y19" t="n">
-        <v>6293</v>
+        <v>6029</v>
       </c>
       <c r="Z19" t="n">
-        <v>6081</v>
+        <v>5794</v>
       </c>
       <c r="AA19" t="n">
-        <v>5765</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>4881</v>
+        <v>5074</v>
       </c>
       <c r="E20" t="n">
-        <v>4682</v>
+        <v>4882</v>
       </c>
       <c r="F20" t="n">
-        <v>4603</v>
+        <v>4814</v>
       </c>
       <c r="G20" t="n">
-        <v>4620</v>
+        <v>4791</v>
       </c>
       <c r="H20" t="n">
-        <v>4658</v>
+        <v>4829</v>
       </c>
       <c r="I20" t="n">
-        <v>4846</v>
+        <v>4984</v>
       </c>
       <c r="J20" t="n">
-        <v>5441</v>
+        <v>5440</v>
       </c>
       <c r="K20" t="n">
-        <v>6034</v>
+        <v>5902</v>
       </c>
       <c r="L20" t="n">
-        <v>6433</v>
+        <v>6244</v>
       </c>
       <c r="M20" t="n">
-        <v>6564</v>
+        <v>6374</v>
       </c>
       <c r="N20" t="n">
-        <v>6384</v>
+        <v>6252</v>
       </c>
       <c r="O20" t="n">
-        <v>6300</v>
+        <v>6214</v>
       </c>
       <c r="P20" t="n">
-        <v>6170</v>
+        <v>6122</v>
       </c>
       <c r="Q20" t="n">
-        <v>6086</v>
+        <v>6078</v>
       </c>
       <c r="R20" t="n">
-        <v>5948</v>
+        <v>6006</v>
       </c>
       <c r="S20" t="n">
-        <v>5893</v>
+        <v>5995</v>
       </c>
       <c r="T20" t="n">
-        <v>5984</v>
+        <v>6042</v>
       </c>
       <c r="U20" t="n">
-        <v>6257</v>
+        <v>6180</v>
       </c>
       <c r="V20" t="n">
-        <v>6690</v>
+        <v>6437</v>
       </c>
       <c r="W20" t="n">
-        <v>6719</v>
+        <v>6477</v>
       </c>
       <c r="X20" t="n">
-        <v>6523</v>
+        <v>6269</v>
       </c>
       <c r="Y20" t="n">
-        <v>6290</v>
+        <v>5990</v>
       </c>
       <c r="Z20" t="n">
-        <v>6078</v>
+        <v>5756</v>
       </c>
       <c r="AA20" t="n">
-        <v>5718</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,159 @@
         <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>4659</v>
+        <v>4718</v>
       </c>
       <c r="E21" t="n">
-        <v>4476</v>
+        <v>4542</v>
       </c>
       <c r="F21" t="n">
-        <v>4406</v>
+        <v>4474</v>
       </c>
       <c r="G21" t="n">
-        <v>4405</v>
+        <v>4460</v>
       </c>
       <c r="H21" t="n">
-        <v>4447</v>
+        <v>4506</v>
       </c>
       <c r="I21" t="n">
-        <v>4603</v>
+        <v>4628</v>
       </c>
       <c r="J21" t="n">
-        <v>5128</v>
+        <v>5039</v>
       </c>
       <c r="K21" t="n">
-        <v>5700</v>
+        <v>5488</v>
       </c>
       <c r="L21" t="n">
-        <v>6154</v>
+        <v>5847</v>
       </c>
       <c r="M21" t="n">
-        <v>6281</v>
+        <v>5955</v>
       </c>
       <c r="N21" t="n">
-        <v>6142</v>
+        <v>5902</v>
       </c>
       <c r="O21" t="n">
-        <v>6035</v>
+        <v>5855</v>
       </c>
       <c r="P21" t="n">
-        <v>5921</v>
+        <v>5800</v>
       </c>
       <c r="Q21" t="n">
-        <v>5835</v>
+        <v>5764</v>
       </c>
       <c r="R21" t="n">
-        <v>5720</v>
+        <v>5716</v>
       </c>
       <c r="S21" t="n">
-        <v>5700</v>
+        <v>5709</v>
       </c>
       <c r="T21" t="n">
-        <v>5715</v>
+        <v>5717</v>
       </c>
       <c r="U21" t="n">
-        <v>5919</v>
+        <v>5810</v>
       </c>
       <c r="V21" t="n">
-        <v>6400</v>
+        <v>6027</v>
       </c>
       <c r="W21" t="n">
-        <v>6425</v>
+        <v>6041</v>
       </c>
       <c r="X21" t="n">
-        <v>6234</v>
+        <v>5825</v>
       </c>
       <c r="Y21" t="n">
-        <v>5992</v>
+        <v>5554</v>
       </c>
       <c r="Z21" t="n">
-        <v>5770</v>
+        <v>5318</v>
       </c>
       <c r="AA21" t="n">
-        <v>5429</v>
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4589</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4346</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4332</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4378</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4500</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4910</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5358</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5716</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5825</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5780</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5741</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5696</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5666</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5625</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5619</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5627</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5706</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5893</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5905</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5689</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5419</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>5183</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4814</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1909,76 +1909,76 @@
         <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>5200</v>
+        <v>5150</v>
       </c>
       <c r="E18" t="n">
-        <v>5012</v>
+        <v>5007</v>
       </c>
       <c r="F18" t="n">
-        <v>4917</v>
+        <v>4935</v>
       </c>
       <c r="G18" t="n">
-        <v>4885</v>
+        <v>4911</v>
       </c>
       <c r="H18" t="n">
-        <v>4873</v>
+        <v>4902</v>
       </c>
       <c r="I18" t="n">
-        <v>4931</v>
+        <v>4937</v>
       </c>
       <c r="J18" t="n">
-        <v>5187</v>
+        <v>5095</v>
       </c>
       <c r="K18" t="n">
-        <v>5645</v>
+        <v>5377</v>
       </c>
       <c r="L18" t="n">
-        <v>6028</v>
+        <v>5613</v>
       </c>
       <c r="M18" t="n">
-        <v>5990</v>
+        <v>5595</v>
       </c>
       <c r="N18" t="n">
-        <v>5872</v>
+        <v>5540</v>
       </c>
       <c r="O18" t="n">
-        <v>5789</v>
+        <v>5501</v>
       </c>
       <c r="P18" t="n">
-        <v>5723</v>
+        <v>5469</v>
       </c>
       <c r="Q18" t="n">
-        <v>5697</v>
+        <v>5458</v>
       </c>
       <c r="R18" t="n">
-        <v>5677</v>
+        <v>5448</v>
       </c>
       <c r="S18" t="n">
-        <v>5731</v>
+        <v>5534</v>
       </c>
       <c r="T18" t="n">
-        <v>5833</v>
+        <v>5698</v>
       </c>
       <c r="U18" t="n">
-        <v>5987</v>
+        <v>5946</v>
       </c>
       <c r="V18" t="n">
-        <v>6162</v>
+        <v>6228</v>
       </c>
       <c r="W18" t="n">
-        <v>6077</v>
+        <v>6156</v>
       </c>
       <c r="X18" t="n">
-        <v>5817</v>
+        <v>5937</v>
       </c>
       <c r="Y18" t="n">
-        <v>5604</v>
+        <v>5757</v>
       </c>
       <c r="Z18" t="n">
-        <v>5469</v>
+        <v>5643</v>
       </c>
       <c r="AA18" t="n">
-        <v>5238</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>5253</v>
+        <v>5108</v>
       </c>
       <c r="E19" t="n">
-        <v>5097</v>
+        <v>4992</v>
       </c>
       <c r="F19" t="n">
-        <v>5008</v>
+        <v>4912</v>
       </c>
       <c r="G19" t="n">
+        <v>4876</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4868</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4885</v>
+      </c>
+      <c r="J19" t="n">
         <v>4951</v>
       </c>
-      <c r="H19" t="n">
-        <v>4935</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4968</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5092</v>
-      </c>
       <c r="K19" t="n">
-        <v>5341</v>
+        <v>5074</v>
       </c>
       <c r="L19" t="n">
-        <v>5722</v>
+        <v>5304</v>
       </c>
       <c r="M19" t="n">
-        <v>6017</v>
+        <v>5490</v>
       </c>
       <c r="N19" t="n">
-        <v>6111</v>
+        <v>5570</v>
       </c>
       <c r="O19" t="n">
-        <v>6114</v>
+        <v>5615</v>
       </c>
       <c r="P19" t="n">
-        <v>6054</v>
+        <v>5603</v>
       </c>
       <c r="Q19" t="n">
-        <v>5986</v>
+        <v>5573</v>
       </c>
       <c r="R19" t="n">
-        <v>5866</v>
+        <v>5539</v>
       </c>
       <c r="S19" t="n">
-        <v>5810</v>
+        <v>5515</v>
       </c>
       <c r="T19" t="n">
-        <v>5967</v>
+        <v>5767</v>
       </c>
       <c r="U19" t="n">
-        <v>6187</v>
+        <v>6019</v>
       </c>
       <c r="V19" t="n">
-        <v>6492</v>
+        <v>6454</v>
       </c>
       <c r="W19" t="n">
-        <v>6495</v>
+        <v>6461</v>
       </c>
       <c r="X19" t="n">
-        <v>6298</v>
+        <v>6288</v>
       </c>
       <c r="Y19" t="n">
-        <v>6029</v>
+        <v>6079</v>
       </c>
       <c r="Z19" t="n">
-        <v>5794</v>
+        <v>5875</v>
       </c>
       <c r="AA19" t="n">
-        <v>5445</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>5074</v>
+        <v>4966</v>
       </c>
       <c r="E20" t="n">
-        <v>4882</v>
+        <v>4827</v>
       </c>
       <c r="F20" t="n">
-        <v>4814</v>
+        <v>4778</v>
       </c>
       <c r="G20" t="n">
-        <v>4791</v>
+        <v>4760</v>
       </c>
       <c r="H20" t="n">
-        <v>4829</v>
+        <v>4789</v>
       </c>
       <c r="I20" t="n">
-        <v>4984</v>
+        <v>4901</v>
       </c>
       <c r="J20" t="n">
-        <v>5440</v>
+        <v>5233</v>
       </c>
       <c r="K20" t="n">
-        <v>5902</v>
+        <v>5569</v>
       </c>
       <c r="L20" t="n">
-        <v>6244</v>
+        <v>5818</v>
       </c>
       <c r="M20" t="n">
-        <v>6374</v>
+        <v>5913</v>
       </c>
       <c r="N20" t="n">
-        <v>6252</v>
+        <v>5853</v>
       </c>
       <c r="O20" t="n">
-        <v>6214</v>
+        <v>5834</v>
       </c>
       <c r="P20" t="n">
-        <v>6122</v>
+        <v>5788</v>
       </c>
       <c r="Q20" t="n">
-        <v>6078</v>
+        <v>5767</v>
       </c>
       <c r="R20" t="n">
-        <v>6006</v>
+        <v>5731</v>
       </c>
       <c r="S20" t="n">
-        <v>5995</v>
+        <v>5726</v>
       </c>
       <c r="T20" t="n">
-        <v>6042</v>
+        <v>5801</v>
       </c>
       <c r="U20" t="n">
-        <v>6180</v>
+        <v>6016</v>
       </c>
       <c r="V20" t="n">
-        <v>6437</v>
+        <v>6420</v>
       </c>
       <c r="W20" t="n">
-        <v>6477</v>
+        <v>6482</v>
       </c>
       <c r="X20" t="n">
-        <v>6269</v>
+        <v>6301</v>
       </c>
       <c r="Y20" t="n">
-        <v>5990</v>
+        <v>6059</v>
       </c>
       <c r="Z20" t="n">
-        <v>5756</v>
+        <v>5856</v>
       </c>
       <c r="AA20" t="n">
-        <v>5376</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="21">
@@ -2161,73 +2161,73 @@
         <v>4718</v>
       </c>
       <c r="E21" t="n">
-        <v>4542</v>
+        <v>4597</v>
       </c>
       <c r="F21" t="n">
-        <v>4474</v>
+        <v>4547</v>
       </c>
       <c r="G21" t="n">
-        <v>4460</v>
+        <v>4536</v>
       </c>
       <c r="H21" t="n">
-        <v>4506</v>
+        <v>4575</v>
       </c>
       <c r="I21" t="n">
-        <v>4628</v>
+        <v>4661</v>
       </c>
       <c r="J21" t="n">
-        <v>5039</v>
+        <v>4938</v>
       </c>
       <c r="K21" t="n">
-        <v>5488</v>
+        <v>5256</v>
       </c>
       <c r="L21" t="n">
-        <v>5847</v>
+        <v>5518</v>
       </c>
       <c r="M21" t="n">
-        <v>5955</v>
+        <v>5603</v>
       </c>
       <c r="N21" t="n">
-        <v>5902</v>
+        <v>5585</v>
       </c>
       <c r="O21" t="n">
-        <v>5855</v>
+        <v>5568</v>
       </c>
       <c r="P21" t="n">
-        <v>5800</v>
+        <v>5548</v>
       </c>
       <c r="Q21" t="n">
-        <v>5764</v>
+        <v>5532</v>
       </c>
       <c r="R21" t="n">
-        <v>5716</v>
+        <v>5516</v>
       </c>
       <c r="S21" t="n">
-        <v>5709</v>
+        <v>5514</v>
       </c>
       <c r="T21" t="n">
-        <v>5717</v>
+        <v>5534</v>
       </c>
       <c r="U21" t="n">
-        <v>5810</v>
+        <v>5697</v>
       </c>
       <c r="V21" t="n">
-        <v>6027</v>
+        <v>6119</v>
       </c>
       <c r="W21" t="n">
-        <v>6041</v>
+        <v>6160</v>
       </c>
       <c r="X21" t="n">
-        <v>5825</v>
+        <v>5972</v>
       </c>
       <c r="Y21" t="n">
-        <v>5554</v>
+        <v>5740</v>
       </c>
       <c r="Z21" t="n">
-        <v>5318</v>
+        <v>5535</v>
       </c>
       <c r="AA21" t="n">
-        <v>4948</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="22">
@@ -2241,76 +2241,159 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>4589</v>
+        <v>4679</v>
       </c>
       <c r="E22" t="n">
-        <v>4413</v>
+        <v>4559</v>
       </c>
       <c r="F22" t="n">
-        <v>4346</v>
+        <v>4509</v>
       </c>
       <c r="G22" t="n">
-        <v>4332</v>
+        <v>4498</v>
       </c>
       <c r="H22" t="n">
-        <v>4378</v>
+        <v>4536</v>
       </c>
       <c r="I22" t="n">
-        <v>4500</v>
+        <v>4622</v>
       </c>
       <c r="J22" t="n">
-        <v>4910</v>
+        <v>4899</v>
       </c>
       <c r="K22" t="n">
-        <v>5358</v>
+        <v>5217</v>
       </c>
       <c r="L22" t="n">
-        <v>5716</v>
+        <v>5478</v>
       </c>
       <c r="M22" t="n">
-        <v>5825</v>
+        <v>5564</v>
       </c>
       <c r="N22" t="n">
-        <v>5780</v>
+        <v>5548</v>
       </c>
       <c r="O22" t="n">
-        <v>5741</v>
+        <v>5534</v>
       </c>
       <c r="P22" t="n">
-        <v>5696</v>
+        <v>5517</v>
       </c>
       <c r="Q22" t="n">
+        <v>5503</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5489</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5487</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5507</v>
+      </c>
+      <c r="U22" t="n">
         <v>5666</v>
       </c>
-      <c r="R22" t="n">
-        <v>5625</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5619</v>
-      </c>
-      <c r="T22" t="n">
-        <v>5627</v>
-      </c>
-      <c r="U22" t="n">
-        <v>5706</v>
-      </c>
       <c r="V22" t="n">
-        <v>5893</v>
+        <v>6079</v>
       </c>
       <c r="W22" t="n">
-        <v>5905</v>
+        <v>6119</v>
       </c>
       <c r="X22" t="n">
-        <v>5689</v>
+        <v>5931</v>
       </c>
       <c r="Y22" t="n">
-        <v>5419</v>
+        <v>5699</v>
       </c>
       <c r="Z22" t="n">
-        <v>5183</v>
+        <v>5494</v>
       </c>
       <c r="AA22" t="n">
-        <v>4814</v>
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4626</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4505</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4455</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4445</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4483</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4569</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4846</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5163</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5424</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5509</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5497</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5486</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5473</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5462</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5451</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5450</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5469</v>
+      </c>
+      <c r="U23" t="n">
+        <v>5623</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6024</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6062</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5874</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5643</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5438</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5114</v>
       </c>
     </row>
   </sheetData>

--- a/data/plexos_load_master.xlsx
+++ b/data/plexos_load_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,76 +1992,76 @@
         <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>5108</v>
+        <v>4978</v>
       </c>
       <c r="E19" t="n">
-        <v>4992</v>
+        <v>4801</v>
       </c>
       <c r="F19" t="n">
-        <v>4912</v>
+        <v>4681</v>
       </c>
       <c r="G19" t="n">
-        <v>4876</v>
+        <v>4625</v>
       </c>
       <c r="H19" t="n">
-        <v>4868</v>
+        <v>4614</v>
       </c>
       <c r="I19" t="n">
-        <v>4885</v>
+        <v>4647</v>
       </c>
       <c r="J19" t="n">
-        <v>4951</v>
+        <v>4780</v>
       </c>
       <c r="K19" t="n">
-        <v>5074</v>
+        <v>5025</v>
       </c>
       <c r="L19" t="n">
-        <v>5304</v>
+        <v>5485</v>
       </c>
       <c r="M19" t="n">
-        <v>5490</v>
+        <v>5857</v>
       </c>
       <c r="N19" t="n">
-        <v>5570</v>
+        <v>6018</v>
       </c>
       <c r="O19" t="n">
-        <v>5615</v>
+        <v>6107</v>
       </c>
       <c r="P19" t="n">
-        <v>5603</v>
+        <v>6052</v>
       </c>
       <c r="Q19" t="n">
-        <v>5573</v>
+        <v>5915</v>
       </c>
       <c r="R19" t="n">
-        <v>5539</v>
+        <v>5762</v>
       </c>
       <c r="S19" t="n">
-        <v>5515</v>
+        <v>5650</v>
       </c>
       <c r="T19" t="n">
-        <v>5767</v>
+        <v>5877</v>
       </c>
       <c r="U19" t="n">
-        <v>6019</v>
+        <v>6104</v>
       </c>
       <c r="V19" t="n">
-        <v>6454</v>
+        <v>6495</v>
       </c>
       <c r="W19" t="n">
-        <v>6461</v>
+        <v>6502</v>
       </c>
       <c r="X19" t="n">
-        <v>6288</v>
+        <v>6303</v>
       </c>
       <c r="Y19" t="n">
-        <v>6079</v>
+        <v>6064</v>
       </c>
       <c r="Z19" t="n">
-        <v>5875</v>
+        <v>5830</v>
       </c>
       <c r="AA19" t="n">
-        <v>5556</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>4966</v>
+        <v>5105</v>
       </c>
       <c r="E20" t="n">
-        <v>4827</v>
+        <v>4906</v>
       </c>
       <c r="F20" t="n">
-        <v>4778</v>
+        <v>4804</v>
       </c>
       <c r="G20" t="n">
-        <v>4760</v>
+        <v>4817</v>
       </c>
       <c r="H20" t="n">
-        <v>4789</v>
+        <v>4863</v>
       </c>
       <c r="I20" t="n">
-        <v>4901</v>
+        <v>5035</v>
       </c>
       <c r="J20" t="n">
-        <v>5233</v>
+        <v>5570</v>
       </c>
       <c r="K20" t="n">
-        <v>5569</v>
+        <v>6085</v>
       </c>
       <c r="L20" t="n">
-        <v>5818</v>
+        <v>6423</v>
       </c>
       <c r="M20" t="n">
-        <v>5913</v>
+        <v>6506</v>
       </c>
       <c r="N20" t="n">
-        <v>5853</v>
+        <v>6335</v>
       </c>
       <c r="O20" t="n">
-        <v>5834</v>
+        <v>6265</v>
       </c>
       <c r="P20" t="n">
-        <v>5788</v>
+        <v>6167</v>
       </c>
       <c r="Q20" t="n">
-        <v>5767</v>
+        <v>6090</v>
       </c>
       <c r="R20" t="n">
-        <v>5731</v>
+        <v>5966</v>
       </c>
       <c r="S20" t="n">
-        <v>5726</v>
+        <v>5907</v>
       </c>
       <c r="T20" t="n">
-        <v>5801</v>
+        <v>5960</v>
       </c>
       <c r="U20" t="n">
-        <v>6016</v>
+        <v>6123</v>
       </c>
       <c r="V20" t="n">
-        <v>6420</v>
+        <v>6406</v>
       </c>
       <c r="W20" t="n">
-        <v>6482</v>
+        <v>6470</v>
       </c>
       <c r="X20" t="n">
-        <v>6301</v>
+        <v>6233</v>
       </c>
       <c r="Y20" t="n">
-        <v>6059</v>
+        <v>5931</v>
       </c>
       <c r="Z20" t="n">
-        <v>5856</v>
+        <v>5690</v>
       </c>
       <c r="AA20" t="n">
-        <v>5527</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>4718</v>
+        <v>4979</v>
       </c>
       <c r="E21" t="n">
-        <v>4597</v>
+        <v>4737</v>
       </c>
       <c r="F21" t="n">
-        <v>4547</v>
+        <v>4635</v>
       </c>
       <c r="G21" t="n">
-        <v>4536</v>
+        <v>4623</v>
       </c>
       <c r="H21" t="n">
-        <v>4575</v>
+        <v>4692</v>
       </c>
       <c r="I21" t="n">
-        <v>4661</v>
+        <v>4812</v>
       </c>
       <c r="J21" t="n">
-        <v>4938</v>
+        <v>5218</v>
       </c>
       <c r="K21" t="n">
-        <v>5256</v>
+        <v>5674</v>
       </c>
       <c r="L21" t="n">
-        <v>5518</v>
+        <v>6004</v>
       </c>
       <c r="M21" t="n">
-        <v>5603</v>
+        <v>6050</v>
       </c>
       <c r="N21" t="n">
-        <v>5585</v>
+        <v>5908</v>
       </c>
       <c r="O21" t="n">
-        <v>5568</v>
+        <v>5774</v>
       </c>
       <c r="P21" t="n">
+        <v>5672</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5612</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5555</v>
+      </c>
+      <c r="S21" t="n">
         <v>5548</v>
       </c>
-      <c r="Q21" t="n">
-        <v>5532</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5516</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5514</v>
-      </c>
       <c r="T21" t="n">
-        <v>5534</v>
+        <v>5602</v>
       </c>
       <c r="U21" t="n">
-        <v>5697</v>
+        <v>5750</v>
       </c>
       <c r="V21" t="n">
-        <v>6119</v>
+        <v>6096</v>
       </c>
       <c r="W21" t="n">
-        <v>6160</v>
+        <v>6151</v>
       </c>
       <c r="X21" t="n">
-        <v>5972</v>
+        <v>5913</v>
       </c>
       <c r="Y21" t="n">
-        <v>5740</v>
+        <v>5636</v>
       </c>
       <c r="Z21" t="n">
-        <v>5535</v>
+        <v>5388</v>
       </c>
       <c r="AA21" t="n">
-        <v>5210</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="22">
@@ -2241,76 +2241,76 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>4679</v>
+        <v>4855</v>
       </c>
       <c r="E22" t="n">
-        <v>4559</v>
+        <v>4614</v>
       </c>
       <c r="F22" t="n">
-        <v>4509</v>
+        <v>4512</v>
       </c>
       <c r="G22" t="n">
-        <v>4498</v>
+        <v>4501</v>
       </c>
       <c r="H22" t="n">
-        <v>4536</v>
+        <v>4569</v>
       </c>
       <c r="I22" t="n">
-        <v>4622</v>
+        <v>4689</v>
       </c>
       <c r="J22" t="n">
-        <v>4899</v>
+        <v>5094</v>
       </c>
       <c r="K22" t="n">
-        <v>5217</v>
+        <v>5549</v>
       </c>
       <c r="L22" t="n">
-        <v>5478</v>
+        <v>5878</v>
       </c>
       <c r="M22" t="n">
-        <v>5564</v>
+        <v>5924</v>
       </c>
       <c r="N22" t="n">
-        <v>5548</v>
+        <v>5794</v>
       </c>
       <c r="O22" t="n">
-        <v>5534</v>
+        <v>5671</v>
       </c>
       <c r="P22" t="n">
-        <v>5517</v>
+        <v>5576</v>
       </c>
       <c r="Q22" t="n">
-        <v>5503</v>
+        <v>5521</v>
       </c>
       <c r="R22" t="n">
-        <v>5489</v>
+        <v>5468</v>
       </c>
       <c r="S22" t="n">
-        <v>5487</v>
+        <v>5462</v>
       </c>
       <c r="T22" t="n">
-        <v>5507</v>
+        <v>5512</v>
       </c>
       <c r="U22" t="n">
-        <v>5666</v>
+        <v>5649</v>
       </c>
       <c r="V22" t="n">
-        <v>6079</v>
+        <v>5969</v>
       </c>
       <c r="W22" t="n">
-        <v>6119</v>
+        <v>6020</v>
       </c>
       <c r="X22" t="n">
-        <v>5931</v>
+        <v>5783</v>
       </c>
       <c r="Y22" t="n">
-        <v>5699</v>
+        <v>5506</v>
       </c>
       <c r="Z22" t="n">
-        <v>5494</v>
+        <v>5259</v>
       </c>
       <c r="AA22" t="n">
-        <v>5169</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,159 @@
         <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>4626</v>
+        <v>4897</v>
       </c>
       <c r="E23" t="n">
-        <v>4505</v>
+        <v>4656</v>
       </c>
       <c r="F23" t="n">
-        <v>4455</v>
+        <v>4554</v>
       </c>
       <c r="G23" t="n">
-        <v>4445</v>
+        <v>4542</v>
       </c>
       <c r="H23" t="n">
-        <v>4483</v>
+        <v>4611</v>
       </c>
       <c r="I23" t="n">
-        <v>4569</v>
+        <v>4730</v>
       </c>
       <c r="J23" t="n">
-        <v>4846</v>
+        <v>5136</v>
       </c>
       <c r="K23" t="n">
-        <v>5163</v>
+        <v>5591</v>
       </c>
       <c r="L23" t="n">
-        <v>5424</v>
+        <v>5921</v>
       </c>
       <c r="M23" t="n">
-        <v>5509</v>
+        <v>5967</v>
       </c>
       <c r="N23" t="n">
-        <v>5497</v>
+        <v>5832</v>
       </c>
       <c r="O23" t="n">
-        <v>5486</v>
+        <v>5706</v>
       </c>
       <c r="P23" t="n">
-        <v>5473</v>
+        <v>5608</v>
       </c>
       <c r="Q23" t="n">
-        <v>5462</v>
+        <v>5552</v>
       </c>
       <c r="R23" t="n">
-        <v>5451</v>
+        <v>5498</v>
       </c>
       <c r="S23" t="n">
-        <v>5450</v>
+        <v>5491</v>
       </c>
       <c r="T23" t="n">
-        <v>5469</v>
+        <v>5543</v>
       </c>
       <c r="U23" t="n">
-        <v>5623</v>
+        <v>5683</v>
       </c>
       <c r="V23" t="n">
-        <v>6024</v>
+        <v>6012</v>
       </c>
       <c r="W23" t="n">
-        <v>6062</v>
+        <v>6065</v>
       </c>
       <c r="X23" t="n">
-        <v>5874</v>
+        <v>5827</v>
       </c>
       <c r="Y23" t="n">
-        <v>5643</v>
+        <v>5550</v>
       </c>
       <c r="Z23" t="n">
-        <v>5438</v>
+        <v>5302</v>
       </c>
       <c r="AA23" t="n">
-        <v>5114</v>
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4930</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4689</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4587</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4575</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4643</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4763</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5169</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5625</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5954</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5863</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5734</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5634</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5576</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5521</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5514</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5560</v>
+      </c>
+      <c r="U24" t="n">
+        <v>5683</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5973</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6020</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5789</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5519</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>5279</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4916</v>
       </c>
     </row>
   </sheetData>
